--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB38A82-8A1D-4D7F-9F06-F9D420FB4725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB8364B-476D-A145-8244-A0A02A4AB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
     <sheet name="Analyse" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="41">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Erstes UI-Design in der Dev-Konsole</t>
+  </si>
+  <si>
+    <t>Begann Player-Icons auf Azure Function zu hosten und verbesserte Directory-Struktur</t>
+  </si>
+  <si>
+    <t>Player-Icons auf Azure Blob Storage migriert</t>
+  </si>
+  <si>
+    <t>Doxygen-Kommentare hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -3552,31 +3561,31 @@
   <dimension ref="A3:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
-    <col min="6" max="6" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.52734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5078125" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" customWidth="1"/>
+    <col min="5" max="5" width="57.33984375" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C301)</f>
-        <v>2.7916666666666634</v>
+        <v>3.0624999999999964</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44839</v>
       </c>
@@ -3616,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44839</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44839</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44853</v>
       </c>
@@ -3684,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44853</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44862</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44862</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44862</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44867</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44867</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44867</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44873</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44881</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44881</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44881</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44881</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44883</v>
       </c>
@@ -3905,7 +3914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44885</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44888</v>
       </c>
@@ -3939,7 +3948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44889</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44890</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44890</v>
       </c>
@@ -4024,7 +4033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44890</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44890</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="6">
-        <v>0.19791666666666699</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>28</v>
@@ -4058,7 +4067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44892</v>
       </c>
@@ -4069,49 +4078,81 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>44892</v>
+      </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44893</v>
+      </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>44894</v>
+      </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.25E-2</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>44894</v>
+      </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>30</v>
@@ -4120,7 +4161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>30</v>
@@ -4129,7 +4170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>30</v>
@@ -4138,7 +4179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>30</v>
@@ -4147,7 +4188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>30</v>
@@ -4156,7 +4197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>30</v>
@@ -4165,7 +4206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>30</v>
@@ -4174,7 +4215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>30</v>
@@ -4183,7 +4224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>30</v>
@@ -4192,7 +4233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>30</v>
@@ -4201,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -4210,7 +4251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>30</v>
@@ -4219,7 +4260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>30</v>
@@ -4228,7 +4269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>30</v>
@@ -4237,7 +4278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -4246,7 +4287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>30</v>
@@ -4255,7 +4296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>30</v>
@@ -4264,7 +4305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>30</v>
@@ -4273,7 +4314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>30</v>
@@ -4282,7 +4323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>30</v>
@@ -4291,7 +4332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>30</v>
@@ -4300,7 +4341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>30</v>
@@ -4309,7 +4350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>30</v>
@@ -4318,7 +4359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>30</v>
@@ -4327,7 +4368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>30</v>
@@ -4336,7 +4377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>30</v>
@@ -4345,7 +4386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>30</v>
@@ -4354,7 +4395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>30</v>
@@ -4363,7 +4404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>30</v>
@@ -4372,7 +4413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>30</v>
@@ -4381,7 +4422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>30</v>
@@ -4390,7 +4431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>30</v>
@@ -4399,7 +4440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>30</v>
@@ -4408,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>30</v>
@@ -4417,7 +4458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>30</v>
@@ -4426,7 +4467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>30</v>
@@ -4435,7 +4476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>30</v>
@@ -4444,7 +4485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>30</v>
@@ -4453,7 +4494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>30</v>
@@ -4462,7 +4503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>30</v>
@@ -4471,7 +4512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>30</v>
@@ -4480,7 +4521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>30</v>
@@ -4489,7 +4530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>30</v>
@@ -4498,7 +4539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>30</v>
@@ -4507,7 +4548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>30</v>
@@ -4516,7 +4557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>30</v>
@@ -4525,7 +4566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>30</v>
@@ -4534,7 +4575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>30</v>
@@ -4543,7 +4584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>30</v>
@@ -4552,7 +4593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>30</v>
@@ -4561,7 +4602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>30</v>
@@ -4570,7 +4611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>30</v>
@@ -4579,7 +4620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>30</v>
@@ -4588,7 +4629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>30</v>
@@ -4597,7 +4638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>30</v>
@@ -4606,7 +4647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>30</v>
@@ -4615,7 +4656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>30</v>
@@ -4624,7 +4665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>30</v>
@@ -4633,7 +4674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>30</v>
@@ -4642,7 +4683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>30</v>
@@ -4651,7 +4692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>30</v>
@@ -4660,7 +4701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>30</v>
@@ -4669,7 +4710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>30</v>
@@ -4678,7 +4719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>30</v>
@@ -4687,7 +4728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>30</v>
@@ -4696,7 +4737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>30</v>
@@ -4705,7 +4746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>30</v>
@@ -4714,7 +4755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>30</v>
@@ -4723,7 +4764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>30</v>
@@ -4732,7 +4773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>30</v>
@@ -4741,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>30</v>
@@ -4750,7 +4791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>30</v>
@@ -4759,7 +4800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>30</v>
@@ -4768,7 +4809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>30</v>
@@ -4777,7 +4818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>30</v>
@@ -4786,7 +4827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>30</v>
@@ -4795,7 +4836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>30</v>
@@ -4804,7 +4845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>30</v>
@@ -4813,7 +4854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>30</v>
@@ -4822,7 +4863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>30</v>
@@ -4831,7 +4872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>30</v>
@@ -4840,7 +4881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>30</v>
@@ -4849,7 +4890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>30</v>
@@ -4858,7 +4899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>30</v>
@@ -4867,7 +4908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>30</v>
@@ -4876,7 +4917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>30</v>
@@ -4885,7 +4926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>30</v>
@@ -4894,7 +4935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>30</v>
@@ -4903,7 +4944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
         <v>30</v>
@@ -4912,7 +4953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>30</v>
@@ -4921,7 +4962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>30</v>
@@ -4930,7 +4971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>30</v>
@@ -4939,7 +4980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>30</v>
@@ -4948,7 +4989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>30</v>
@@ -4957,7 +4998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>30</v>
@@ -4966,7 +5007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>30</v>
@@ -4975,7 +5016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>30</v>
@@ -4984,7 +5025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
         <v>30</v>
@@ -4993,7 +5034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
         <v>30</v>
@@ -5002,7 +5043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
         <v>30</v>
@@ -5011,7 +5052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
         <v>30</v>
@@ -5020,7 +5061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>30</v>
@@ -5029,7 +5070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
         <v>30</v>
@@ -5038,7 +5079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>30</v>
@@ -5047,7 +5088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>30</v>
@@ -5056,7 +5097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>30</v>
@@ -5065,7 +5106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>30</v>
@@ -5074,7 +5115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>30</v>
@@ -5083,7 +5124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
         <v>30</v>
@@ -5092,7 +5133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>30</v>
@@ -5101,7 +5142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
         <v>30</v>
@@ -5110,7 +5151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
         <v>30</v>
@@ -5119,7 +5160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
         <v>30</v>
@@ -5128,7 +5169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>30</v>
@@ -5137,7 +5178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>30</v>
@@ -5146,7 +5187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
         <v>30</v>
@@ -5155,7 +5196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>30</v>
@@ -5164,7 +5205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>30</v>
@@ -5173,7 +5214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>30</v>
@@ -5182,7 +5223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>30</v>
@@ -5191,7 +5232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>30</v>
@@ -5200,7 +5241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>30</v>
@@ -5209,7 +5250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>30</v>
@@ -5218,7 +5259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>30</v>
@@ -5227,7 +5268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>30</v>
@@ -5236,7 +5277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>30</v>
@@ -5245,7 +5286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
         <v>30</v>
@@ -5254,7 +5295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>30</v>
@@ -5263,7 +5304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>30</v>
@@ -5272,7 +5313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>30</v>
@@ -5281,7 +5322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>30</v>
@@ -5290,7 +5331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>30</v>
@@ -5299,7 +5340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
         <v>30</v>
@@ -5308,7 +5349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
         <v>30</v>
@@ -5317,7 +5358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>30</v>
@@ -5326,7 +5367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>30</v>
@@ -5335,7 +5376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>30</v>
@@ -5344,7 +5385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
         <v>30</v>
@@ -5353,7 +5394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>30</v>
@@ -5362,7 +5403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
         <v>30</v>
@@ -5371,7 +5412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
         <v>30</v>
@@ -5380,7 +5421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
         <v>30</v>
@@ -5389,7 +5430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>30</v>
@@ -5398,7 +5439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>30</v>
@@ -5407,7 +5448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>30</v>
@@ -5416,7 +5457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
         <v>30</v>
@@ -5425,7 +5466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>30</v>
@@ -5434,7 +5475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>30</v>
@@ -5443,7 +5484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
         <v>30</v>
@@ -5452,7 +5493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
         <v>30</v>
@@ -5461,7 +5502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
         <v>30</v>
@@ -5470,7 +5511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
         <v>30</v>
@@ -5479,7 +5520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
         <v>30</v>
@@ -5488,7 +5529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
         <v>30</v>
@@ -5497,7 +5538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
         <v>30</v>
@@ -5506,7 +5547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
         <v>30</v>
@@ -5515,7 +5556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
         <v>30</v>
@@ -5524,7 +5565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
         <v>30</v>
@@ -5533,7 +5574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
         <v>30</v>
@@ -5542,7 +5583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>30</v>
@@ -5551,7 +5592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
         <v>30</v>
@@ -5560,7 +5601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
         <v>30</v>
@@ -5569,7 +5610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
         <v>30</v>
@@ -5578,7 +5619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
         <v>30</v>
@@ -5587,7 +5628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
         <v>30</v>
@@ -5596,7 +5637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>30</v>
@@ -5605,7 +5646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
         <v>30</v>
@@ -5614,7 +5655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
         <v>30</v>
@@ -5623,7 +5664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
         <v>30</v>
@@ -5632,7 +5673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
         <v>30</v>
@@ -5641,7 +5682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
         <v>30</v>
@@ -5650,7 +5691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>30</v>
@@ -5659,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
         <v>30</v>
@@ -5668,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
         <v>30</v>
@@ -5677,7 +5718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
         <v>30</v>
@@ -5686,7 +5727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
         <v>30</v>
@@ -5695,7 +5736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
         <v>30</v>
@@ -5704,7 +5745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
         <v>30</v>
@@ -5713,7 +5754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
         <v>30</v>
@@ -5722,7 +5763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
         <v>30</v>
@@ -5731,7 +5772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
         <v>30</v>
@@ -5740,7 +5781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
         <v>30</v>
@@ -5749,7 +5790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
         <v>30</v>
@@ -5758,7 +5799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
         <v>30</v>
@@ -5767,7 +5808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
         <v>30</v>
@@ -5776,7 +5817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
         <v>30</v>
@@ -5785,7 +5826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
         <v>30</v>
@@ -5794,7 +5835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
         <v>30</v>
@@ -5803,7 +5844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
         <v>30</v>
@@ -5812,7 +5853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
         <v>30</v>
@@ -5821,7 +5862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
         <v>30</v>
@@ -5830,7 +5871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
         <v>30</v>
@@ -5839,7 +5880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
         <v>30</v>
@@ -5848,7 +5889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>30</v>
@@ -5857,7 +5898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
         <v>30</v>
@@ -5866,7 +5907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
         <v>30</v>
@@ -5875,7 +5916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>30</v>
@@ -5884,7 +5925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>30</v>
@@ -5893,7 +5934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>30</v>
@@ -5902,7 +5943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>30</v>
@@ -5911,7 +5952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>30</v>
@@ -5920,7 +5961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>30</v>
@@ -5929,7 +5970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>30</v>
@@ -5938,7 +5979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>30</v>
@@ -5947,7 +5988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>30</v>
@@ -5956,7 +5997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>30</v>
@@ -5965,7 +6006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>30</v>
@@ -5974,7 +6015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>30</v>
@@ -5983,7 +6024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
         <v>30</v>
@@ -5992,7 +6033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
         <v>30</v>
@@ -6001,7 +6042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
         <v>30</v>
@@ -6010,7 +6051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
         <v>30</v>
@@ -6019,7 +6060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
         <v>30</v>
@@ -6028,7 +6069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
         <v>30</v>
@@ -6037,7 +6078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
         <v>30</v>
@@ -6046,7 +6087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
         <v>30</v>
@@ -6055,7 +6096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
         <v>30</v>
@@ -6064,7 +6105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>30</v>
@@ -6073,7 +6114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
         <v>30</v>
@@ -6082,7 +6123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
         <v>30</v>
@@ -6091,7 +6132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
         <v>30</v>
@@ -6100,7 +6141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
         <v>30</v>
@@ -6109,7 +6150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
         <v>30</v>
@@ -6118,7 +6159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
         <v>30</v>
@@ -6127,7 +6168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
         <v>30</v>
@@ -6136,7 +6177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>30</v>
@@ -6145,7 +6186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>30</v>
@@ -6154,7 +6195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>30</v>
@@ -6163,7 +6204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>30</v>
@@ -6172,7 +6213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>30</v>
@@ -6181,7 +6222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>30</v>
@@ -6190,7 +6231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>30</v>
@@ -6199,7 +6240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>30</v>
@@ -6208,7 +6249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
         <v>30</v>
@@ -6217,7 +6258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
         <v>30</v>
@@ -6226,7 +6267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
         <v>30</v>
@@ -6235,7 +6276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
         <v>30</v>
@@ -6244,7 +6285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
         <v>30</v>
@@ -6253,7 +6294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
         <v>30</v>
@@ -6262,7 +6303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
         <v>30</v>
@@ -6271,7 +6312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
         <v>30</v>
@@ -6280,7 +6321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
         <v>30</v>
@@ -6289,7 +6330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
         <v>30</v>
@@ -6298,7 +6339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
         <v>30</v>
@@ -6307,7 +6348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
         <v>30</v>
@@ -6316,7 +6357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
         <v>30</v>
@@ -6325,7 +6366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
         <v>30</v>
@@ -6334,7 +6375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
         <v>30</v>
@@ -6343,7 +6384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
         <v>30</v>
@@ -6352,7 +6393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
         <v>30</v>
@@ -6361,7 +6402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
         <v>30</v>
@@ -6370,7 +6411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>30</v>
@@ -6379,7 +6420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>30</v>
@@ -6388,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
         <v>30</v>
@@ -6397,7 +6438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
         <v>30</v>
@@ -6406,7 +6447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>30</v>
@@ -6415,7 +6456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>30</v>
@@ -6424,7 +6465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>30</v>
@@ -6433,7 +6474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>30</v>
@@ -6442,7 +6483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
         <v>30</v>
@@ -6451,7 +6492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
         <v>30</v>
@@ -6460,7 +6501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
         <v>30</v>
@@ -6469,7 +6510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
         <v>30</v>
@@ -6478,7 +6519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
         <v>30</v>
@@ -6487,7 +6528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>30</v>
@@ -6496,7 +6537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>30</v>
       </c>
@@ -6504,7 +6545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>30</v>
       </c>
@@ -6512,7 +6553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>30</v>
       </c>
@@ -6520,7 +6561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>30</v>
       </c>
@@ -6528,7 +6569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>30</v>
       </c>
@@ -6536,7 +6577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>30</v>
       </c>
@@ -6544,7 +6585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>30</v>
       </c>
@@ -6552,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>30</v>
       </c>
@@ -6560,7 +6601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>30</v>
       </c>
@@ -6568,7 +6609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>30</v>
       </c>
@@ -6576,7 +6617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>30</v>
       </c>
@@ -6584,7 +6625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>30</v>
       </c>
@@ -6592,7 +6633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>30</v>
       </c>
@@ -6600,7 +6641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>30</v>
       </c>
@@ -6608,7 +6649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>30</v>
       </c>
@@ -6616,7 +6657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>30</v>
       </c>
@@ -6624,7 +6665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>30</v>
       </c>
@@ -6632,7 +6673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>30</v>
       </c>
@@ -6640,7 +6681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>30</v>
       </c>
@@ -6648,7 +6689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>30</v>
       </c>
@@ -6656,7 +6697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>30</v>
       </c>
@@ -6664,7 +6705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>30</v>
       </c>
@@ -6672,7 +6713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>30</v>
       </c>
@@ -6680,7 +6721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>30</v>
       </c>
@@ -6688,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>30</v>
       </c>
@@ -6696,7 +6737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>30</v>
       </c>
@@ -6704,7 +6745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>30</v>
       </c>
@@ -6712,7 +6753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>30</v>
       </c>
@@ -6720,7 +6761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>30</v>
       </c>
@@ -6728,7 +6769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>30</v>
       </c>
@@ -6736,7 +6777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>30</v>
       </c>
@@ -6744,7 +6785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>30</v>
       </c>
@@ -6752,7 +6793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>30</v>
       </c>
@@ -6760,7 +6801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>30</v>
       </c>
@@ -6768,7 +6809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>30</v>
       </c>
@@ -6776,7 +6817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>30</v>
       </c>
@@ -6784,7 +6825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>30</v>
       </c>
@@ -6792,7 +6833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>30</v>
       </c>
@@ -6800,7 +6841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>30</v>
       </c>
@@ -6808,7 +6849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>30</v>
       </c>
@@ -6816,7 +6857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>30</v>
       </c>
@@ -6824,7 +6865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>30</v>
       </c>
@@ -6832,7 +6873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>30</v>
       </c>
@@ -6840,7 +6881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>30</v>
       </c>
@@ -6848,7 +6889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>30</v>
       </c>
@@ -6856,7 +6897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>30</v>
       </c>
@@ -6864,7 +6905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>30</v>
       </c>
@@ -6872,7 +6913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>30</v>
       </c>
@@ -6880,7 +6921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>30</v>
       </c>
@@ -6888,7 +6929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>30</v>
       </c>
@@ -6896,7 +6937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>30</v>
       </c>
@@ -6904,7 +6945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>30</v>
       </c>
@@ -6912,7 +6953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>30</v>
       </c>
@@ -6920,7 +6961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>30</v>
       </c>
@@ -6928,7 +6969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>30</v>
       </c>
@@ -6936,7 +6977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>30</v>
       </c>
@@ -6944,7 +6985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>30</v>
       </c>
@@ -6952,7 +6993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>30</v>
       </c>
@@ -6960,7 +7001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>30</v>
       </c>
@@ -6968,7 +7009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>30</v>
       </c>
@@ -6976,7 +7017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>30</v>
       </c>
@@ -6984,7 +7025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +7033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>30</v>
       </c>
@@ -7000,7 +7041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>30</v>
       </c>
@@ -7008,7 +7049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>30</v>
       </c>
@@ -7016,7 +7057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>30</v>
       </c>
@@ -7024,7 +7065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>30</v>
       </c>
@@ -7032,7 +7073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>30</v>
       </c>
@@ -7040,7 +7081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>30</v>
       </c>
@@ -7048,7 +7089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>30</v>
       </c>
@@ -7056,7 +7097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>30</v>
       </c>
@@ -7064,7 +7105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>30</v>
       </c>
@@ -7072,7 +7113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>30</v>
       </c>
@@ -7080,7 +7121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>30</v>
       </c>
@@ -7088,7 +7129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>30</v>
       </c>
@@ -7096,7 +7137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>30</v>
       </c>
@@ -7104,7 +7145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>30</v>
       </c>
@@ -7112,7 +7153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>30</v>
       </c>
@@ -7120,7 +7161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>30</v>
       </c>
@@ -7128,7 +7169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>30</v>
       </c>
@@ -7136,7 +7177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>30</v>
       </c>
@@ -7144,7 +7185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>30</v>
       </c>
@@ -7152,7 +7193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>30</v>
       </c>
@@ -7160,7 +7201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>30</v>
       </c>
@@ -7168,7 +7209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>30</v>
       </c>
@@ -7176,7 +7217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>30</v>
       </c>
@@ -7184,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>30</v>
       </c>
@@ -7192,7 +7233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>30</v>
       </c>
@@ -7200,7 +7241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>30</v>
       </c>
@@ -7208,7 +7249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>30</v>
       </c>
@@ -7216,7 +7257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>30</v>
       </c>
@@ -7224,7 +7265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>30</v>
       </c>
@@ -7232,7 +7273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>30</v>
       </c>
@@ -7240,7 +7281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>30</v>
       </c>
@@ -7248,7 +7289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>30</v>
       </c>
@@ -7256,7 +7297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>30</v>
       </c>
@@ -7264,7 +7305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>30</v>
       </c>
@@ -7272,7 +7313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>30</v>
       </c>
@@ -7280,7 +7321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>30</v>
       </c>
@@ -7288,7 +7329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>30</v>
       </c>
@@ -7296,7 +7337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>30</v>
       </c>
@@ -7304,7 +7345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>30</v>
       </c>
@@ -7312,7 +7353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>30</v>
       </c>
@@ -7320,7 +7361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>30</v>
       </c>
@@ -7328,7 +7369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>30</v>
       </c>
@@ -7336,7 +7377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>30</v>
       </c>
@@ -7344,7 +7385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>30</v>
       </c>
@@ -7352,7 +7393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>30</v>
       </c>
@@ -7360,7 +7401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>30</v>
       </c>
@@ -7368,7 +7409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>30</v>
       </c>
@@ -7376,7 +7417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>30</v>
       </c>
@@ -7384,7 +7425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>30</v>
       </c>
@@ -7392,7 +7433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>30</v>
       </c>
@@ -7400,7 +7441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>30</v>
       </c>
@@ -7408,7 +7449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>30</v>
       </c>
@@ -7416,7 +7457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>30</v>
       </c>
@@ -7424,7 +7465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>30</v>
       </c>
@@ -7432,7 +7473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>30</v>
       </c>
@@ -7440,7 +7481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>30</v>
       </c>
@@ -7448,7 +7489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>30</v>
       </c>
@@ -7456,7 +7497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>30</v>
       </c>
@@ -7464,7 +7505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>30</v>
       </c>
@@ -7472,7 +7513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>30</v>
       </c>
@@ -7480,7 +7521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>30</v>
       </c>
@@ -7488,7 +7529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>30</v>
       </c>
@@ -7496,7 +7537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>30</v>
       </c>
@@ -7504,7 +7545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>30</v>
       </c>
@@ -7512,7 +7553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>30</v>
       </c>
@@ -7520,7 +7561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>30</v>
       </c>
@@ -7528,7 +7569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>30</v>
       </c>
@@ -7536,7 +7577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>30</v>
       </c>
@@ -7544,7 +7585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>30</v>
       </c>
@@ -7552,7 +7593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>30</v>
       </c>
@@ -7560,7 +7601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>30</v>
       </c>
@@ -7568,7 +7609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>30</v>
       </c>
@@ -7576,7 +7617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>30</v>
       </c>
@@ -7584,7 +7625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>30</v>
       </c>
@@ -7592,7 +7633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>30</v>
       </c>
@@ -7600,7 +7641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>30</v>
       </c>
@@ -7608,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>30</v>
       </c>
@@ -7616,7 +7657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>30</v>
       </c>
@@ -7624,7 +7665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>30</v>
       </c>
@@ -7632,7 +7673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>30</v>
       </c>
@@ -7640,7 +7681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>30</v>
       </c>
@@ -7648,7 +7689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>30</v>
       </c>
@@ -7656,7 +7697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>30</v>
       </c>
@@ -7664,7 +7705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>30</v>
       </c>
@@ -7672,7 +7713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>30</v>
       </c>
@@ -7680,7 +7721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>30</v>
       </c>
@@ -7688,7 +7729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>30</v>
       </c>
@@ -7696,7 +7737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>30</v>
       </c>
@@ -7704,7 +7745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>30</v>
       </c>
@@ -7712,7 +7753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>30</v>
       </c>
@@ -7720,7 +7761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>30</v>
       </c>
@@ -7728,7 +7769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>30</v>
       </c>
@@ -7736,7 +7777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>30</v>
       </c>
@@ -7744,7 +7785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>30</v>
       </c>
@@ -7752,7 +7793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>30</v>
       </c>
@@ -7760,7 +7801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>30</v>
       </c>
@@ -7768,7 +7809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>30</v>
       </c>
@@ -7776,7 +7817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>30</v>
       </c>
@@ -7784,7 +7825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>30</v>
       </c>
@@ -7792,7 +7833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>30</v>
       </c>
@@ -7800,7 +7841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>30</v>
       </c>
@@ -7808,7 +7849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>30</v>
       </c>
@@ -7816,7 +7857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>30</v>
       </c>
@@ -7824,7 +7865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>30</v>
       </c>
@@ -7832,7 +7873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>30</v>
       </c>
@@ -7848,7 +7889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>30</v>
       </c>
@@ -7856,7 +7897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>30</v>
       </c>
@@ -7864,7 +7905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>30</v>
       </c>
@@ -7872,7 +7913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>30</v>
       </c>
@@ -7880,7 +7921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>30</v>
       </c>
@@ -7888,7 +7929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>30</v>
       </c>
@@ -7896,7 +7937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>30</v>
       </c>
@@ -7904,7 +7945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>30</v>
       </c>
@@ -7912,7 +7953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>30</v>
       </c>
@@ -7920,7 +7961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>30</v>
       </c>
@@ -7928,7 +7969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>30</v>
       </c>
@@ -7936,7 +7977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>30</v>
       </c>
@@ -7944,7 +7985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>30</v>
       </c>
@@ -7952,7 +7993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>30</v>
       </c>
@@ -7960,7 +8001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>30</v>
       </c>
@@ -7968,7 +8009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>30</v>
       </c>
@@ -7976,7 +8017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>30</v>
       </c>
@@ -7984,7 +8025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>30</v>
       </c>
@@ -7992,7 +8033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>30</v>
       </c>
@@ -8000,7 +8041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>30</v>
       </c>
@@ -8008,7 +8049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>30</v>
       </c>
@@ -8016,7 +8057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>30</v>
       </c>
@@ -8024,7 +8065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>30</v>
       </c>
@@ -8032,7 +8073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>30</v>
       </c>
@@ -8040,7 +8081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>30</v>
       </c>
@@ -8048,7 +8089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>30</v>
       </c>
@@ -8056,7 +8097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>30</v>
       </c>
@@ -8064,7 +8105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>30</v>
       </c>
@@ -8072,7 +8113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>30</v>
       </c>
@@ -8080,7 +8121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>30</v>
       </c>
@@ -8134,73 +8175,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="42.046875" customWidth="1"/>
+    <col min="2" max="2" width="36.62109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -8219,18 +8260,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="36.9921875" customWidth="1"/>
+    <col min="2" max="2" width="22.0703125" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.671875" customWidth="1"/>
+    <col min="5" max="5" width="9.37109375" customWidth="1"/>
+    <col min="6" max="6" width="23.55078125" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -8243,7 +8284,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -8277,7 +8318,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -8294,7 +8335,7 @@
         <v>0.54166666666666496</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -8315,7 +8356,7 @@
         <v>1.3333333333333299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -8334,7 +8375,7 @@
         <v>0.64583333333333204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>35</v>
       </c>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB8364B-476D-A145-8244-A0A02A4AB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BD0AC1-7BFC-5B47-A410-A694608516C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="42">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -163,7 +163,7 @@
     <t>Player-Icons auf Azure Blob Storage migriert</t>
   </si>
   <si>
-    <t>Doxygen-Kommentare hinzugefügt</t>
+    <t>Doxygen-Kommentare und README.md hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -3560,8 +3560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="E25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -3581,7 +3582,7 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C301)</f>
-        <v>3.0624999999999964</v>
+        <v>3.0937499999999964</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4143,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="4">
-        <v>5.2083333333333336E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>28</v>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BD0AC1-7BFC-5B47-A410-A694608516C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD2E16-13D3-4C70-9D31-B26B264E3665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="42">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Doxygen-Kommentare und README.md hinzugefügt</t>
+  </si>
+  <si>
+    <t>Erweiterung der UI um auf alle vertikalen viewports zu passen</t>
   </si>
 </sst>
 </file>
@@ -3560,33 +3563,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="E25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.52734375" customWidth="1"/>
-    <col min="3" max="3" width="17.5078125" customWidth="1"/>
-    <col min="4" max="4" width="39.953125" customWidth="1"/>
-    <col min="5" max="5" width="57.33984375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="57.375" customWidth="1"/>
+    <col min="6" max="6" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C301)</f>
-        <v>3.0937499999999964</v>
+        <v>3.135416666666663</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44839</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44839</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44839</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44853</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44853</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44862</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44862</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44862</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44867</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44867</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44867</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44873</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44881</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44881</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44881</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44881</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44883</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44885</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44888</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44889</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44890</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44890</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44890</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44890</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44892</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44892</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44893</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -4153,16 +4156,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44894</v>
+      </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>30</v>
@@ -4171,7 +4182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>30</v>
@@ -4180,7 +4191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>30</v>
@@ -4189,7 +4200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>30</v>
@@ -4198,7 +4209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>30</v>
@@ -4207,7 +4218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>30</v>
@@ -4216,7 +4227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>30</v>
@@ -4225,7 +4236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>30</v>
@@ -4234,7 +4245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>30</v>
@@ -4243,7 +4254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -4252,7 +4263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>30</v>
@@ -4261,7 +4272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>30</v>
@@ -4270,7 +4281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>30</v>
@@ -4279,7 +4290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -4288,7 +4299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>30</v>
@@ -4297,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>30</v>
@@ -4306,7 +4317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>30</v>
@@ -4315,7 +4326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>30</v>
@@ -4324,7 +4335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>30</v>
@@ -4333,7 +4344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>30</v>
@@ -4342,7 +4353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>30</v>
@@ -4351,7 +4362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>30</v>
@@ -4360,7 +4371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>30</v>
@@ -4369,7 +4380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>30</v>
@@ -4378,7 +4389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>30</v>
@@ -4387,7 +4398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>30</v>
@@ -4396,7 +4407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>30</v>
@@ -4405,7 +4416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>30</v>
@@ -4414,7 +4425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>30</v>
@@ -4423,7 +4434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>30</v>
@@ -4432,7 +4443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>30</v>
@@ -4441,7 +4452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>30</v>
@@ -4450,7 +4461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>30</v>
@@ -4459,7 +4470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>30</v>
@@ -4468,7 +4479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>30</v>
@@ -4477,7 +4488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>30</v>
@@ -4486,7 +4497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>30</v>
@@ -4495,7 +4506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>30</v>
@@ -4504,7 +4515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>30</v>
@@ -4513,7 +4524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>30</v>
@@ -4522,7 +4533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>30</v>
@@ -4531,7 +4542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>30</v>
@@ -4540,7 +4551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>30</v>
@@ -4549,7 +4560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>30</v>
@@ -4558,7 +4569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>30</v>
@@ -4567,7 +4578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>30</v>
@@ -4576,7 +4587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>30</v>
@@ -4585,7 +4596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>30</v>
@@ -4594,7 +4605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>30</v>
@@ -4603,7 +4614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>30</v>
@@ -4612,7 +4623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>30</v>
@@ -4621,7 +4632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>30</v>
@@ -4630,7 +4641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>30</v>
@@ -4639,7 +4650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>30</v>
@@ -4648,7 +4659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>30</v>
@@ -4657,7 +4668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>30</v>
@@ -4666,7 +4677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>30</v>
@@ -4675,7 +4686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>30</v>
@@ -4684,7 +4695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>30</v>
@@ -4693,7 +4704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>30</v>
@@ -4702,7 +4713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>30</v>
@@ -4711,7 +4722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>30</v>
@@ -4720,7 +4731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>30</v>
@@ -4729,7 +4740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>30</v>
@@ -4738,7 +4749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>30</v>
@@ -4747,7 +4758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>30</v>
@@ -4756,7 +4767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>30</v>
@@ -4765,7 +4776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>30</v>
@@ -4774,7 +4785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>30</v>
@@ -4783,7 +4794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>30</v>
@@ -4792,7 +4803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>30</v>
@@ -4801,7 +4812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>30</v>
@@ -4810,7 +4821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>30</v>
@@ -4819,7 +4830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>30</v>
@@ -4828,7 +4839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>30</v>
@@ -4837,7 +4848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>30</v>
@@ -4846,7 +4857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>30</v>
@@ -4855,7 +4866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>30</v>
@@ -4864,7 +4875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>30</v>
@@ -4873,7 +4884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>30</v>
@@ -4882,7 +4893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>30</v>
@@ -4891,7 +4902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>30</v>
@@ -4900,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>30</v>
@@ -4909,7 +4920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>30</v>
@@ -4918,7 +4929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>30</v>
@@ -4927,7 +4938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>30</v>
@@ -4936,7 +4947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>30</v>
@@ -4945,7 +4956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
         <v>30</v>
@@ -4954,7 +4965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>30</v>
@@ -4963,7 +4974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>30</v>
@@ -4972,7 +4983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>30</v>
@@ -4981,7 +4992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>30</v>
@@ -4990,7 +5001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>30</v>
@@ -4999,7 +5010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>30</v>
@@ -5008,7 +5019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>30</v>
@@ -5017,7 +5028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>30</v>
@@ -5026,7 +5037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
         <v>30</v>
@@ -5035,7 +5046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
         <v>30</v>
@@ -5044,7 +5055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
         <v>30</v>
@@ -5053,7 +5064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
         <v>30</v>
@@ -5062,7 +5073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>30</v>
@@ -5071,7 +5082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
         <v>30</v>
@@ -5080,7 +5091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>30</v>
@@ -5089,7 +5100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>30</v>
@@ -5098,7 +5109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>30</v>
@@ -5107,7 +5118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>30</v>
@@ -5116,7 +5127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>30</v>
@@ -5125,7 +5136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
         <v>30</v>
@@ -5134,7 +5145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>30</v>
@@ -5143,7 +5154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
         <v>30</v>
@@ -5152,7 +5163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
         <v>30</v>
@@ -5161,7 +5172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
         <v>30</v>
@@ -5170,7 +5181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>30</v>
@@ -5179,7 +5190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>30</v>
@@ -5188,7 +5199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
         <v>30</v>
@@ -5197,7 +5208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>30</v>
@@ -5206,7 +5217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>30</v>
@@ -5215,7 +5226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>30</v>
@@ -5224,7 +5235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>30</v>
@@ -5233,7 +5244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>30</v>
@@ -5242,7 +5253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>30</v>
@@ -5251,7 +5262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>30</v>
@@ -5260,7 +5271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>30</v>
@@ -5269,7 +5280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>30</v>
@@ -5278,7 +5289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>30</v>
@@ -5287,7 +5298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
         <v>30</v>
@@ -5296,7 +5307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>30</v>
@@ -5305,7 +5316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>30</v>
@@ -5314,7 +5325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>30</v>
@@ -5323,7 +5334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>30</v>
@@ -5332,7 +5343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>30</v>
@@ -5341,7 +5352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
         <v>30</v>
@@ -5350,7 +5361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
         <v>30</v>
@@ -5359,7 +5370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>30</v>
@@ -5368,7 +5379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>30</v>
@@ -5377,7 +5388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>30</v>
@@ -5386,7 +5397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
         <v>30</v>
@@ -5395,7 +5406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>30</v>
@@ -5404,7 +5415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
         <v>30</v>
@@ -5413,7 +5424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
         <v>30</v>
@@ -5422,7 +5433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
         <v>30</v>
@@ -5431,7 +5442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>30</v>
@@ -5440,7 +5451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>30</v>
@@ -5449,7 +5460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>30</v>
@@ -5458,7 +5469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
         <v>30</v>
@@ -5467,7 +5478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>30</v>
@@ -5476,7 +5487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>30</v>
@@ -5485,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
         <v>30</v>
@@ -5494,7 +5505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
         <v>30</v>
@@ -5503,7 +5514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
         <v>30</v>
@@ -5512,7 +5523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
         <v>30</v>
@@ -5521,7 +5532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
         <v>30</v>
@@ -5530,7 +5541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
         <v>30</v>
@@ -5539,7 +5550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
         <v>30</v>
@@ -5548,7 +5559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
         <v>30</v>
@@ -5557,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
         <v>30</v>
@@ -5566,7 +5577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
         <v>30</v>
@@ -5575,7 +5586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
         <v>30</v>
@@ -5584,7 +5595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>30</v>
@@ -5593,7 +5604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
         <v>30</v>
@@ -5602,7 +5613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
         <v>30</v>
@@ -5611,7 +5622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
         <v>30</v>
@@ -5620,7 +5631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
         <v>30</v>
@@ -5629,7 +5640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
         <v>30</v>
@@ -5638,7 +5649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>30</v>
@@ -5647,7 +5658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
         <v>30</v>
@@ -5656,7 +5667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
         <v>30</v>
@@ -5665,7 +5676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
         <v>30</v>
@@ -5674,7 +5685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
         <v>30</v>
@@ -5683,7 +5694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
         <v>30</v>
@@ -5692,7 +5703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>30</v>
@@ -5701,7 +5712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
         <v>30</v>
@@ -5710,7 +5721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
         <v>30</v>
@@ -5719,7 +5730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
         <v>30</v>
@@ -5728,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
         <v>30</v>
@@ -5737,7 +5748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
         <v>30</v>
@@ -5746,7 +5757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
         <v>30</v>
@@ -5755,7 +5766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
         <v>30</v>
@@ -5764,7 +5775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
         <v>30</v>
@@ -5773,7 +5784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
         <v>30</v>
@@ -5782,7 +5793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
         <v>30</v>
@@ -5791,7 +5802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
         <v>30</v>
@@ -5800,7 +5811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
         <v>30</v>
@@ -5809,7 +5820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
         <v>30</v>
@@ -5818,7 +5829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
         <v>30</v>
@@ -5827,7 +5838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
         <v>30</v>
@@ -5836,7 +5847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
         <v>30</v>
@@ -5845,7 +5856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
         <v>30</v>
@@ -5854,7 +5865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
         <v>30</v>
@@ -5863,7 +5874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
         <v>30</v>
@@ -5872,7 +5883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
         <v>30</v>
@@ -5881,7 +5892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
         <v>30</v>
@@ -5890,7 +5901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>30</v>
@@ -5899,7 +5910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
         <v>30</v>
@@ -5908,7 +5919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
         <v>30</v>
@@ -5917,7 +5928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>30</v>
@@ -5926,7 +5937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>30</v>
@@ -5935,7 +5946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>30</v>
@@ -5944,7 +5955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>30</v>
@@ -5953,7 +5964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>30</v>
@@ -5962,7 +5973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>30</v>
@@ -5971,7 +5982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>30</v>
@@ -5980,7 +5991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>30</v>
@@ -5989,7 +6000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>30</v>
@@ -5998,7 +6009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>30</v>
@@ -6007,7 +6018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>30</v>
@@ -6016,7 +6027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>30</v>
@@ -6025,7 +6036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
         <v>30</v>
@@ -6034,7 +6045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
         <v>30</v>
@@ -6043,7 +6054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
         <v>30</v>
@@ -6052,7 +6063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
         <v>30</v>
@@ -6061,7 +6072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
         <v>30</v>
@@ -6070,7 +6081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
         <v>30</v>
@@ -6079,7 +6090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
         <v>30</v>
@@ -6088,7 +6099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
         <v>30</v>
@@ -6097,7 +6108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
         <v>30</v>
@@ -6106,7 +6117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>30</v>
@@ -6115,7 +6126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
         <v>30</v>
@@ -6124,7 +6135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
         <v>30</v>
@@ -6133,7 +6144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
         <v>30</v>
@@ -6142,7 +6153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
         <v>30</v>
@@ -6151,7 +6162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
         <v>30</v>
@@ -6160,7 +6171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
         <v>30</v>
@@ -6169,7 +6180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
         <v>30</v>
@@ -6178,7 +6189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>30</v>
@@ -6187,7 +6198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>30</v>
@@ -6196,7 +6207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>30</v>
@@ -6205,7 +6216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>30</v>
@@ -6214,7 +6225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>30</v>
@@ -6223,7 +6234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>30</v>
@@ -6232,7 +6243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>30</v>
@@ -6241,7 +6252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>30</v>
@@ -6250,7 +6261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
         <v>30</v>
@@ -6259,7 +6270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
         <v>30</v>
@@ -6268,7 +6279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
         <v>30</v>
@@ -6277,7 +6288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
         <v>30</v>
@@ -6286,7 +6297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
         <v>30</v>
@@ -6295,7 +6306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
         <v>30</v>
@@ -6304,7 +6315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
         <v>30</v>
@@ -6313,7 +6324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
         <v>30</v>
@@ -6322,7 +6333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
         <v>30</v>
@@ -6331,7 +6342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
         <v>30</v>
@@ -6340,7 +6351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
         <v>30</v>
@@ -6349,7 +6360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
         <v>30</v>
@@ -6358,7 +6369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
         <v>30</v>
@@ -6367,7 +6378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
         <v>30</v>
@@ -6376,7 +6387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
         <v>30</v>
@@ -6385,7 +6396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
         <v>30</v>
@@ -6394,7 +6405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
         <v>30</v>
@@ -6403,7 +6414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
         <v>30</v>
@@ -6412,7 +6423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>30</v>
@@ -6421,7 +6432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>30</v>
@@ -6430,7 +6441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
         <v>30</v>
@@ -6439,7 +6450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
         <v>30</v>
@@ -6448,7 +6459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>30</v>
@@ -6457,7 +6468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>30</v>
@@ -6466,7 +6477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>30</v>
@@ -6475,7 +6486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>30</v>
@@ -6484,7 +6495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
         <v>30</v>
@@ -6493,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
         <v>30</v>
@@ -6502,7 +6513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
         <v>30</v>
@@ -6511,7 +6522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
         <v>30</v>
@@ -6520,7 +6531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
         <v>30</v>
@@ -6529,7 +6540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>30</v>
@@ -6538,7 +6549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>30</v>
       </c>
@@ -6546,7 +6557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>30</v>
       </c>
@@ -6554,7 +6565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>30</v>
       </c>
@@ -6562,7 +6573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>30</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>30</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>30</v>
       </c>
@@ -6586,7 +6597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>30</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>30</v>
       </c>
@@ -6602,7 +6613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>30</v>
       </c>
@@ -6610,7 +6621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>30</v>
       </c>
@@ -6618,7 +6629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>30</v>
       </c>
@@ -6626,7 +6637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>30</v>
       </c>
@@ -6634,7 +6645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>30</v>
       </c>
@@ -6642,7 +6653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>30</v>
       </c>
@@ -6650,7 +6661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>30</v>
       </c>
@@ -6658,7 +6669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>30</v>
       </c>
@@ -6666,7 +6677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>30</v>
       </c>
@@ -6674,7 +6685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>30</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>30</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>30</v>
       </c>
@@ -6698,7 +6709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>30</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>30</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>30</v>
       </c>
@@ -6722,7 +6733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>30</v>
       </c>
@@ -6746,7 +6757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>30</v>
       </c>
@@ -6754,7 +6765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>30</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>30</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>30</v>
       </c>
@@ -6778,7 +6789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>30</v>
       </c>
@@ -6786,7 +6797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>30</v>
       </c>
@@ -6794,7 +6805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>30</v>
       </c>
@@ -6802,7 +6813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>30</v>
       </c>
@@ -6810,7 +6821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>30</v>
       </c>
@@ -6818,7 +6829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>30</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>30</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>30</v>
       </c>
@@ -6842,7 +6853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>30</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>30</v>
       </c>
@@ -6858,7 +6869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>30</v>
       </c>
@@ -6866,7 +6877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>30</v>
       </c>
@@ -6874,7 +6885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>30</v>
       </c>
@@ -6882,7 +6893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>30</v>
       </c>
@@ -6890,7 +6901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>30</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>30</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>30</v>
       </c>
@@ -6914,7 +6925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>30</v>
       </c>
@@ -6922,7 +6933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>30</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>30</v>
       </c>
@@ -6938,7 +6949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>30</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>30</v>
       </c>
@@ -6954,7 +6965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>30</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>30</v>
       </c>
@@ -6970,7 +6981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>30</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>30</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>30</v>
       </c>
@@ -6994,7 +7005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>30</v>
       </c>
@@ -7002,7 +7013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>30</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>30</v>
       </c>
@@ -7018,7 +7029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>30</v>
       </c>
@@ -7026,7 +7037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>30</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>30</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>30</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>30</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>30</v>
       </c>
@@ -7066,7 +7077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>30</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>30</v>
       </c>
@@ -7082,7 +7093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>30</v>
       </c>
@@ -7090,7 +7101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>30</v>
       </c>
@@ -7098,7 +7109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>30</v>
       </c>
@@ -7106,7 +7117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>30</v>
       </c>
@@ -7114,7 +7125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>30</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>30</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>30</v>
       </c>
@@ -7138,7 +7149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>30</v>
       </c>
@@ -7146,7 +7157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>30</v>
       </c>
@@ -7154,7 +7165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>30</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>30</v>
       </c>
@@ -7178,7 +7189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>30</v>
       </c>
@@ -7186,7 +7197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>30</v>
       </c>
@@ -7194,7 +7205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>30</v>
       </c>
@@ -7202,7 +7213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>30</v>
       </c>
@@ -7210,7 +7221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>30</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>30</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>30</v>
       </c>
@@ -7234,7 +7245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>30</v>
       </c>
@@ -7242,7 +7253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>30</v>
       </c>
@@ -7250,7 +7261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>30</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>30</v>
       </c>
@@ -7266,7 +7277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>30</v>
       </c>
@@ -7274,7 +7285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>30</v>
       </c>
@@ -7282,7 +7293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>30</v>
       </c>
@@ -7290,7 +7301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>30</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>30</v>
       </c>
@@ -7306,7 +7317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>30</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>30</v>
       </c>
@@ -7322,7 +7333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>30</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>30</v>
       </c>
@@ -7338,7 +7349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>30</v>
       </c>
@@ -7346,7 +7357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>30</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>30</v>
       </c>
@@ -7362,7 +7373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>30</v>
       </c>
@@ -7370,7 +7381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>30</v>
       </c>
@@ -7378,7 +7389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>30</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>30</v>
       </c>
@@ -7394,7 +7405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>30</v>
       </c>
@@ -7402,7 +7413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>30</v>
       </c>
@@ -7410,7 +7421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>30</v>
       </c>
@@ -7418,7 +7429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>30</v>
       </c>
@@ -7426,7 +7437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>30</v>
       </c>
@@ -7434,7 +7445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>30</v>
       </c>
@@ -7442,7 +7453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>30</v>
       </c>
@@ -7450,7 +7461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>30</v>
       </c>
@@ -7458,7 +7469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>30</v>
       </c>
@@ -7466,7 +7477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>30</v>
       </c>
@@ -7474,7 +7485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>30</v>
       </c>
@@ -7482,7 +7493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>30</v>
       </c>
@@ -7490,7 +7501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +7509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>30</v>
       </c>
@@ -7506,7 +7517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>30</v>
       </c>
@@ -7514,7 +7525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>30</v>
       </c>
@@ -7522,7 +7533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>30</v>
       </c>
@@ -7530,7 +7541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>30</v>
       </c>
@@ -7538,7 +7549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>30</v>
       </c>
@@ -7546,7 +7557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>30</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>30</v>
       </c>
@@ -7562,7 +7573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>30</v>
       </c>
@@ -7570,7 +7581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +7589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>30</v>
       </c>
@@ -7586,7 +7597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>30</v>
       </c>
@@ -7594,7 +7605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>30</v>
       </c>
@@ -7602,7 +7613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>30</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>30</v>
       </c>
@@ -7618,7 +7629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>30</v>
       </c>
@@ -7626,7 +7637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>30</v>
       </c>
@@ -7634,7 +7645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>30</v>
       </c>
@@ -7642,7 +7653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>30</v>
       </c>
@@ -7650,7 +7661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>30</v>
       </c>
@@ -7658,7 +7669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>30</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>30</v>
       </c>
@@ -7674,7 +7685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>30</v>
       </c>
@@ -7682,7 +7693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>30</v>
       </c>
@@ -7690,7 +7701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>30</v>
       </c>
@@ -7698,7 +7709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>30</v>
       </c>
@@ -7706,7 +7717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>30</v>
       </c>
@@ -7714,7 +7725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>30</v>
       </c>
@@ -7722,7 +7733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>30</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>30</v>
       </c>
@@ -7738,7 +7749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>30</v>
       </c>
@@ -7746,7 +7757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>30</v>
       </c>
@@ -7754,7 +7765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>30</v>
       </c>
@@ -7762,7 +7773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>30</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>30</v>
       </c>
@@ -7778,7 +7789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>30</v>
       </c>
@@ -7786,7 +7797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>30</v>
       </c>
@@ -7794,7 +7805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>30</v>
       </c>
@@ -7802,7 +7813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>30</v>
       </c>
@@ -7810,7 +7821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>30</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>30</v>
       </c>
@@ -7826,7 +7837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>30</v>
       </c>
@@ -7834,7 +7845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>30</v>
       </c>
@@ -7842,7 +7853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>30</v>
       </c>
@@ -7850,7 +7861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
         <v>30</v>
       </c>
@@ -7858,7 +7869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>30</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>30</v>
       </c>
@@ -7874,7 +7885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>30</v>
       </c>
@@ -7882,7 +7893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
         <v>30</v>
       </c>
@@ -7890,7 +7901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>30</v>
       </c>
@@ -7898,7 +7909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>30</v>
       </c>
@@ -7906,7 +7917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>30</v>
       </c>
@@ -7914,7 +7925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>30</v>
       </c>
@@ -7922,7 +7933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>30</v>
       </c>
@@ -7930,7 +7941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>30</v>
       </c>
@@ -7938,7 +7949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>30</v>
       </c>
@@ -7946,7 +7957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>30</v>
       </c>
@@ -7954,7 +7965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
         <v>30</v>
       </c>
@@ -7962,7 +7973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>30</v>
       </c>
@@ -7970,7 +7981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
         <v>30</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>30</v>
       </c>
@@ -7986,7 +7997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>30</v>
       </c>
@@ -7994,7 +8005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
         <v>30</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>30</v>
       </c>
@@ -8010,7 +8021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>30</v>
       </c>
@@ -8018,7 +8029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
         <v>30</v>
       </c>
@@ -8026,7 +8037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
         <v>30</v>
       </c>
@@ -8034,7 +8045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>30</v>
       </c>
@@ -8042,7 +8053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
         <v>30</v>
       </c>
@@ -8050,7 +8061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>30</v>
       </c>
@@ -8058,7 +8069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
         <v>30</v>
       </c>
@@ -8066,7 +8077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
         <v>30</v>
       </c>
@@ -8074,7 +8085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
         <v>30</v>
       </c>
@@ -8082,7 +8093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
         <v>30</v>
       </c>
@@ -8090,7 +8101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
         <v>30</v>
       </c>
@@ -8098,7 +8109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>30</v>
       </c>
@@ -8106,7 +8117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>30</v>
       </c>
@@ -8114,7 +8125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
         <v>30</v>
       </c>
@@ -8122,7 +8133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
         <v>30</v>
       </c>
@@ -8176,73 +8187,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.046875" customWidth="1"/>
-    <col min="2" max="2" width="36.62109375" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -8261,18 +8272,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.9921875" customWidth="1"/>
-    <col min="2" max="2" width="22.0703125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.671875" customWidth="1"/>
-    <col min="5" max="5" width="9.37109375" customWidth="1"/>
-    <col min="6" max="6" width="23.55078125" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -8285,7 +8296,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -8319,7 +8330,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -8336,7 +8347,7 @@
         <v>0.54166666666666496</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -8357,7 +8368,7 @@
         <v>1.3333333333333299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -8376,7 +8387,7 @@
         <v>0.64583333333333204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>35</v>
       </c>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFD2E16-13D3-4C70-9D31-B26B264E3665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CB4671-2118-8C4D-8BEB-F5F9BBAF56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="45">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Erweiterung der UI um auf alle vertikalen viewports zu passen</t>
+  </si>
+  <si>
+    <t>7. Vorlesung</t>
+  </si>
+  <si>
+    <t>Dokumentation erweitert + kleine bugfixes und code improvements</t>
   </si>
 </sst>
 </file>
@@ -3566,30 +3572,30 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
-    <col min="6" max="6" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.52734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5078125" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" customWidth="1"/>
+    <col min="5" max="5" width="57.33984375" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C301)</f>
-        <v>3.135416666666663</v>
+        <v>3.479166666666663</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44839</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44839</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44839</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44853</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44853</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44862</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44862</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44862</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44867</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44867</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44867</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44873</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44881</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44881</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44881</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44881</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44883</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44885</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44888</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44889</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44890</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44890</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44890</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44890</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44892</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44892</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44893</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>44894</v>
       </c>
@@ -4173,43 +4179,75 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>44895</v>
+      </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.375E-2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>44895</v>
+      </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9.375E-2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>44895</v>
+      </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9.375E-2</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>44895</v>
+      </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6.25E-2</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>30</v>
@@ -4218,7 +4256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>30</v>
@@ -4227,7 +4265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>30</v>
@@ -4236,7 +4274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>30</v>
@@ -4245,7 +4283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>30</v>
@@ -4254,7 +4292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>30</v>
@@ -4263,7 +4301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>30</v>
@@ -4272,7 +4310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>30</v>
@@ -4281,7 +4319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>30</v>
@@ -4290,7 +4328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -4299,7 +4337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>30</v>
@@ -4308,7 +4346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>30</v>
@@ -4317,7 +4355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>30</v>
@@ -4326,7 +4364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>30</v>
@@ -4335,7 +4373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>30</v>
@@ -4344,7 +4382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>30</v>
@@ -4353,7 +4391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>30</v>
@@ -4362,7 +4400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>30</v>
@@ -4371,7 +4409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>30</v>
@@ -4380,7 +4418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>30</v>
@@ -4389,7 +4427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>30</v>
@@ -4398,7 +4436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>30</v>
@@ -4407,7 +4445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>30</v>
@@ -4416,7 +4454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>30</v>
@@ -4425,7 +4463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>30</v>
@@ -4434,7 +4472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>30</v>
@@ -4443,7 +4481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>30</v>
@@ -4452,7 +4490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>30</v>
@@ -4461,7 +4499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>30</v>
@@ -4470,7 +4508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>30</v>
@@ -4479,7 +4517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>30</v>
@@ -4488,7 +4526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>30</v>
@@ -4497,7 +4535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>30</v>
@@ -4506,7 +4544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>30</v>
@@ -4515,7 +4553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>30</v>
@@ -4524,7 +4562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>30</v>
@@ -4533,7 +4571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>30</v>
@@ -4542,7 +4580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>30</v>
@@ -4551,7 +4589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>30</v>
@@ -4560,7 +4598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>30</v>
@@ -4569,7 +4607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>30</v>
@@ -4578,7 +4616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>30</v>
@@ -4587,7 +4625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>30</v>
@@ -4596,7 +4634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>30</v>
@@ -4605,7 +4643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>30</v>
@@ -4614,7 +4652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>30</v>
@@ -4623,7 +4661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>30</v>
@@ -4632,7 +4670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>30</v>
@@ -4641,7 +4679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>30</v>
@@ -4650,7 +4688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>30</v>
@@ -4659,7 +4697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>30</v>
@@ -4668,7 +4706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>30</v>
@@ -4677,7 +4715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>30</v>
@@ -4686,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>30</v>
@@ -4695,7 +4733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>30</v>
@@ -4704,7 +4742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>30</v>
@@ -4713,7 +4751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>30</v>
@@ -4722,7 +4760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>30</v>
@@ -4731,7 +4769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>30</v>
@@ -4740,7 +4778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>30</v>
@@ -4749,7 +4787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>30</v>
@@ -4758,7 +4796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>30</v>
@@ -4767,7 +4805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>30</v>
@@ -4776,7 +4814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>30</v>
@@ -4785,7 +4823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>30</v>
@@ -4794,7 +4832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>30</v>
@@ -4803,7 +4841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>30</v>
@@ -4812,7 +4850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>30</v>
@@ -4821,7 +4859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>30</v>
@@ -4830,7 +4868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>30</v>
@@ -4839,7 +4877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>30</v>
@@ -4848,7 +4886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>30</v>
@@ -4857,7 +4895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>30</v>
@@ -4866,7 +4904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>30</v>
@@ -4875,7 +4913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>30</v>
@@ -4884,7 +4922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>30</v>
@@ -4893,7 +4931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>30</v>
@@ -4902,7 +4940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>30</v>
@@ -4911,7 +4949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>30</v>
@@ -4920,7 +4958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>30</v>
@@ -4929,7 +4967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>30</v>
@@ -4938,7 +4976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>30</v>
@@ -4947,7 +4985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>30</v>
@@ -4956,7 +4994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
         <v>30</v>
@@ -4965,7 +5003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>30</v>
@@ -4974,7 +5012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>30</v>
@@ -4983,7 +5021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>30</v>
@@ -4992,7 +5030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>30</v>
@@ -5001,7 +5039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>30</v>
@@ -5010,7 +5048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>30</v>
@@ -5019,7 +5057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>30</v>
@@ -5028,7 +5066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>30</v>
@@ -5037,7 +5075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
         <v>30</v>
@@ -5046,7 +5084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
         <v>30</v>
@@ -5055,7 +5093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
         <v>30</v>
@@ -5064,7 +5102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
         <v>30</v>
@@ -5073,7 +5111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>30</v>
@@ -5082,7 +5120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
         <v>30</v>
@@ -5091,7 +5129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>30</v>
@@ -5100,7 +5138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>30</v>
@@ -5109,7 +5147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>30</v>
@@ -5118,7 +5156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>30</v>
@@ -5127,7 +5165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>30</v>
@@ -5136,7 +5174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
         <v>30</v>
@@ -5145,7 +5183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>30</v>
@@ -5154,7 +5192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
         <v>30</v>
@@ -5163,7 +5201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
         <v>30</v>
@@ -5172,7 +5210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
         <v>30</v>
@@ -5181,7 +5219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>30</v>
@@ -5190,7 +5228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>30</v>
@@ -5199,7 +5237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
         <v>30</v>
@@ -5208,7 +5246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>30</v>
@@ -5217,7 +5255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>30</v>
@@ -5226,7 +5264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>30</v>
@@ -5235,7 +5273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>30</v>
@@ -5244,7 +5282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>30</v>
@@ -5253,7 +5291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>30</v>
@@ -5262,7 +5300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>30</v>
@@ -5271,7 +5309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>30</v>
@@ -5280,7 +5318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>30</v>
@@ -5289,7 +5327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>30</v>
@@ -5298,7 +5336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
         <v>30</v>
@@ -5307,7 +5345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>30</v>
@@ -5316,7 +5354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>30</v>
@@ -5325,7 +5363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>30</v>
@@ -5334,7 +5372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>30</v>
@@ -5343,7 +5381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>30</v>
@@ -5352,7 +5390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
         <v>30</v>
@@ -5361,7 +5399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
         <v>30</v>
@@ -5370,7 +5408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>30</v>
@@ -5379,7 +5417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>30</v>
@@ -5388,7 +5426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>30</v>
@@ -5397,7 +5435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
         <v>30</v>
@@ -5406,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>30</v>
@@ -5415,7 +5453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
         <v>30</v>
@@ -5424,7 +5462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
         <v>30</v>
@@ -5433,7 +5471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
         <v>30</v>
@@ -5442,7 +5480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>30</v>
@@ -5451,7 +5489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>30</v>
@@ -5460,7 +5498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>30</v>
@@ -5469,7 +5507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
         <v>30</v>
@@ -5478,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>30</v>
@@ -5487,7 +5525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>30</v>
@@ -5496,7 +5534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
         <v>30</v>
@@ -5505,7 +5543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
         <v>30</v>
@@ -5514,7 +5552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
         <v>30</v>
@@ -5523,7 +5561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
         <v>30</v>
@@ -5532,7 +5570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
         <v>30</v>
@@ -5541,7 +5579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
         <v>30</v>
@@ -5550,7 +5588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
         <v>30</v>
@@ -5559,7 +5597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
         <v>30</v>
@@ -5568,7 +5606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
         <v>30</v>
@@ -5577,7 +5615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
         <v>30</v>
@@ -5586,7 +5624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
         <v>30</v>
@@ -5595,7 +5633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>30</v>
@@ -5604,7 +5642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
         <v>30</v>
@@ -5613,7 +5651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
         <v>30</v>
@@ -5622,7 +5660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
         <v>30</v>
@@ -5631,7 +5669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
         <v>30</v>
@@ -5640,7 +5678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
         <v>30</v>
@@ -5649,7 +5687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>30</v>
@@ -5658,7 +5696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
         <v>30</v>
@@ -5667,7 +5705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
         <v>30</v>
@@ -5676,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
         <v>30</v>
@@ -5685,7 +5723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
         <v>30</v>
@@ -5694,7 +5732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
         <v>30</v>
@@ -5703,7 +5741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>30</v>
@@ -5712,7 +5750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
         <v>30</v>
@@ -5721,7 +5759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
         <v>30</v>
@@ -5730,7 +5768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
         <v>30</v>
@@ -5739,7 +5777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
         <v>30</v>
@@ -5748,7 +5786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
         <v>30</v>
@@ -5757,7 +5795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
         <v>30</v>
@@ -5766,7 +5804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
         <v>30</v>
@@ -5775,7 +5813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
         <v>30</v>
@@ -5784,7 +5822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
         <v>30</v>
@@ -5793,7 +5831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
         <v>30</v>
@@ -5802,7 +5840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
         <v>30</v>
@@ -5811,7 +5849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
         <v>30</v>
@@ -5820,7 +5858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
         <v>30</v>
@@ -5829,7 +5867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
         <v>30</v>
@@ -5838,7 +5876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
         <v>30</v>
@@ -5847,7 +5885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
         <v>30</v>
@@ -5856,7 +5894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
         <v>30</v>
@@ -5865,7 +5903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
         <v>30</v>
@@ -5874,7 +5912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
         <v>30</v>
@@ -5883,7 +5921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
         <v>30</v>
@@ -5892,7 +5930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
         <v>30</v>
@@ -5901,7 +5939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>30</v>
@@ -5910,7 +5948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
         <v>30</v>
@@ -5919,7 +5957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
         <v>30</v>
@@ -5928,7 +5966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>30</v>
@@ -5937,7 +5975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>30</v>
@@ -5946,7 +5984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>30</v>
@@ -5955,7 +5993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>30</v>
@@ -5964,7 +6002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>30</v>
@@ -5973,7 +6011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>30</v>
@@ -5982,7 +6020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>30</v>
@@ -5991,7 +6029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>30</v>
@@ -6000,7 +6038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>30</v>
@@ -6009,7 +6047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>30</v>
@@ -6018,7 +6056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>30</v>
@@ -6027,7 +6065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>30</v>
@@ -6036,7 +6074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
         <v>30</v>
@@ -6045,7 +6083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
         <v>30</v>
@@ -6054,7 +6092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
         <v>30</v>
@@ -6063,7 +6101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
         <v>30</v>
@@ -6072,7 +6110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
         <v>30</v>
@@ -6081,7 +6119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
         <v>30</v>
@@ -6090,7 +6128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
         <v>30</v>
@@ -6099,7 +6137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
         <v>30</v>
@@ -6108,7 +6146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
         <v>30</v>
@@ -6117,7 +6155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>30</v>
@@ -6126,7 +6164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
         <v>30</v>
@@ -6135,7 +6173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
         <v>30</v>
@@ -6144,7 +6182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
         <v>30</v>
@@ -6153,7 +6191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
         <v>30</v>
@@ -6162,7 +6200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
         <v>30</v>
@@ -6171,7 +6209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
         <v>30</v>
@@ -6180,7 +6218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
         <v>30</v>
@@ -6189,7 +6227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>30</v>
@@ -6198,7 +6236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>30</v>
@@ -6207,7 +6245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>30</v>
@@ -6216,7 +6254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>30</v>
@@ -6225,7 +6263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>30</v>
@@ -6234,7 +6272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>30</v>
@@ -6243,7 +6281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>30</v>
@@ -6252,7 +6290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>30</v>
@@ -6261,7 +6299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
         <v>30</v>
@@ -6270,7 +6308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
         <v>30</v>
@@ -6279,7 +6317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
         <v>30</v>
@@ -6288,7 +6326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
         <v>30</v>
@@ -6297,7 +6335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
         <v>30</v>
@@ -6306,7 +6344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
         <v>30</v>
@@ -6315,7 +6353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
         <v>30</v>
@@ -6324,7 +6362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
         <v>30</v>
@@ -6333,7 +6371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
         <v>30</v>
@@ -6342,7 +6380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
         <v>30</v>
@@ -6351,7 +6389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
         <v>30</v>
@@ -6360,7 +6398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
         <v>30</v>
@@ -6369,7 +6407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
         <v>30</v>
@@ -6378,7 +6416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
         <v>30</v>
@@ -6387,7 +6425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
         <v>30</v>
@@ -6396,7 +6434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
         <v>30</v>
@@ -6405,7 +6443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
         <v>30</v>
@@ -6414,7 +6452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
         <v>30</v>
@@ -6423,7 +6461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>30</v>
@@ -6432,7 +6470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>30</v>
@@ -6441,7 +6479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
         <v>30</v>
@@ -6450,7 +6488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
         <v>30</v>
@@ -6459,7 +6497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>30</v>
@@ -6468,7 +6506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>30</v>
@@ -6477,7 +6515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>30</v>
@@ -6486,7 +6524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>30</v>
@@ -6495,7 +6533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
         <v>30</v>
@@ -6504,7 +6542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
         <v>30</v>
@@ -6513,7 +6551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
         <v>30</v>
@@ -6522,7 +6560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
         <v>30</v>
@@ -6531,7 +6569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
         <v>30</v>
@@ -6540,7 +6578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>30</v>
@@ -6549,7 +6587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>30</v>
       </c>
@@ -6557,7 +6595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>30</v>
       </c>
@@ -6565,7 +6603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>30</v>
       </c>
@@ -6573,7 +6611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>30</v>
       </c>
@@ -6581,7 +6619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>30</v>
       </c>
@@ -6589,7 +6627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>30</v>
       </c>
@@ -6597,7 +6635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>30</v>
       </c>
@@ -6605,7 +6643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>30</v>
       </c>
@@ -6613,7 +6651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>30</v>
       </c>
@@ -6621,7 +6659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>30</v>
       </c>
@@ -6629,7 +6667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>30</v>
       </c>
@@ -6637,7 +6675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>30</v>
       </c>
@@ -6645,7 +6683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>30</v>
       </c>
@@ -6653,7 +6691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>30</v>
       </c>
@@ -6661,7 +6699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>30</v>
       </c>
@@ -6669,7 +6707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>30</v>
       </c>
@@ -6677,7 +6715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>30</v>
       </c>
@@ -6685,7 +6723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>30</v>
       </c>
@@ -6693,7 +6731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>30</v>
       </c>
@@ -6701,7 +6739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>30</v>
       </c>
@@ -6709,7 +6747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>30</v>
       </c>
@@ -6717,7 +6755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>30</v>
       </c>
@@ -6725,7 +6763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>30</v>
       </c>
@@ -6733,7 +6771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>30</v>
       </c>
@@ -6741,7 +6779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>30</v>
       </c>
@@ -6749,7 +6787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>30</v>
       </c>
@@ -6757,7 +6795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>30</v>
       </c>
@@ -6765,7 +6803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>30</v>
       </c>
@@ -6773,7 +6811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>30</v>
       </c>
@@ -6781,7 +6819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>30</v>
       </c>
@@ -6789,7 +6827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>30</v>
       </c>
@@ -6797,7 +6835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>30</v>
       </c>
@@ -6805,7 +6843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>30</v>
       </c>
@@ -6813,7 +6851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>30</v>
       </c>
@@ -6821,7 +6859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>30</v>
       </c>
@@ -6829,7 +6867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>30</v>
       </c>
@@ -6837,7 +6875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>30</v>
       </c>
@@ -6845,7 +6883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>30</v>
       </c>
@@ -6853,7 +6891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>30</v>
       </c>
@@ -6861,7 +6899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>30</v>
       </c>
@@ -6869,7 +6907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>30</v>
       </c>
@@ -6877,7 +6915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>30</v>
       </c>
@@ -6885,7 +6923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>30</v>
       </c>
@@ -6893,7 +6931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>30</v>
       </c>
@@ -6901,7 +6939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>30</v>
       </c>
@@ -6909,7 +6947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>30</v>
       </c>
@@ -6917,7 +6955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>30</v>
       </c>
@@ -6925,7 +6963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>30</v>
       </c>
@@ -6933,7 +6971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>30</v>
       </c>
@@ -6941,7 +6979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>30</v>
       </c>
@@ -6949,7 +6987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>30</v>
       </c>
@@ -6957,7 +6995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>30</v>
       </c>
@@ -6965,7 +7003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>30</v>
       </c>
@@ -6973,7 +7011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>30</v>
       </c>
@@ -6981,7 +7019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>30</v>
       </c>
@@ -6989,7 +7027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>30</v>
       </c>
@@ -6997,7 +7035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>30</v>
       </c>
@@ -7005,7 +7043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>30</v>
       </c>
@@ -7013,7 +7051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>30</v>
       </c>
@@ -7021,7 +7059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>30</v>
       </c>
@@ -7029,7 +7067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>30</v>
       </c>
@@ -7037,7 +7075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>30</v>
       </c>
@@ -7045,7 +7083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>30</v>
       </c>
@@ -7053,7 +7091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>30</v>
       </c>
@@ -7061,7 +7099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>30</v>
       </c>
@@ -7069,7 +7107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>30</v>
       </c>
@@ -7077,7 +7115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>30</v>
       </c>
@@ -7085,7 +7123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>30</v>
       </c>
@@ -7093,7 +7131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>30</v>
       </c>
@@ -7101,7 +7139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>30</v>
       </c>
@@ -7109,7 +7147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>30</v>
       </c>
@@ -7117,7 +7155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>30</v>
       </c>
@@ -7125,7 +7163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>30</v>
       </c>
@@ -7133,7 +7171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>30</v>
       </c>
@@ -7141,7 +7179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>30</v>
       </c>
@@ -7149,7 +7187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>30</v>
       </c>
@@ -7157,7 +7195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>30</v>
       </c>
@@ -7165,7 +7203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>30</v>
       </c>
@@ -7173,7 +7211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>30</v>
       </c>
@@ -7181,7 +7219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>30</v>
       </c>
@@ -7189,7 +7227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>30</v>
       </c>
@@ -7197,7 +7235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>30</v>
       </c>
@@ -7205,7 +7243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>30</v>
       </c>
@@ -7213,7 +7251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>30</v>
       </c>
@@ -7221,7 +7259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>30</v>
       </c>
@@ -7229,7 +7267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>30</v>
       </c>
@@ -7237,7 +7275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>30</v>
       </c>
@@ -7245,7 +7283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>30</v>
       </c>
@@ -7253,7 +7291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>30</v>
       </c>
@@ -7261,7 +7299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>30</v>
       </c>
@@ -7269,7 +7307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>30</v>
       </c>
@@ -7277,7 +7315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>30</v>
       </c>
@@ -7285,7 +7323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>30</v>
       </c>
@@ -7293,7 +7331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>30</v>
       </c>
@@ -7301,7 +7339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>30</v>
       </c>
@@ -7309,7 +7347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>30</v>
       </c>
@@ -7317,7 +7355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>30</v>
       </c>
@@ -7325,7 +7363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>30</v>
       </c>
@@ -7333,7 +7371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>30</v>
       </c>
@@ -7341,7 +7379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>30</v>
       </c>
@@ -7349,7 +7387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>30</v>
       </c>
@@ -7357,7 +7395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>30</v>
       </c>
@@ -7365,7 +7403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>30</v>
       </c>
@@ -7389,7 +7427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>30</v>
       </c>
@@ -7397,7 +7435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>30</v>
       </c>
@@ -7405,7 +7443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>30</v>
       </c>
@@ -7413,7 +7451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>30</v>
       </c>
@@ -7429,7 +7467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>30</v>
       </c>
@@ -7437,7 +7475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>30</v>
       </c>
@@ -7445,7 +7483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>30</v>
       </c>
@@ -7461,7 +7499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>30</v>
       </c>
@@ -7469,7 +7507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>30</v>
       </c>
@@ -7477,7 +7515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>30</v>
       </c>
@@ -7485,7 +7523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>30</v>
       </c>
@@ -7493,7 +7531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>30</v>
       </c>
@@ -7501,7 +7539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>30</v>
       </c>
@@ -7509,7 +7547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>30</v>
       </c>
@@ -7517,7 +7555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>30</v>
       </c>
@@ -7525,7 +7563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>30</v>
       </c>
@@ -7533,7 +7571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>30</v>
       </c>
@@ -7541,7 +7579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>30</v>
       </c>
@@ -7549,7 +7587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>30</v>
       </c>
@@ -7557,7 +7595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>30</v>
       </c>
@@ -7565,7 +7603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>30</v>
       </c>
@@ -7573,7 +7611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>30</v>
       </c>
@@ -7581,7 +7619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>30</v>
       </c>
@@ -7589,7 +7627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>30</v>
       </c>
@@ -7597,7 +7635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>30</v>
       </c>
@@ -7605,7 +7643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>30</v>
       </c>
@@ -7613,7 +7651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>30</v>
       </c>
@@ -7621,7 +7659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>30</v>
       </c>
@@ -7629,7 +7667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>30</v>
       </c>
@@ -7637,7 +7675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>30</v>
       </c>
@@ -7645,7 +7683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>30</v>
       </c>
@@ -7653,7 +7691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>30</v>
       </c>
@@ -7661,7 +7699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>30</v>
       </c>
@@ -7669,7 +7707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>30</v>
       </c>
@@ -7677,7 +7715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>30</v>
       </c>
@@ -7685,7 +7723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>30</v>
       </c>
@@ -7693,7 +7731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>30</v>
       </c>
@@ -7701,7 +7739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>30</v>
       </c>
@@ -7709,7 +7747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>30</v>
       </c>
@@ -7717,7 +7755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>30</v>
       </c>
@@ -7725,7 +7763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>30</v>
       </c>
@@ -7733,7 +7771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>30</v>
       </c>
@@ -7741,7 +7779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>30</v>
       </c>
@@ -7749,7 +7787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>30</v>
       </c>
@@ -7765,7 +7803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>30</v>
       </c>
@@ -7773,7 +7811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>30</v>
       </c>
@@ -7781,7 +7819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>30</v>
       </c>
@@ -7789,7 +7827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>30</v>
       </c>
@@ -7797,7 +7835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>30</v>
       </c>
@@ -7805,7 +7843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>30</v>
       </c>
@@ -7813,7 +7851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>30</v>
       </c>
@@ -7821,7 +7859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>30</v>
       </c>
@@ -7829,7 +7867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>30</v>
       </c>
@@ -7837,7 +7875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>30</v>
       </c>
@@ -7845,7 +7883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>30</v>
       </c>
@@ -7853,7 +7891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>30</v>
       </c>
@@ -7861,7 +7899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>30</v>
       </c>
@@ -7869,7 +7907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>30</v>
       </c>
@@ -7877,7 +7915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>30</v>
       </c>
@@ -7885,7 +7923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>30</v>
       </c>
@@ -7893,7 +7931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>30</v>
       </c>
@@ -7901,7 +7939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>30</v>
       </c>
@@ -7909,7 +7947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>30</v>
       </c>
@@ -7917,7 +7955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>30</v>
       </c>
@@ -7925,7 +7963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>30</v>
       </c>
@@ -7933,7 +7971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>30</v>
       </c>
@@ -7941,7 +7979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>30</v>
       </c>
@@ -7949,7 +7987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>30</v>
       </c>
@@ -7957,7 +7995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>30</v>
       </c>
@@ -7965,7 +8003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>30</v>
       </c>
@@ -7973,7 +8011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>30</v>
       </c>
@@ -7981,7 +8019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>30</v>
       </c>
@@ -7989,7 +8027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>30</v>
       </c>
@@ -7997,7 +8035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>30</v>
       </c>
@@ -8005,7 +8043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>30</v>
       </c>
@@ -8013,7 +8051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>30</v>
       </c>
@@ -8021,7 +8059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>30</v>
       </c>
@@ -8029,7 +8067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>30</v>
       </c>
@@ -8037,7 +8075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>30</v>
       </c>
@@ -8045,7 +8083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>30</v>
       </c>
@@ -8053,7 +8091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>30</v>
       </c>
@@ -8061,7 +8099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>30</v>
       </c>
@@ -8069,7 +8107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>30</v>
       </c>
@@ -8077,7 +8115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>30</v>
       </c>
@@ -8085,7 +8123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>30</v>
       </c>
@@ -8093,7 +8131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>30</v>
       </c>
@@ -8101,7 +8139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>30</v>
       </c>
@@ -8109,7 +8147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>30</v>
       </c>
@@ -8117,7 +8155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>30</v>
       </c>
@@ -8125,7 +8163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>30</v>
       </c>
@@ -8133,7 +8171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>30</v>
       </c>
@@ -8187,73 +8225,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="42.046875" customWidth="1"/>
+    <col min="2" max="2" width="36.62109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -8272,18 +8310,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="36.9921875" customWidth="1"/>
+    <col min="2" max="2" width="22.0703125" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.671875" customWidth="1"/>
+    <col min="5" max="5" width="9.37109375" customWidth="1"/>
+    <col min="6" max="6" width="23.55078125" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -8296,7 +8334,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -8319,7 +8357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -8330,7 +8368,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -8347,7 +8385,7 @@
         <v>0.54166666666666496</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -8368,7 +8406,7 @@
         <v>1.3333333333333299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8425,7 @@
         <v>0.64583333333333204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>35</v>
       </c>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="46">
   <si>
     <t xml:space="preserve">Summe (h)</t>
   </si>
@@ -135,7 +135,16 @@
     <t xml:space="preserve">Erweiterung der UI um auf alle vertikalen viewports zu passen</t>
   </si>
   <si>
+    <t xml:space="preserve">7. Vorlesung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation erweitert + kleine bugfixes und code improvements</t>
+  </si>
+  <si>
     <t xml:space="preserve">API-Anfragen generation und Kategorienauswahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game-Logik-Konzeption in Miri</t>
   </si>
   <si>
     <t xml:space="preserve">(bitte auswählen)</t>
@@ -162,12 +171,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]H:MM:SS\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-407]DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="[$-407]HH:MM"/>
-    <numFmt numFmtId="168" formatCode="[$-407]HH:MM:SS"/>
-    <numFmt numFmtId="169" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="170" formatCode="HH:MM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="hh:mm"/>
+    <numFmt numFmtId="168" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="[$-407]dd/mm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-407]hh:mm"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -448,7 +457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,6 +495,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,7 +566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -561,11 +574,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +586,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +594,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,15 +606,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -895,24 +908,24 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -3265,26 +3278,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A3:F501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.86"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3306,7 @@
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM(C6:C301)</f>
-        <v>3.26041666666666</v>
+        <v>3.76041666666666</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3317,7 +3330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>44839</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44839</v>
       </c>
@@ -3354,7 +3367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>44839</v>
       </c>
@@ -3371,7 +3384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>44853</v>
       </c>
@@ -3388,7 +3401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>44853</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>44853</v>
       </c>
@@ -3422,7 +3435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>44862</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>44862</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>44862</v>
       </c>
@@ -3473,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>44867</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44867</v>
       </c>
@@ -3507,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44867</v>
       </c>
@@ -3524,7 +3537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44873</v>
       </c>
@@ -3541,7 +3554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44881</v>
       </c>
@@ -3558,7 +3571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>44881</v>
       </c>
@@ -3575,7 +3588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>44881</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>44881</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>44883</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>44885</v>
       </c>
@@ -3643,7 +3656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>44888</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>44888</v>
       </c>
@@ -3677,7 +3690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>44888</v>
       </c>
@@ -3694,7 +3707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>44889</v>
       </c>
@@ -3711,7 +3724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>44890</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>44890</v>
       </c>
@@ -3745,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>44890</v>
       </c>
@@ -3762,7 +3775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>44890</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>44892</v>
       </c>
@@ -3796,7 +3809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>44892</v>
       </c>
@@ -3813,7 +3826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>44893</v>
       </c>
@@ -3830,7 +3843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>44894</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>44894</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>44894</v>
       </c>
@@ -3881,3980 +3894,4036 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>44591</v>
+        <v>44895</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>0.125</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.09375</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>44895</v>
+      </c>
       <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>44895</v>
+      </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>44896</v>
+      </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>0.0520833333333333</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>44896</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.0520833333333333</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>44896</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.0520833333333333</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7887,7 +7956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7897,73 +7966,73 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
   </cols>
   <sheetData>
-    <row r="3" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
@@ -7980,7 +8049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7990,142 +8059,142 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.63"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="G4" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="n">
-        <v>0.458333333333332</v>
-      </c>
-      <c r="D6" s="26" t="n">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="n">
+        <v>0.552083333333332</v>
+      </c>
+      <c r="D6" s="27" t="n">
         <v>0.125</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="27" t="n">
         <v>0.145833333333333</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="n">
-        <v>0.729166666666665</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="n">
+        <v>0.822916666666665</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="n">
-        <v>0.552083333333332</v>
-      </c>
-      <c r="D7" s="26" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="E7" s="26" t="n">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="n">
+        <v>0.645833333333332</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>0.843750000000001</v>
+      </c>
+      <c r="E7" s="27" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F7" s="29" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="G7" s="28" t="n">
-        <v>1.76041666666667</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="30" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="G7" s="29" t="n">
+        <v>1.91666666666667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="n">
-        <v>0.552083333333332</v>
-      </c>
-      <c r="D8" s="31" t="n">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="n">
+        <v>0.645833333333332</v>
+      </c>
+      <c r="D8" s="32" t="n">
         <v>0.0104166666666667</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="32" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33" t="n">
-        <v>0.645833333333332</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="D9" s="36" t="n">
-        <v>0.979166666666667</v>
-      </c>
-      <c r="E9" s="36" t="n">
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="n">
+        <v>0.739583333333332</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37" t="n">
+        <v>1.84375</v>
+      </c>
+      <c r="D9" s="37" t="n">
+        <v>0.979166666666668</v>
+      </c>
+      <c r="E9" s="37" t="n">
         <v>0.3125</v>
       </c>
-      <c r="F9" s="37" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="G9" s="38" t="n">
-        <v>3.13541666666666</v>
+      <c r="F9" s="38" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="G9" s="39" t="n">
+        <v>3.47916666666666</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="47">
   <si>
     <t xml:space="preserve">Summe (h)</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">Game-Logik-Konzeption in Miri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versucht Problem mit Azure zu lösen</t>
   </si>
   <si>
     <t xml:space="preserve">(bitte auswählen)</t>
@@ -566,7 +569,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,11 +577,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -586,7 +589,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,7 +597,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,15 +609,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,16 +715,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.0104166666666667" maxValue="0.229166666666667" count="12">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.0104166666666667" maxValue="0.229166666666667" count="14">
         <n v="0.0104166666666667"/>
         <n v="0.03125"/>
         <n v="0.0416666666666667"/>
+        <n v="0.0520833333333333"/>
         <n v="0.0625"/>
         <n v="0.0729166666666667"/>
         <n v="0.0833333333333333"/>
         <n v="0.09375"/>
         <n v="0.104166666666667"/>
         <n v="0.114583333333333"/>
+        <n v="0.125"/>
         <n v="0.197916666666667"/>
         <n v="0.229166666666667"/>
         <m/>
@@ -744,62 +749,62 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="496">
   <r>
     <x v="3"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
   </r>
   <r>
@@ -809,22 +814,47 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="3"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="3"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="3"/>
   </r>
   <r>
     <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
     <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
     <x v="2"/>
   </r>
   <r>
@@ -833,2393 +863,2368 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -3257,7 +3262,7 @@
     <field x="2"/>
   </colFields>
   <dataFields count="1">
-    <dataField name="Summe von Dauer" fld="1" subtotal="sum" numFmtId="167"/>
+    <dataField name="Summe von Dauer" fld="1" subtotal="sum" numFmtId="168"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -3287,10 +3292,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.53"/>
@@ -3306,7 +3311,7 @@
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM(C6:C301)</f>
-        <v>3.76041666666666</v>
+        <v>3.86458333333333</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4031,3899 +4036,3907 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="n">
+        <v>44900</v>
+      </c>
       <c r="B47" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.104166666666667</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7966,7 +7979,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
@@ -7974,12 +7987,12 @@
   <sheetData>
     <row r="3" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,7 +8017,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8014,7 +8027,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,7 +8042,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,7 +8072,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.07"/>
@@ -8072,7 +8085,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>4</v>
@@ -8088,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>8</v>
@@ -8103,12 +8116,12 @@
         <v>29</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -8129,11 +8142,11 @@
         <v>0.125</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.145833333333333</v>
+        <v>0.197916666666667</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="n">
-        <v>0.822916666666665</v>
+        <v>0.874999999999999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8148,13 +8161,13 @@
         <v>0.843750000000001</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.135416666666667</v>
       </c>
       <c r="F7" s="30" t="n">
         <v>0.34375</v>
       </c>
       <c r="G7" s="29" t="n">
-        <v>1.91666666666667</v>
+        <v>1.96875</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8166,35 +8179,35 @@
         <v>0.645833333333332</v>
       </c>
       <c r="D8" s="32" t="n">
-        <v>0.0104166666666667</v>
+        <v>0.135416666666667</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.135416666666667</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34" t="n">
-        <v>0.739583333333332</v>
+        <v>0.916666666666665</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="37" t="n">
         <v>1.84375</v>
       </c>
       <c r="D9" s="37" t="n">
-        <v>0.979166666666668</v>
+        <v>1.10416666666667</v>
       </c>
       <c r="E9" s="37" t="n">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="F9" s="38" t="n">
         <v>0.34375</v>
       </c>
       <c r="G9" s="39" t="n">
-        <v>3.47916666666666</v>
+        <v>3.76041666666666</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="51">
   <si>
     <t xml:space="preserve">Summe (h)</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">9. Vorlesung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugs gefixed – Skill nun wieder funktional</t>
   </si>
   <si>
     <t xml:space="preserve">(bitte auswählen)</t>
@@ -976,14 +979,14 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -3305,10 +3308,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.5"/>
@@ -3324,7 +3327,7 @@
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM(C6:C302)</f>
-        <v>4.26041666666666</v>
+        <v>4.38541666666666</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4133,3864 +4136,3872 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>44909</v>
+      </c>
       <c r="B52" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0.125</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8033,7 +8044,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
@@ -8041,12 +8052,12 @@
   <sheetData>
     <row r="3" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,7 +8082,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,7 +8092,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8096,7 +8107,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,7 +8137,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
@@ -8139,7 +8150,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>4</v>
@@ -8155,7 +8166,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>8</v>
@@ -8170,12 +8181,12 @@
         <v>29</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -8190,7 +8201,7 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="n">
-        <v>0.552083333333332</v>
+        <v>0.677083333333332</v>
       </c>
       <c r="D6" s="27" t="n">
         <v>0.208333333333333</v>
@@ -8200,7 +8211,7 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="n">
-        <v>1.02083333333333</v>
+        <v>1.14583333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8209,7 +8220,7 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="n">
-        <v>0.645833333333332</v>
+        <v>0.770833333333332</v>
       </c>
       <c r="D7" s="27" t="n">
         <v>0.947916666666668</v>
@@ -8221,7 +8232,7 @@
         <v>0.34375</v>
       </c>
       <c r="G7" s="29" t="n">
-        <v>2.07291666666667</v>
+        <v>2.19791666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,11 +8256,11 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="37" t="n">
-        <v>1.84375</v>
+        <v>2.09375</v>
       </c>
       <c r="D9" s="37" t="n">
         <v>1.29166666666667</v>
@@ -8261,7 +8272,7 @@
         <v>0.34375</v>
       </c>
       <c r="G9" s="39" t="n">
-        <v>4.01041666666666</v>
+        <v>4.26041666666666</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -1,183 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Zeiterfassung" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Stammdaten" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Analyse" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
+    <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
+    <sheet name="Analyse" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">Summe (h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kategorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tätigkeitsbeschreibung / Bemerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggfs. Zuordnung zu User Story / Ticket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niklas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektarbeit - Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiale Dateien aus Beispiel-Skill in Github hochgeladen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektarbeit - Konzeption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65" count="65">
+  <si>
+    <t>Summe (h)</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Dauer</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Tätigkeitsbeschreibung / Bemerkung</t>
+  </si>
+  <si>
+    <t>ggfs. Zuordnung zu User Story / Ticket</t>
+  </si>
+  <si>
+    <t>Niklas</t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+  </si>
+  <si>
+    <t>1. Vorlesung</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Felicitas</t>
+  </si>
+  <si>
+    <t>2. Vorlesung</t>
+  </si>
+  <si>
+    <t>3. Vorlesung</t>
+  </si>
+  <si>
+    <t>4. Vorlesung</t>
+  </si>
+  <si>
+    <t>Projektarbeit - Implementierung</t>
+  </si>
+  <si>
+    <t>Initiale Dateien aus Beispiel-Skill in Github hochgeladen</t>
+  </si>
+  <si>
+    <t>Projektarbeit - Konzeption</t>
+  </si>
+  <si>
+    <t>https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371</t>
   </si>
   <si>
     <t xml:space="preserve">LaunchRequestHandler modifiziert und basic YesIntent und -Handler hinzugefügt </t>
   </si>
   <si>
-    <t xml:space="preserve">Intents und Handler für NumberOfPlayer und AddPlayer hinzugefügt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstes UI-Design in der Dev-Konsole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begann Skill auf Azure Cloud umzusiedeln und cleanup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Läuft nun auf Azure Cloud, bug-fixes und cleanup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddPlayerIntentHandler funktioniert nun und skill_id wurde in azure env variable outsourced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetDifficultyIntent-Konfiguration und -Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetDifficultyIntent-Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doxygen-Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobes Design der Player-Icons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begann Player-Icons auf Azure Function zu hosten und verbesserte Directory-Struktur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player-Icons auf Azure Blob Storage migriert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doxygen-Kommentare und README.md hinzugefügt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erweiterung der UI um auf alle vertikalen viewports zu passen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentation erweitert + kleine bugfixes und code improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API-Anfragen generation und Kategorienauswahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game-Logik-Konzeption in Miri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versucht Kategorien-Screen zu erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versucht Problem mit Azure zu lösen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kategorien-Screen erneut erstellt, jetzt funktional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Vorlesung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugs gefixed – Skill nun wieder funktional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(bitte auswählen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team-Mitglieder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorlesung Nachbereitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektmanagement und Teamkoordination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summe von Dauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summe Ergebnis</t>
+    <t>Intents und Handler für NumberOfPlayer und AddPlayer hinzugefügt</t>
+  </si>
+  <si>
+    <t>Erstes UI-Design in der Dev-Konsole</t>
+  </si>
+  <si>
+    <t>6. Vorlesung</t>
+  </si>
+  <si>
+    <t>Begann Skill auf Azure Cloud umzusiedeln und cleanup</t>
+  </si>
+  <si>
+    <t>Läuft nun auf Azure Cloud, bug-fixes und cleanup</t>
+  </si>
+  <si>
+    <t>AddPlayerIntentHandler funktioniert nun und skill_id wurde in azure env variable outsourced</t>
+  </si>
+  <si>
+    <t>SetDifficultyIntent-Konfiguration und -Implementierung</t>
+  </si>
+  <si>
+    <t>SetDifficultyIntent-Implementierung</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Doxygen-Integration</t>
+  </si>
+  <si>
+    <t>Grobes Design der Player-Icons</t>
+  </si>
+  <si>
+    <t>Begann Player-Icons auf Azure Function zu hosten und verbesserte Directory-Struktur</t>
+  </si>
+  <si>
+    <t>Player-Icons auf Azure Blob Storage migriert</t>
+  </si>
+  <si>
+    <t>Doxygen-Kommentare und README.md hinzugefügt</t>
+  </si>
+  <si>
+    <t>Erweiterung der UI um auf alle vertikalen viewports zu passen</t>
+  </si>
+  <si>
+    <t>7. Vorlesung</t>
+  </si>
+  <si>
+    <t>Dokumentation erweitert + kleine bugfixes und code improvements</t>
+  </si>
+  <si>
+    <t>API-Anfragen generation und Kategorienauswahl</t>
+  </si>
+  <si>
+    <t>Game-Logik-Konzeption in Miri</t>
+  </si>
+  <si>
+    <t>Versucht Kategorien-Screen zu erstellen</t>
+  </si>
+  <si>
+    <t>Versucht Problem mit Azure zu lösen</t>
+  </si>
+  <si>
+    <t>Kategorien-Screen erneut erstellt, jetzt funktional</t>
+  </si>
+  <si>
+    <t>9. Vorlesung</t>
+  </si>
+  <si>
+    <t>Bugs gefixed – Skill nun wieder funktional</t>
+  </si>
+  <si>
+    <t>(bitte auswählen)</t>
+  </si>
+  <si>
+    <t>Team-Mitglieder</t>
+  </si>
+  <si>
+    <t>Vorlesung Nachbereitung</t>
+  </si>
+  <si>
+    <t>Projektmanagement und Teamkoordination</t>
+  </si>
+  <si>
+    <t>Summe von Dauer</t>
+  </si>
+  <si>
+    <t>Summe Ergebnis</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Projektarbeit - Implementierung</t>
+  </si>
+  <si>
+    <t>Arbeit an Bugfixing</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+  </si>
+  <si>
+    <t>10. Vorlesung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Niklas</t>
+  </si>
+  <si>
+    <t>Felicitas</t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+  </si>
+  <si>
+    <t>10. Vorlesung</t>
+  </si>
+  <si>
+    <t>10. Vorlesung</t>
   </si>
 </sst>
 </file>
@@ -185,59 +218,50 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="hh:mm"/>
-    <numFmt numFmtId="168" formatCode="[$-407]dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-407]hh:mm"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="14" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="20" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="[$-407]dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-407]hh:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <charset val="1"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <charset val="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,3089 +273,877 @@
     </fill>
   </fills>
   <borders count="25">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="23" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot-Tabelle Ecke" xfId="21"/>
-    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="22"/>
-    <cellStyle name="Pivot-Tabelle Feld" xfId="23"/>
-    <cellStyle name="Pivot-Tabelle Kategorie" xfId="24"/>
-    <cellStyle name="Pivot-Tabelle Titel" xfId="25"/>
-    <cellStyle name="Pivot-Tabelle Wert" xfId="26"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1"/>
+    <cellStyle name="Pivot-Tabelle Ecke" xfId="2"/>
+    <cellStyle name="Pivot-Tabelle Feld" xfId="3"/>
+    <cellStyle name="Pivot-Tabelle Kategorie" xfId="4"/>
+    <cellStyle name="Pivot-Tabelle Titel" xfId="5"/>
+    <cellStyle name="Pivot-Tabelle Wert" xfId="6"/>
+    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000563C1"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="497" createdVersion="3">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B5:D502" sheet="Zeiterfassung"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Person" numFmtId="0">
-      <sharedItems count="4">
-        <s v="(bitte auswählen)"/>
-        <s v="Felicitas"/>
-        <s v="Justin"/>
-        <s v="Niklas"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Dauer" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.0104166666666667" maxValue="0.229166666666667" count="14">
-        <n v="0.0104166666666667"/>
-        <n v="0.03125"/>
-        <n v="0.0416666666666667"/>
-        <n v="0.0520833333333333"/>
-        <n v="0.0625"/>
-        <n v="0.0729166666666667"/>
-        <n v="0.0833333333333333"/>
-        <n v="0.09375"/>
-        <n v="0.104166666666667"/>
-        <n v="0.114583333333333"/>
-        <n v="0.125"/>
-        <n v="0.197916666666667"/>
-        <n v="0.229166666666667"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Kategorie" numFmtId="0">
-      <sharedItems count="5">
-        <s v="(bitte auswählen)"/>
-        <s v="Dokumentation"/>
-        <s v="Projektarbeit - Implementierung"/>
-        <s v="Projektarbeit - Konzeption"/>
-        <s v="Vorlesung"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="497">
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <dataFields count="1">
-    <dataField name="Summe von Dauer" fld="1" subtotal="sum" numFmtId="167"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F502" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A5:F502"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Datum"/>
-    <tableColumn id="2" name="Person"/>
-    <tableColumn id="3" name="Dauer"/>
-    <tableColumn id="4" name="Kategorie"/>
-    <tableColumn id="5" name="Tätigkeitsbeschreibung / Bemerkung"/>
-    <tableColumn id="6" name="ggfs. Zuordnung zu User Story / Ticket"/>
-  </tableColumns>
-</table>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:F502"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:G502"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B1" zoomScale="80">
+      <pane ySplit="5" topLeftCell="A6" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.87"/>
+    <col min="1" max="1" customWidth="1" width="14.300781" style="0"/>
+    <col min="2" max="2" customWidth="1" width="43.527344" style="0"/>
+    <col min="3" max="3" customWidth="1" width="17.507812" style="0"/>
+    <col min="4" max="4" customWidth="1" width="39.953125" style="0"/>
+    <col min="5" max="5" customWidth="1" width="57.339844" style="0"/>
+    <col min="6" max="6" customWidth="1" width="46.85547" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="8:8" s="1" ht="21.0" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <f aca="false">SUM(C6:C302)</f>
-        <v>4.38541666666666</v>
+      <c r="C3" s="2">
+        <f>SUM(C6:C302)</f>
+        <v>4.760416666666663</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="8:8" s="1" ht="21.0" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3351,238 +1163,238 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>44839</v>
+    <row r="6" spans="8:8">
+      <c r="A6" s="3">
+        <v>44839.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>44839</v>
+    <row r="7" spans="8:8">
+      <c r="A7" s="3">
+        <v>44839.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>44839</v>
+    <row r="8" spans="8:8">
+      <c r="A8" s="3">
+        <v>44839.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>44853</v>
+    <row r="9" spans="8:8">
+      <c r="A9" s="3">
+        <v>44853.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>44853</v>
+    <row r="10" spans="8:8">
+      <c r="A10" s="3">
+        <v>44853.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>44853</v>
+    <row r="11" spans="8:8">
+      <c r="A11" s="3">
+        <v>44853.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>44862</v>
+    <row r="12" spans="8:8">
+      <c r="A12" s="3">
+        <v>44862.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>44862</v>
+    <row r="13" spans="8:8">
+      <c r="A13" s="3">
+        <v>44862.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>44862</v>
+    <row r="14" spans="8:8">
+      <c r="A14" s="3">
+        <v>44862.0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>44867</v>
+    <row r="15" spans="8:8">
+      <c r="A15" s="3">
+        <v>44867.0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>44867</v>
+    <row r="16" spans="8:8">
+      <c r="A16" s="3">
+        <v>44867.0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>44867</v>
+    <row r="17" spans="8:8">
+      <c r="A17" s="3">
+        <v>44867.0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>0.114583333333333</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>44873</v>
+    <row r="18" spans="8:8">
+      <c r="A18" s="3">
+        <v>44873.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>0.03125</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>44881</v>
+    <row r="19" spans="8:8">
+      <c r="A19" s="3">
+        <v>44881.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3592,14 +1404,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>44881</v>
+    <row r="20" spans="8:8">
+      <c r="A20" s="3">
+        <v>44881.0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3609,14 +1421,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>44881</v>
+    <row r="21" spans="8:8">
+      <c r="A21" s="3">
+        <v>44881.0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3626,490 +1438,490 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>44881</v>
+    <row r="22" spans="8:8">
+      <c r="A22" s="3">
+        <v>44881.0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>0.0625</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>44883</v>
+    <row r="23" spans="8:8">
+      <c r="A23" s="3">
+        <v>44883.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>0.104166666666667</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>44885</v>
+    <row r="24" spans="8:8">
+      <c r="A24" s="3">
+        <v>44885.0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>0.0625</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>44888</v>
+    <row r="25" spans="8:8">
+      <c r="A25" s="3">
+        <v>44888.0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>0.09375</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>44888</v>
+    <row r="26" spans="8:8">
+      <c r="A26" s="3">
+        <v>44888.0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>0.09375</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>44888</v>
+    <row r="27" spans="8:8">
+      <c r="A27" s="3">
+        <v>44888.0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>0.229166666666667</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>44889</v>
+    <row r="28" spans="8:8">
+      <c r="A28" s="3">
+        <v>44889.0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="5">
         <v>0.09375</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>44890</v>
+    <row r="29" spans="8:8">
+      <c r="A29" s="3">
+        <v>44890.0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>0.0625</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>44890</v>
+    <row r="30" spans="8:8">
+      <c r="A30" s="3">
+        <v>44890.0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>0.0416666666666667</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>44890</v>
+    <row r="31" spans="8:8">
+      <c r="A31" s="3">
+        <v>44890.0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>0.0104166666666667</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <v>44890</v>
+    <row r="32" spans="8:8">
+      <c r="A32" s="3">
+        <v>44890.0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>0.197916666666667</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>44892</v>
+    <row r="33" spans="8:8">
+      <c r="A33" s="3">
+        <v>44892.0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
-        <v>44892</v>
+    <row r="34" spans="8:8">
+      <c r="A34" s="3">
+        <v>44892.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>44893</v>
+    <row r="35" spans="8:8">
+      <c r="A35" s="3">
+        <v>44893.0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>0.0729166666666667</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>44894</v>
+    <row r="36" spans="8:8">
+      <c r="A36" s="3">
+        <v>44894.0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="5">
         <v>0.0625</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>44894</v>
+    <row r="37" spans="8:8">
+      <c r="A37" s="3">
+        <v>44894.0</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
-        <v>44894</v>
+    <row r="38" spans="8:8">
+      <c r="A38" s="3">
+        <v>44894.0</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="5">
         <v>0.0416666666666667</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>44895</v>
+    <row r="39" spans="8:8">
+      <c r="A39" s="3">
+        <v>44895.0</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="5">
         <v>0.09375</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
-        <v>44895</v>
+    <row r="40" spans="8:8">
+      <c r="A40" s="3">
+        <v>44895.0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>0.09375</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>44895</v>
+    <row r="41" spans="8:8">
+      <c r="A41" s="3">
+        <v>44895.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="5">
         <v>0.09375</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
-        <v>44895</v>
+    <row r="42" spans="8:8">
+      <c r="A42" s="3">
+        <v>44895.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="5">
         <v>0.0625</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
-        <v>44895</v>
+    <row r="43" spans="8:8">
+      <c r="A43" s="8">
+        <v>44895.0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>0.125</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>44896</v>
+    <row r="44" spans="8:8">
+      <c r="A44" s="3">
+        <v>44896.0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="5">
         <v>0.0520833333333333</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>44896</v>
+    <row r="45" spans="8:8">
+      <c r="A45" s="3">
+        <v>44896.0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="5">
         <v>0.0520833333333333</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>44896</v>
+    <row r="46" spans="8:8">
+      <c r="A46" s="3">
+        <v>44896.0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="5">
         <v>0.0520833333333333</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>44899</v>
+    <row r="47" spans="8:8">
+      <c r="A47" s="3">
+        <v>44899.0</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="5">
         <v>0.0625</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
-        <v>44900</v>
+    <row r="48" spans="8:8">
+      <c r="A48" s="3">
+        <v>44900.0</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="5">
         <v>0.104166666666667</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>44909</v>
+    <row r="49" spans="8:8">
+      <c r="A49" s="3">
+        <v>44909.0</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="5">
         <v>0.0833333333333333</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>44909</v>
+    <row r="50" spans="8:8">
+      <c r="A50" s="3">
+        <v>44909.0</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="5">
         <v>0.125</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -4119,14 +1931,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>44909</v>
+    <row r="51" spans="8:8">
+      <c r="A51" s="3">
+        <v>44909.0</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="5">
         <v>0.125</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -4136,60 +1948,92 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>44909</v>
+    <row r="52" spans="8:8">
+      <c r="A52" s="3">
+        <v>44909.0</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="5">
         <v>0.125</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
+    <row r="53" spans="8:8" ht="16.2">
+      <c r="A53" s="3">
+        <v>44936.0</v>
+      </c>
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.125</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" ht="16.2">
+      <c r="A54" s="12">
+        <v>44937.0</v>
+      </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.08333333333333333</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="16.2">
+      <c r="A55" s="3">
+        <v>44937.0</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0.08333333333333333</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="16.2">
+      <c r="A56" s="3">
+        <v>44937.0</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.08333333333333333</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>45</v>
@@ -4198,7 +2042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="8:8">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
         <v>45</v>
@@ -4207,7 +2051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="8:8">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
         <v>45</v>
@@ -4216,7 +2060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="8:8">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>45</v>
@@ -4225,7 +2069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="8:8">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
         <v>45</v>
@@ -4234,7 +2078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="8:8">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
         <v>45</v>
@@ -4243,7 +2087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="8:8">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>45</v>
@@ -4252,7 +2096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="8:8">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>45</v>
@@ -4261,7 +2105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="8:8">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
         <v>45</v>
@@ -4270,7 +2114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="8:8">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
         <v>45</v>
@@ -4279,7 +2123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="8:8">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
         <v>45</v>
@@ -4288,7 +2132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="8:8">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
         <v>45</v>
@@ -4297,7 +2141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="8:8">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>45</v>
@@ -4306,7 +2150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="8:8">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
         <v>45</v>
@@ -4315,7 +2159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="8:8">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
         <v>45</v>
@@ -4324,7 +2168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="8:8">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>45</v>
@@ -4333,7 +2177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="8:8">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
         <v>45</v>
@@ -4342,7 +2186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="8:8">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
         <v>45</v>
@@ -4351,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="8:8">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
         <v>45</v>
@@ -4360,7 +2204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="8:8">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
         <v>45</v>
@@ -4369,7 +2213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="8:8">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
         <v>45</v>
@@ -4378,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="8:8">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>45</v>
@@ -4387,7 +2231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="8:8">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
         <v>45</v>
@@ -4396,7 +2240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="8:8">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
         <v>45</v>
@@ -4405,7 +2249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="8:8">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>45</v>
@@ -4414,7 +2258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="8:8">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>45</v>
@@ -4423,7 +2267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="8:8">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
         <v>45</v>
@@ -4432,7 +2276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="8:8">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>45</v>
@@ -4441,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="8:8">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
         <v>45</v>
@@ -4450,7 +2294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="8:8">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
         <v>45</v>
@@ -4459,7 +2303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="8:8">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
         <v>45</v>
@@ -4468,7 +2312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="8:8">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
         <v>45</v>
@@ -4477,7 +2321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="8:8">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
         <v>45</v>
@@ -4486,7 +2330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="8:8">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
         <v>45</v>
@@ -4495,7 +2339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="8:8">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
         <v>45</v>
@@ -4504,7 +2348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="8:8">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
         <v>45</v>
@@ -4513,7 +2357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="8:8">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
         <v>45</v>
@@ -4522,7 +2366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="8:8">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
         <v>45</v>
@@ -4531,7 +2375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="8:8">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
         <v>45</v>
@@ -4540,7 +2384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="8:8">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
         <v>45</v>
@@ -4549,7 +2393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="8:8">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
         <v>45</v>
@@ -4558,7 +2402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="8:8">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
         <v>45</v>
@@ -4567,7 +2411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="8:8">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
         <v>45</v>
@@ -4576,7 +2420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="8:8">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
         <v>45</v>
@@ -4585,7 +2429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="8:8">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
         <v>45</v>
@@ -4594,7 +2438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="8:8">
       <c r="A102" s="3"/>
       <c r="B102" s="4" t="s">
         <v>45</v>
@@ -4603,7 +2447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="8:8">
       <c r="A103" s="3"/>
       <c r="B103" s="4" t="s">
         <v>45</v>
@@ -4612,7 +2456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="8:8">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
         <v>45</v>
@@ -4621,7 +2465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="8:8">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
         <v>45</v>
@@ -4630,7 +2474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="8:8">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
         <v>45</v>
@@ -4639,7 +2483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="8:8">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
         <v>45</v>
@@ -4648,7 +2492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="8:8">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
         <v>45</v>
@@ -4657,7 +2501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="8:8">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
         <v>45</v>
@@ -4666,7 +2510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="8:8">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
         <v>45</v>
@@ -4675,7 +2519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="8:8">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
         <v>45</v>
@@ -4684,7 +2528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="8:8">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
         <v>45</v>
@@ -4693,7 +2537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="8:8">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
         <v>45</v>
@@ -4702,7 +2546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="8:8">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
         <v>45</v>
@@ -4711,7 +2555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="8:8">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
         <v>45</v>
@@ -4720,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="8:8">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
         <v>45</v>
@@ -4729,7 +2573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="8:8">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
         <v>45</v>
@@ -4738,7 +2582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="8:8">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
         <v>45</v>
@@ -4747,7 +2591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="8:8">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
         <v>45</v>
@@ -4756,7 +2600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="8:8">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
         <v>45</v>
@@ -4765,7 +2609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="8:8">
       <c r="A121" s="3"/>
       <c r="B121" s="4" t="s">
         <v>45</v>
@@ -4774,7 +2618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="8:8">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
         <v>45</v>
@@ -4783,7 +2627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="8:8">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
         <v>45</v>
@@ -4792,7 +2636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="8:8">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
         <v>45</v>
@@ -4801,7 +2645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="8:8">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
         <v>45</v>
@@ -4810,7 +2654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="8:8">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
         <v>45</v>
@@ -4819,7 +2663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="8:8">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
         <v>45</v>
@@ -4828,7 +2672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="8:8">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
         <v>45</v>
@@ -4837,7 +2681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="8:8">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
         <v>45</v>
@@ -4846,7 +2690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="8:8">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
         <v>45</v>
@@ -4855,7 +2699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="8:8">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
         <v>45</v>
@@ -4864,7 +2708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="8:8">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
         <v>45</v>
@@ -4873,7 +2717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="8:8">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
         <v>45</v>
@@ -4882,7 +2726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="8:8">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
         <v>45</v>
@@ -4891,7 +2735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="8:8">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
         <v>45</v>
@@ -4900,7 +2744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="8:8">
       <c r="A136" s="3"/>
       <c r="B136" s="4" t="s">
         <v>45</v>
@@ -4909,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="8:8">
       <c r="A137" s="3"/>
       <c r="B137" s="4" t="s">
         <v>45</v>
@@ -4918,7 +2762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="8:8">
       <c r="A138" s="3"/>
       <c r="B138" s="4" t="s">
         <v>45</v>
@@ -4927,7 +2771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="8:8">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
         <v>45</v>
@@ -4936,7 +2780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="8:8">
       <c r="A140" s="3"/>
       <c r="B140" s="4" t="s">
         <v>45</v>
@@ -4945,7 +2789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="8:8">
       <c r="A141" s="3"/>
       <c r="B141" s="4" t="s">
         <v>45</v>
@@ -4954,7 +2798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="8:8">
       <c r="A142" s="3"/>
       <c r="B142" s="4" t="s">
         <v>45</v>
@@ -4963,7 +2807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="8:8">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
         <v>45</v>
@@ -4972,7 +2816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="8:8">
       <c r="A144" s="3"/>
       <c r="B144" s="4" t="s">
         <v>45</v>
@@ -4981,7 +2825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="8:8">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
         <v>45</v>
@@ -4990,7 +2834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="8:8">
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="s">
         <v>45</v>
@@ -4999,7 +2843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="8:8">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
         <v>45</v>
@@ -5008,7 +2852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="8:8">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
         <v>45</v>
@@ -5017,7 +2861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="8:8">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
         <v>45</v>
@@ -5026,7 +2870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="8:8">
       <c r="A150" s="3"/>
       <c r="B150" s="4" t="s">
         <v>45</v>
@@ -5035,7 +2879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="8:8">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
         <v>45</v>
@@ -5044,7 +2888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="8:8">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
         <v>45</v>
@@ -5053,7 +2897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="8:8">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
         <v>45</v>
@@ -5062,7 +2906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="8:8">
       <c r="A154" s="3"/>
       <c r="B154" s="4" t="s">
         <v>45</v>
@@ -5071,7 +2915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="8:8">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
         <v>45</v>
@@ -5080,7 +2924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="8:8">
       <c r="A156" s="3"/>
       <c r="B156" s="4" t="s">
         <v>45</v>
@@ -5089,7 +2933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="8:8">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
         <v>45</v>
@@ -5098,7 +2942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="8:8">
       <c r="A158" s="3"/>
       <c r="B158" s="4" t="s">
         <v>45</v>
@@ -5107,7 +2951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="8:8">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
         <v>45</v>
@@ -5116,7 +2960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="8:8">
       <c r="A160" s="3"/>
       <c r="B160" s="4" t="s">
         <v>45</v>
@@ -5125,7 +2969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="8:8">
       <c r="A161" s="3"/>
       <c r="B161" s="4" t="s">
         <v>45</v>
@@ -5134,7 +2978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="8:8">
       <c r="A162" s="3"/>
       <c r="B162" s="4" t="s">
         <v>45</v>
@@ -5143,7 +2987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="8:8">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
         <v>45</v>
@@ -5152,7 +2996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="8:8">
       <c r="A164" s="3"/>
       <c r="B164" s="4" t="s">
         <v>45</v>
@@ -5161,7 +3005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="8:8">
       <c r="A165" s="3"/>
       <c r="B165" s="4" t="s">
         <v>45</v>
@@ -5170,7 +3014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="8:8">
       <c r="A166" s="3"/>
       <c r="B166" s="4" t="s">
         <v>45</v>
@@ -5179,7 +3023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="8:8">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
         <v>45</v>
@@ -5188,7 +3032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="8:8">
       <c r="A168" s="3"/>
       <c r="B168" s="4" t="s">
         <v>45</v>
@@ -5197,7 +3041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="8:8">
       <c r="A169" s="3"/>
       <c r="B169" s="4" t="s">
         <v>45</v>
@@ -5206,7 +3050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="8:8">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="s">
         <v>45</v>
@@ -5215,7 +3059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="8:8">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
         <v>45</v>
@@ -5224,7 +3068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="8:8">
       <c r="A172" s="3"/>
       <c r="B172" s="4" t="s">
         <v>45</v>
@@ -5233,7 +3077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="8:8">
       <c r="A173" s="3"/>
       <c r="B173" s="4" t="s">
         <v>45</v>
@@ -5242,7 +3086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="8:8">
       <c r="A174" s="3"/>
       <c r="B174" s="4" t="s">
         <v>45</v>
@@ -5251,7 +3095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="8:8">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
         <v>45</v>
@@ -5260,7 +3104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="8:8">
       <c r="A176" s="3"/>
       <c r="B176" s="4" t="s">
         <v>45</v>
@@ -5269,7 +3113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="8:8">
       <c r="A177" s="3"/>
       <c r="B177" s="4" t="s">
         <v>45</v>
@@ -5278,7 +3122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="8:8">
       <c r="A178" s="3"/>
       <c r="B178" s="4" t="s">
         <v>45</v>
@@ -5287,7 +3131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="8:8">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
         <v>45</v>
@@ -5296,7 +3140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="8:8">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
         <v>45</v>
@@ -5305,7 +3149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="8:8">
       <c r="A181" s="3"/>
       <c r="B181" s="4" t="s">
         <v>45</v>
@@ -5314,7 +3158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="8:8">
       <c r="A182" s="3"/>
       <c r="B182" s="4" t="s">
         <v>45</v>
@@ -5323,7 +3167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="8:8">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
         <v>45</v>
@@ -5332,7 +3176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="8:8">
       <c r="A184" s="3"/>
       <c r="B184" s="4" t="s">
         <v>45</v>
@@ -5341,7 +3185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="8:8">
       <c r="A185" s="3"/>
       <c r="B185" s="4" t="s">
         <v>45</v>
@@ -5350,7 +3194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="8:8">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
         <v>45</v>
@@ -5359,7 +3203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="8:8">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
         <v>45</v>
@@ -5368,7 +3212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="8:8">
       <c r="A188" s="3"/>
       <c r="B188" s="4" t="s">
         <v>45</v>
@@ -5377,7 +3221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="8:8">
       <c r="A189" s="3"/>
       <c r="B189" s="4" t="s">
         <v>45</v>
@@ -5386,7 +3230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="8:8">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
         <v>45</v>
@@ -5395,7 +3239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="8:8">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
         <v>45</v>
@@ -5404,7 +3248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="8:8">
       <c r="A192" s="3"/>
       <c r="B192" s="4" t="s">
         <v>45</v>
@@ -5413,7 +3257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="8:8">
       <c r="A193" s="3"/>
       <c r="B193" s="4" t="s">
         <v>45</v>
@@ -5422,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="8:8">
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="s">
         <v>45</v>
@@ -5431,7 +3275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="8:8">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
         <v>45</v>
@@ -5440,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="8:8">
       <c r="A196" s="3"/>
       <c r="B196" s="4" t="s">
         <v>45</v>
@@ -5449,7 +3293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="8:8">
       <c r="A197" s="3"/>
       <c r="B197" s="4" t="s">
         <v>45</v>
@@ -5458,7 +3302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="8:8">
       <c r="A198" s="3"/>
       <c r="B198" s="4" t="s">
         <v>45</v>
@@ -5467,7 +3311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="8:8">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
         <v>45</v>
@@ -5476,7 +3320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="8:8">
       <c r="A200" s="3"/>
       <c r="B200" s="4" t="s">
         <v>45</v>
@@ -5485,7 +3329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="8:8">
       <c r="A201" s="3"/>
       <c r="B201" s="4" t="s">
         <v>45</v>
@@ -5494,7 +3338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="8:8">
       <c r="A202" s="3"/>
       <c r="B202" s="4" t="s">
         <v>45</v>
@@ -5503,7 +3347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="8:8">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
         <v>45</v>
@@ -5512,7 +3356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="8:8">
       <c r="A204" s="3"/>
       <c r="B204" s="4" t="s">
         <v>45</v>
@@ -5521,7 +3365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="8:8">
       <c r="A205" s="3"/>
       <c r="B205" s="4" t="s">
         <v>45</v>
@@ -5530,7 +3374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="8:8">
       <c r="A206" s="3"/>
       <c r="B206" s="4" t="s">
         <v>45</v>
@@ -5539,7 +3383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="8:8">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
         <v>45</v>
@@ -5548,7 +3392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="8:8">
       <c r="A208" s="3"/>
       <c r="B208" s="4" t="s">
         <v>45</v>
@@ -5557,7 +3401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="8:8">
       <c r="A209" s="3"/>
       <c r="B209" s="4" t="s">
         <v>45</v>
@@ -5566,7 +3410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="8:8">
       <c r="A210" s="3"/>
       <c r="B210" s="4" t="s">
         <v>45</v>
@@ -5575,7 +3419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="8:8">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
         <v>45</v>
@@ -5584,7 +3428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="8:8">
       <c r="A212" s="3"/>
       <c r="B212" s="4" t="s">
         <v>45</v>
@@ -5593,7 +3437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="8:8">
       <c r="A213" s="3"/>
       <c r="B213" s="4" t="s">
         <v>45</v>
@@ -5602,7 +3446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="8:8">
       <c r="A214" s="3"/>
       <c r="B214" s="4" t="s">
         <v>45</v>
@@ -5611,7 +3455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="8:8">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
         <v>45</v>
@@ -5620,7 +3464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="8:8">
       <c r="A216" s="3"/>
       <c r="B216" s="4" t="s">
         <v>45</v>
@@ -5629,7 +3473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="8:8">
       <c r="A217" s="3"/>
       <c r="B217" s="4" t="s">
         <v>45</v>
@@ -5638,7 +3482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="8:8">
       <c r="A218" s="3"/>
       <c r="B218" s="4" t="s">
         <v>45</v>
@@ -5647,7 +3491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="8:8">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
         <v>45</v>
@@ -5656,7 +3500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="8:8">
       <c r="A220" s="3"/>
       <c r="B220" s="4" t="s">
         <v>45</v>
@@ -5665,7 +3509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="8:8">
       <c r="A221" s="3"/>
       <c r="B221" s="4" t="s">
         <v>45</v>
@@ -5674,7 +3518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="8:8">
       <c r="A222" s="3"/>
       <c r="B222" s="4" t="s">
         <v>45</v>
@@ -5683,7 +3527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="8:8">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
         <v>45</v>
@@ -5692,7 +3536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="8:8">
       <c r="A224" s="3"/>
       <c r="B224" s="4" t="s">
         <v>45</v>
@@ -5701,7 +3545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="8:8">
       <c r="A225" s="3"/>
       <c r="B225" s="4" t="s">
         <v>45</v>
@@ -5710,7 +3554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="8:8">
       <c r="A226" s="3"/>
       <c r="B226" s="4" t="s">
         <v>45</v>
@@ -5719,7 +3563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="8:8">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
         <v>45</v>
@@ -5728,7 +3572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="8:8">
       <c r="A228" s="3"/>
       <c r="B228" s="4" t="s">
         <v>45</v>
@@ -5737,7 +3581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="8:8">
       <c r="A229" s="3"/>
       <c r="B229" s="4" t="s">
         <v>45</v>
@@ -5746,7 +3590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="8:8">
       <c r="A230" s="3"/>
       <c r="B230" s="4" t="s">
         <v>45</v>
@@ -5755,7 +3599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="8:8">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
         <v>45</v>
@@ -5764,7 +3608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="8:8">
       <c r="A232" s="3"/>
       <c r="B232" s="4" t="s">
         <v>45</v>
@@ -5773,7 +3617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="8:8">
       <c r="A233" s="3"/>
       <c r="B233" s="4" t="s">
         <v>45</v>
@@ -5782,7 +3626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="8:8">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
         <v>45</v>
@@ -5791,7 +3635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="8:8">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
         <v>45</v>
@@ -5800,7 +3644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="8:8">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
         <v>45</v>
@@ -5809,7 +3653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="8:8">
       <c r="A237" s="3"/>
       <c r="B237" s="4" t="s">
         <v>45</v>
@@ -5818,7 +3662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="8:8">
       <c r="A238" s="3"/>
       <c r="B238" s="4" t="s">
         <v>45</v>
@@ -5827,7 +3671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="8:8">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
         <v>45</v>
@@ -5836,7 +3680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="8:8">
       <c r="A240" s="3"/>
       <c r="B240" s="4" t="s">
         <v>45</v>
@@ -5845,7 +3689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="8:8">
       <c r="A241" s="3"/>
       <c r="B241" s="4" t="s">
         <v>45</v>
@@ -5854,7 +3698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="8:8">
       <c r="A242" s="3"/>
       <c r="B242" s="4" t="s">
         <v>45</v>
@@ -5863,7 +3707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="8:8">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
         <v>45</v>
@@ -5872,7 +3716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="8:8">
       <c r="A244" s="3"/>
       <c r="B244" s="4" t="s">
         <v>45</v>
@@ -5881,7 +3725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="8:8">
       <c r="A245" s="3"/>
       <c r="B245" s="4" t="s">
         <v>45</v>
@@ -5890,7 +3734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="8:8">
       <c r="A246" s="3"/>
       <c r="B246" s="4" t="s">
         <v>45</v>
@@ -5899,7 +3743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="8:8">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
         <v>45</v>
@@ -5908,7 +3752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="8:8">
       <c r="A248" s="3"/>
       <c r="B248" s="4" t="s">
         <v>45</v>
@@ -5917,7 +3761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="8:8">
       <c r="A249" s="3"/>
       <c r="B249" s="4" t="s">
         <v>45</v>
@@ -5926,7 +3770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="8:8">
       <c r="A250" s="3"/>
       <c r="B250" s="4" t="s">
         <v>45</v>
@@ -5935,7 +3779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="8:8">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
         <v>45</v>
@@ -5944,7 +3788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="8:8">
       <c r="A252" s="3"/>
       <c r="B252" s="4" t="s">
         <v>45</v>
@@ -5953,7 +3797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="8:8">
       <c r="A253" s="3"/>
       <c r="B253" s="4" t="s">
         <v>45</v>
@@ -5962,7 +3806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="8:8">
       <c r="A254" s="3"/>
       <c r="B254" s="4" t="s">
         <v>45</v>
@@ -5971,7 +3815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="8:8">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
         <v>45</v>
@@ -5980,7 +3824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="8:8">
       <c r="A256" s="3"/>
       <c r="B256" s="4" t="s">
         <v>45</v>
@@ -5989,7 +3833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="8:8">
       <c r="A257" s="3"/>
       <c r="B257" s="4" t="s">
         <v>45</v>
@@ -5998,7 +3842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="8:8">
       <c r="A258" s="3"/>
       <c r="B258" s="4" t="s">
         <v>45</v>
@@ -6007,7 +3851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="8:8">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
         <v>45</v>
@@ -6016,7 +3860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="8:8">
       <c r="A260" s="3"/>
       <c r="B260" s="4" t="s">
         <v>45</v>
@@ -6025,7 +3869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="8:8">
       <c r="A261" s="3"/>
       <c r="B261" s="4" t="s">
         <v>45</v>
@@ -6034,7 +3878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="8:8">
       <c r="A262" s="3"/>
       <c r="B262" s="4" t="s">
         <v>45</v>
@@ -6043,7 +3887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="8:8">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
         <v>45</v>
@@ -6052,7 +3896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="8:8">
       <c r="A264" s="3"/>
       <c r="B264" s="4" t="s">
         <v>45</v>
@@ -6061,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="8:8">
       <c r="A265" s="3"/>
       <c r="B265" s="4" t="s">
         <v>45</v>
@@ -6070,7 +3914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="8:8">
       <c r="A266" s="3"/>
       <c r="B266" s="4" t="s">
         <v>45</v>
@@ -6079,7 +3923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="8:8">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
         <v>45</v>
@@ -6088,7 +3932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="8:8">
       <c r="A268" s="3"/>
       <c r="B268" s="4" t="s">
         <v>45</v>
@@ -6097,7 +3941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="8:8">
       <c r="A269" s="3"/>
       <c r="B269" s="4" t="s">
         <v>45</v>
@@ -6106,7 +3950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="8:8">
       <c r="A270" s="3"/>
       <c r="B270" s="4" t="s">
         <v>45</v>
@@ -6115,7 +3959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="8:8">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
         <v>45</v>
@@ -6124,7 +3968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="8:8">
       <c r="A272" s="3"/>
       <c r="B272" s="4" t="s">
         <v>45</v>
@@ -6133,7 +3977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="8:8">
       <c r="A273" s="3"/>
       <c r="B273" s="4" t="s">
         <v>45</v>
@@ -6142,7 +3986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="8:8">
       <c r="A274" s="3"/>
       <c r="B274" s="4" t="s">
         <v>45</v>
@@ -6151,7 +3995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="8:8">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
         <v>45</v>
@@ -6160,7 +4004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="8:8">
       <c r="A276" s="3"/>
       <c r="B276" s="4" t="s">
         <v>45</v>
@@ -6169,7 +4013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="8:8">
       <c r="A277" s="3"/>
       <c r="B277" s="4" t="s">
         <v>45</v>
@@ -6178,7 +4022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="8:8">
       <c r="A278" s="3"/>
       <c r="B278" s="4" t="s">
         <v>45</v>
@@ -6187,7 +4031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="8:8">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
         <v>45</v>
@@ -6196,7 +4040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="8:8">
       <c r="A280" s="3"/>
       <c r="B280" s="4" t="s">
         <v>45</v>
@@ -6205,7 +4049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="8:8">
       <c r="A281" s="3"/>
       <c r="B281" s="4" t="s">
         <v>45</v>
@@ -6214,7 +4058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="8:8">
       <c r="A282" s="3"/>
       <c r="B282" s="4" t="s">
         <v>45</v>
@@ -6223,7 +4067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="8:8">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
         <v>45</v>
@@ -6232,7 +4076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="8:8">
       <c r="A284" s="3"/>
       <c r="B284" s="4" t="s">
         <v>45</v>
@@ -6241,7 +4085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="8:8">
       <c r="A285" s="3"/>
       <c r="B285" s="4" t="s">
         <v>45</v>
@@ -6250,7 +4094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="8:8">
       <c r="A286" s="3"/>
       <c r="B286" s="4" t="s">
         <v>45</v>
@@ -6259,7 +4103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="8:8">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
         <v>45</v>
@@ -6268,7 +4112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="8:8">
       <c r="A288" s="3"/>
       <c r="B288" s="4" t="s">
         <v>45</v>
@@ -6277,7 +4121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="8:8">
       <c r="A289" s="3"/>
       <c r="B289" s="4" t="s">
         <v>45</v>
@@ -6286,7 +4130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="8:8">
       <c r="A290" s="3"/>
       <c r="B290" s="4" t="s">
         <v>45</v>
@@ -6295,7 +4139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="8:8">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
         <v>45</v>
@@ -6304,7 +4148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="8:8">
       <c r="A292" s="3"/>
       <c r="B292" s="4" t="s">
         <v>45</v>
@@ -6313,7 +4157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="8:8">
       <c r="A293" s="3"/>
       <c r="B293" s="4" t="s">
         <v>45</v>
@@ -6322,7 +4166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="8:8">
       <c r="A294" s="3"/>
       <c r="B294" s="4" t="s">
         <v>45</v>
@@ -6331,7 +4175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="8:8">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
         <v>45</v>
@@ -6340,7 +4184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="8:8">
       <c r="A296" s="3"/>
       <c r="B296" s="4" t="s">
         <v>45</v>
@@ -6349,7 +4193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="8:8">
       <c r="A297" s="3"/>
       <c r="B297" s="4" t="s">
         <v>45</v>
@@ -6358,7 +4202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="8:8">
       <c r="A298" s="3"/>
       <c r="B298" s="4" t="s">
         <v>45</v>
@@ -6367,7 +4211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="8:8">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
         <v>45</v>
@@ -6376,7 +4220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="8:8">
       <c r="A300" s="3"/>
       <c r="B300" s="4" t="s">
         <v>45</v>
@@ -6385,7 +4229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="8:8">
       <c r="A301" s="3"/>
       <c r="B301" s="4" t="s">
         <v>45</v>
@@ -6394,7 +4238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="8:8">
       <c r="A302" s="3"/>
       <c r="B302" s="4" t="s">
         <v>45</v>
@@ -6403,7 +4247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="8:8">
       <c r="A303" s="3"/>
       <c r="B303" s="4" t="s">
         <v>45</v>
@@ -6412,7 +4256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="8:8">
       <c r="B304" s="4" t="s">
         <v>45</v>
       </c>
@@ -6420,7 +4264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="8:8">
       <c r="B305" s="4" t="s">
         <v>45</v>
       </c>
@@ -6428,7 +4272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="8:8">
       <c r="B306" s="4" t="s">
         <v>45</v>
       </c>
@@ -6436,7 +4280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="8:8">
       <c r="B307" s="4" t="s">
         <v>45</v>
       </c>
@@ -6444,7 +4288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="8:8">
       <c r="B308" s="4" t="s">
         <v>45</v>
       </c>
@@ -6452,7 +4296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="8:8">
       <c r="B309" s="4" t="s">
         <v>45</v>
       </c>
@@ -6460,7 +4304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="8:8">
       <c r="B310" s="4" t="s">
         <v>45</v>
       </c>
@@ -6468,7 +4312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="8:8">
       <c r="B311" s="4" t="s">
         <v>45</v>
       </c>
@@ -6476,7 +4320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="8:8">
       <c r="B312" s="4" t="s">
         <v>45</v>
       </c>
@@ -6484,7 +4328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="8:8">
       <c r="B313" s="4" t="s">
         <v>45</v>
       </c>
@@ -6492,7 +4336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="8:8">
       <c r="B314" s="4" t="s">
         <v>45</v>
       </c>
@@ -6500,7 +4344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="8:8">
       <c r="B315" s="4" t="s">
         <v>45</v>
       </c>
@@ -6508,7 +4352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="8:8">
       <c r="B316" s="4" t="s">
         <v>45</v>
       </c>
@@ -6516,7 +4360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="8:8">
       <c r="B317" s="4" t="s">
         <v>45</v>
       </c>
@@ -6524,7 +4368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="8:8">
       <c r="B318" s="4" t="s">
         <v>45</v>
       </c>
@@ -6532,7 +4376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="8:8">
       <c r="B319" s="4" t="s">
         <v>45</v>
       </c>
@@ -6540,7 +4384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="8:8">
       <c r="B320" s="4" t="s">
         <v>45</v>
       </c>
@@ -6548,7 +4392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="8:8">
       <c r="B321" s="4" t="s">
         <v>45</v>
       </c>
@@ -6556,7 +4400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="8:8">
       <c r="B322" s="4" t="s">
         <v>45</v>
       </c>
@@ -6564,7 +4408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="8:8">
       <c r="B323" s="4" t="s">
         <v>45</v>
       </c>
@@ -6572,7 +4416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="8:8">
       <c r="B324" s="4" t="s">
         <v>45</v>
       </c>
@@ -6580,7 +4424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="8:8">
       <c r="B325" s="4" t="s">
         <v>45</v>
       </c>
@@ -6588,7 +4432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="8:8">
       <c r="B326" s="4" t="s">
         <v>45</v>
       </c>
@@ -6596,7 +4440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="8:8">
       <c r="B327" s="4" t="s">
         <v>45</v>
       </c>
@@ -6604,7 +4448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="8:8">
       <c r="B328" s="4" t="s">
         <v>45</v>
       </c>
@@ -6612,7 +4456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="8:8">
       <c r="B329" s="4" t="s">
         <v>45</v>
       </c>
@@ -6620,7 +4464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="8:8">
       <c r="B330" s="4" t="s">
         <v>45</v>
       </c>
@@ -6628,7 +4472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="8:8">
       <c r="B331" s="4" t="s">
         <v>45</v>
       </c>
@@ -6636,7 +4480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="8:8">
       <c r="B332" s="4" t="s">
         <v>45</v>
       </c>
@@ -6644,7 +4488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="8:8">
       <c r="B333" s="4" t="s">
         <v>45</v>
       </c>
@@ -6652,7 +4496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="8:8">
       <c r="B334" s="4" t="s">
         <v>45</v>
       </c>
@@ -6660,7 +4504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="8:8">
       <c r="B335" s="4" t="s">
         <v>45</v>
       </c>
@@ -6668,7 +4512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="8:8">
       <c r="B336" s="4" t="s">
         <v>45</v>
       </c>
@@ -6676,7 +4520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="8:8">
       <c r="B337" s="4" t="s">
         <v>45</v>
       </c>
@@ -6684,7 +4528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="8:8">
       <c r="B338" s="4" t="s">
         <v>45</v>
       </c>
@@ -6692,7 +4536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="8:8">
       <c r="B339" s="4" t="s">
         <v>45</v>
       </c>
@@ -6700,7 +4544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="8:8">
       <c r="B340" s="4" t="s">
         <v>45</v>
       </c>
@@ -6708,7 +4552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="8:8">
       <c r="B341" s="4" t="s">
         <v>45</v>
       </c>
@@ -6716,7 +4560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="8:8">
       <c r="B342" s="4" t="s">
         <v>45</v>
       </c>
@@ -6724,7 +4568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="8:8">
       <c r="B343" s="4" t="s">
         <v>45</v>
       </c>
@@ -6732,7 +4576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="8:8">
       <c r="B344" s="4" t="s">
         <v>45</v>
       </c>
@@ -6740,7 +4584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="8:8">
       <c r="B345" s="4" t="s">
         <v>45</v>
       </c>
@@ -6748,7 +4592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="8:8">
       <c r="B346" s="4" t="s">
         <v>45</v>
       </c>
@@ -6756,7 +4600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="8:8">
       <c r="B347" s="4" t="s">
         <v>45</v>
       </c>
@@ -6764,7 +4608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="8:8">
       <c r="B348" s="4" t="s">
         <v>45</v>
       </c>
@@ -6772,7 +4616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="8:8">
       <c r="B349" s="4" t="s">
         <v>45</v>
       </c>
@@ -6780,7 +4624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="8:8">
       <c r="B350" s="4" t="s">
         <v>45</v>
       </c>
@@ -6788,7 +4632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="8:8">
       <c r="B351" s="4" t="s">
         <v>45</v>
       </c>
@@ -6796,7 +4640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="8:8">
       <c r="B352" s="4" t="s">
         <v>45</v>
       </c>
@@ -6804,7 +4648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="8:8">
       <c r="B353" s="4" t="s">
         <v>45</v>
       </c>
@@ -6812,7 +4656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="8:8">
       <c r="B354" s="4" t="s">
         <v>45</v>
       </c>
@@ -6820,7 +4664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="8:8">
       <c r="B355" s="4" t="s">
         <v>45</v>
       </c>
@@ -6828,7 +4672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="8:8">
       <c r="B356" s="4" t="s">
         <v>45</v>
       </c>
@@ -6836,7 +4680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="8:8">
       <c r="B357" s="4" t="s">
         <v>45</v>
       </c>
@@ -6844,7 +4688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="8:8">
       <c r="B358" s="4" t="s">
         <v>45</v>
       </c>
@@ -6852,7 +4696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="8:8">
       <c r="B359" s="4" t="s">
         <v>45</v>
       </c>
@@ -6860,7 +4704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="8:8">
       <c r="B360" s="4" t="s">
         <v>45</v>
       </c>
@@ -6868,7 +4712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="8:8">
       <c r="B361" s="4" t="s">
         <v>45</v>
       </c>
@@ -6876,7 +4720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="8:8">
       <c r="B362" s="4" t="s">
         <v>45</v>
       </c>
@@ -6884,7 +4728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="8:8">
       <c r="B363" s="4" t="s">
         <v>45</v>
       </c>
@@ -6892,7 +4736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="8:8">
       <c r="B364" s="4" t="s">
         <v>45</v>
       </c>
@@ -6900,7 +4744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="8:8">
       <c r="B365" s="4" t="s">
         <v>45</v>
       </c>
@@ -6908,7 +4752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="8:8">
       <c r="B366" s="4" t="s">
         <v>45</v>
       </c>
@@ -6916,7 +4760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="8:8">
       <c r="B367" s="4" t="s">
         <v>45</v>
       </c>
@@ -6924,7 +4768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="8:8">
       <c r="B368" s="4" t="s">
         <v>45</v>
       </c>
@@ -6932,7 +4776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="8:8">
       <c r="B369" s="4" t="s">
         <v>45</v>
       </c>
@@ -6940,7 +4784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="8:8">
       <c r="B370" s="4" t="s">
         <v>45</v>
       </c>
@@ -6948,7 +4792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="8:8">
       <c r="B371" s="4" t="s">
         <v>45</v>
       </c>
@@ -6956,7 +4800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="8:8">
       <c r="B372" s="4" t="s">
         <v>45</v>
       </c>
@@ -6964,7 +4808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="8:8">
       <c r="B373" s="4" t="s">
         <v>45</v>
       </c>
@@ -6972,7 +4816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="8:8">
       <c r="B374" s="4" t="s">
         <v>45</v>
       </c>
@@ -6980,7 +4824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="8:8">
       <c r="B375" s="4" t="s">
         <v>45</v>
       </c>
@@ -6988,7 +4832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="8:8">
       <c r="B376" s="4" t="s">
         <v>45</v>
       </c>
@@ -6996,7 +4840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="8:8">
       <c r="B377" s="4" t="s">
         <v>45</v>
       </c>
@@ -7004,7 +4848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="8:8">
       <c r="B378" s="4" t="s">
         <v>45</v>
       </c>
@@ -7012,7 +4856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="8:8">
       <c r="B379" s="4" t="s">
         <v>45</v>
       </c>
@@ -7020,7 +4864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="8:8">
       <c r="B380" s="4" t="s">
         <v>45</v>
       </c>
@@ -7028,7 +4872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="8:8">
       <c r="B381" s="4" t="s">
         <v>45</v>
       </c>
@@ -7036,7 +4880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="8:8">
       <c r="B382" s="4" t="s">
         <v>45</v>
       </c>
@@ -7044,7 +4888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="8:8">
       <c r="B383" s="4" t="s">
         <v>45</v>
       </c>
@@ -7052,7 +4896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="8:8">
       <c r="B384" s="4" t="s">
         <v>45</v>
       </c>
@@ -7060,7 +4904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="8:8">
       <c r="B385" s="4" t="s">
         <v>45</v>
       </c>
@@ -7068,7 +4912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="8:8">
       <c r="B386" s="4" t="s">
         <v>45</v>
       </c>
@@ -7076,7 +4920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="8:8">
       <c r="B387" s="4" t="s">
         <v>45</v>
       </c>
@@ -7084,7 +4928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="8:8">
       <c r="B388" s="4" t="s">
         <v>45</v>
       </c>
@@ -7092,7 +4936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="8:8">
       <c r="B389" s="4" t="s">
         <v>45</v>
       </c>
@@ -7100,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="8:8">
       <c r="B390" s="4" t="s">
         <v>45</v>
       </c>
@@ -7108,7 +4952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="8:8">
       <c r="B391" s="4" t="s">
         <v>45</v>
       </c>
@@ -7116,7 +4960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="8:8">
       <c r="B392" s="4" t="s">
         <v>45</v>
       </c>
@@ -7124,7 +4968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="8:8">
       <c r="B393" s="4" t="s">
         <v>45</v>
       </c>
@@ -7132,7 +4976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="8:8">
       <c r="B394" s="4" t="s">
         <v>45</v>
       </c>
@@ -7140,7 +4984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="8:8">
       <c r="B395" s="4" t="s">
         <v>45</v>
       </c>
@@ -7148,7 +4992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="8:8">
       <c r="B396" s="4" t="s">
         <v>45</v>
       </c>
@@ -7156,7 +5000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="8:8">
       <c r="B397" s="4" t="s">
         <v>45</v>
       </c>
@@ -7164,7 +5008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="8:8">
       <c r="B398" s="4" t="s">
         <v>45</v>
       </c>
@@ -7172,7 +5016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="8:8">
       <c r="B399" s="4" t="s">
         <v>45</v>
       </c>
@@ -7180,7 +5024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="8:8">
       <c r="B400" s="4" t="s">
         <v>45</v>
       </c>
@@ -7188,7 +5032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="8:8">
       <c r="B401" s="4" t="s">
         <v>45</v>
       </c>
@@ -7196,7 +5040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="8:8">
       <c r="B402" s="4" t="s">
         <v>45</v>
       </c>
@@ -7204,7 +5048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="8:8">
       <c r="B403" s="4" t="s">
         <v>45</v>
       </c>
@@ -7212,7 +5056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="8:8">
       <c r="B404" s="4" t="s">
         <v>45</v>
       </c>
@@ -7220,7 +5064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="8:8">
       <c r="B405" s="4" t="s">
         <v>45</v>
       </c>
@@ -7228,7 +5072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="8:8">
       <c r="B406" s="4" t="s">
         <v>45</v>
       </c>
@@ -7236,7 +5080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="8:8">
       <c r="B407" s="4" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +5088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="8:8">
       <c r="B408" s="4" t="s">
         <v>45</v>
       </c>
@@ -7252,7 +5096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="8:8">
       <c r="B409" s="4" t="s">
         <v>45</v>
       </c>
@@ -7260,7 +5104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="8:8">
       <c r="B410" s="4" t="s">
         <v>45</v>
       </c>
@@ -7268,7 +5112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="8:8">
       <c r="B411" s="4" t="s">
         <v>45</v>
       </c>
@@ -7276,7 +5120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="8:8">
       <c r="B412" s="4" t="s">
         <v>45</v>
       </c>
@@ -7284,7 +5128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="8:8">
       <c r="B413" s="4" t="s">
         <v>45</v>
       </c>
@@ -7292,7 +5136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="8:8">
       <c r="B414" s="4" t="s">
         <v>45</v>
       </c>
@@ -7300,7 +5144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="8:8">
       <c r="B415" s="4" t="s">
         <v>45</v>
       </c>
@@ -7308,7 +5152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="8:8">
       <c r="B416" s="4" t="s">
         <v>45</v>
       </c>
@@ -7316,7 +5160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="8:8">
       <c r="B417" s="4" t="s">
         <v>45</v>
       </c>
@@ -7324,7 +5168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="8:8">
       <c r="B418" s="4" t="s">
         <v>45</v>
       </c>
@@ -7332,7 +5176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="8:8">
       <c r="B419" s="4" t="s">
         <v>45</v>
       </c>
@@ -7340,7 +5184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="8:8">
       <c r="B420" s="4" t="s">
         <v>45</v>
       </c>
@@ -7348,7 +5192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="8:8">
       <c r="B421" s="4" t="s">
         <v>45</v>
       </c>
@@ -7356,7 +5200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="8:8">
       <c r="B422" s="4" t="s">
         <v>45</v>
       </c>
@@ -7364,7 +5208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="8:8">
       <c r="B423" s="4" t="s">
         <v>45</v>
       </c>
@@ -7372,7 +5216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="8:8">
       <c r="B424" s="4" t="s">
         <v>45</v>
       </c>
@@ -7380,7 +5224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="8:8">
       <c r="B425" s="4" t="s">
         <v>45</v>
       </c>
@@ -7388,7 +5232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="8:8">
       <c r="B426" s="4" t="s">
         <v>45</v>
       </c>
@@ -7396,7 +5240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="8:8">
       <c r="B427" s="4" t="s">
         <v>45</v>
       </c>
@@ -7404,7 +5248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="8:8">
       <c r="B428" s="4" t="s">
         <v>45</v>
       </c>
@@ -7412,7 +5256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="8:8">
       <c r="B429" s="4" t="s">
         <v>45</v>
       </c>
@@ -7420,7 +5264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="8:8">
       <c r="B430" s="4" t="s">
         <v>45</v>
       </c>
@@ -7428,7 +5272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="8:8">
       <c r="B431" s="4" t="s">
         <v>45</v>
       </c>
@@ -7436,7 +5280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="8:8">
       <c r="B432" s="4" t="s">
         <v>45</v>
       </c>
@@ -7444,7 +5288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="8:8">
       <c r="B433" s="4" t="s">
         <v>45</v>
       </c>
@@ -7452,7 +5296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="8:8">
       <c r="B434" s="4" t="s">
         <v>45</v>
       </c>
@@ -7460,7 +5304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="8:8">
       <c r="B435" s="4" t="s">
         <v>45</v>
       </c>
@@ -7468,7 +5312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="8:8">
       <c r="B436" s="4" t="s">
         <v>45</v>
       </c>
@@ -7476,7 +5320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="8:8">
       <c r="B437" s="4" t="s">
         <v>45</v>
       </c>
@@ -7484,7 +5328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="8:8">
       <c r="B438" s="4" t="s">
         <v>45</v>
       </c>
@@ -7492,7 +5336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="8:8">
       <c r="B439" s="4" t="s">
         <v>45</v>
       </c>
@@ -7500,7 +5344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="8:8">
       <c r="B440" s="4" t="s">
         <v>45</v>
       </c>
@@ -7508,7 +5352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="8:8">
       <c r="B441" s="4" t="s">
         <v>45</v>
       </c>
@@ -7516,7 +5360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="8:8">
       <c r="B442" s="4" t="s">
         <v>45</v>
       </c>
@@ -7524,7 +5368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="8:8">
       <c r="B443" s="4" t="s">
         <v>45</v>
       </c>
@@ -7532,7 +5376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="8:8">
       <c r="B444" s="4" t="s">
         <v>45</v>
       </c>
@@ -7540,7 +5384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="8:8">
       <c r="B445" s="4" t="s">
         <v>45</v>
       </c>
@@ -7548,7 +5392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="8:8">
       <c r="B446" s="4" t="s">
         <v>45</v>
       </c>
@@ -7556,7 +5400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="8:8">
       <c r="B447" s="4" t="s">
         <v>45</v>
       </c>
@@ -7564,7 +5408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="8:8">
       <c r="B448" s="4" t="s">
         <v>45</v>
       </c>
@@ -7572,7 +5416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="8:8">
       <c r="B449" s="4" t="s">
         <v>45</v>
       </c>
@@ -7580,7 +5424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="8:8">
       <c r="B450" s="4" t="s">
         <v>45</v>
       </c>
@@ -7588,7 +5432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="8:8">
       <c r="B451" s="4" t="s">
         <v>45</v>
       </c>
@@ -7596,7 +5440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="8:8">
       <c r="B452" s="4" t="s">
         <v>45</v>
       </c>
@@ -7604,7 +5448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="8:8">
       <c r="B453" s="4" t="s">
         <v>45</v>
       </c>
@@ -7612,7 +5456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="8:8">
       <c r="B454" s="4" t="s">
         <v>45</v>
       </c>
@@ -7620,7 +5464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="8:8">
       <c r="B455" s="4" t="s">
         <v>45</v>
       </c>
@@ -7628,7 +5472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="8:8">
       <c r="B456" s="4" t="s">
         <v>45</v>
       </c>
@@ -7636,7 +5480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="8:8">
       <c r="B457" s="4" t="s">
         <v>45</v>
       </c>
@@ -7644,7 +5488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="8:8">
       <c r="B458" s="4" t="s">
         <v>45</v>
       </c>
@@ -7652,7 +5496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="8:8">
       <c r="B459" s="4" t="s">
         <v>45</v>
       </c>
@@ -7660,7 +5504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="8:8">
       <c r="B460" s="4" t="s">
         <v>45</v>
       </c>
@@ -7668,7 +5512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="8:8">
       <c r="B461" s="4" t="s">
         <v>45</v>
       </c>
@@ -7676,7 +5520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="8:8">
       <c r="B462" s="4" t="s">
         <v>45</v>
       </c>
@@ -7684,7 +5528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="8:8">
       <c r="B463" s="4" t="s">
         <v>45</v>
       </c>
@@ -7692,7 +5536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="8:8">
       <c r="B464" s="4" t="s">
         <v>45</v>
       </c>
@@ -7700,7 +5544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="8:8">
       <c r="B465" s="4" t="s">
         <v>45</v>
       </c>
@@ -7708,7 +5552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="8:8">
       <c r="B466" s="4" t="s">
         <v>45</v>
       </c>
@@ -7716,7 +5560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="8:8">
       <c r="B467" s="4" t="s">
         <v>45</v>
       </c>
@@ -7724,7 +5568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="8:8">
       <c r="B468" s="4" t="s">
         <v>45</v>
       </c>
@@ -7732,7 +5576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="8:8">
       <c r="B469" s="4" t="s">
         <v>45</v>
       </c>
@@ -7740,7 +5584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="8:8">
       <c r="B470" s="4" t="s">
         <v>45</v>
       </c>
@@ -7748,7 +5592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="8:8">
       <c r="B471" s="4" t="s">
         <v>45</v>
       </c>
@@ -7756,7 +5600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="8:8">
       <c r="B472" s="4" t="s">
         <v>45</v>
       </c>
@@ -7764,7 +5608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="8:8">
       <c r="B473" s="4" t="s">
         <v>45</v>
       </c>
@@ -7772,7 +5616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="8:8">
       <c r="B474" s="4" t="s">
         <v>45</v>
       </c>
@@ -7780,7 +5624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="8:8">
       <c r="B475" s="4" t="s">
         <v>45</v>
       </c>
@@ -7788,7 +5632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="8:8">
       <c r="B476" s="4" t="s">
         <v>45</v>
       </c>
@@ -7796,7 +5640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="8:8">
       <c r="B477" s="4" t="s">
         <v>45</v>
       </c>
@@ -7804,7 +5648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="8:8">
       <c r="B478" s="4" t="s">
         <v>45</v>
       </c>
@@ -7812,7 +5656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="8:8">
       <c r="B479" s="4" t="s">
         <v>45</v>
       </c>
@@ -7820,7 +5664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="8:8">
       <c r="B480" s="4" t="s">
         <v>45</v>
       </c>
@@ -7828,7 +5672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="8:8">
       <c r="B481" s="4" t="s">
         <v>45</v>
       </c>
@@ -7836,7 +5680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="8:8">
       <c r="B482" s="4" t="s">
         <v>45</v>
       </c>
@@ -7844,7 +5688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="8:8">
       <c r="B483" s="4" t="s">
         <v>45</v>
       </c>
@@ -7852,7 +5696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="8:8">
       <c r="B484" s="4" t="s">
         <v>45</v>
       </c>
@@ -7860,7 +5704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="8:8">
       <c r="B485" s="4" t="s">
         <v>45</v>
       </c>
@@ -7868,7 +5712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="8:8">
       <c r="B486" s="4" t="s">
         <v>45</v>
       </c>
@@ -7876,7 +5720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="8:8">
       <c r="B487" s="4" t="s">
         <v>45</v>
       </c>
@@ -7884,7 +5728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="8:8">
       <c r="B488" s="4" t="s">
         <v>45</v>
       </c>
@@ -7892,7 +5736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="8:8">
       <c r="B489" s="4" t="s">
         <v>45</v>
       </c>
@@ -7900,7 +5744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="8:8">
       <c r="B490" s="4" t="s">
         <v>45</v>
       </c>
@@ -7908,7 +5752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="8:8">
       <c r="B491" s="4" t="s">
         <v>45</v>
       </c>
@@ -7916,7 +5760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="8:8">
       <c r="B492" s="4" t="s">
         <v>45</v>
       </c>
@@ -7924,7 +5768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="8:8">
       <c r="B493" s="4" t="s">
         <v>45</v>
       </c>
@@ -7932,7 +5776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="8:8">
       <c r="B494" s="4" t="s">
         <v>45</v>
       </c>
@@ -7940,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="8:8">
       <c r="B495" s="4" t="s">
         <v>45</v>
       </c>
@@ -7948,7 +5792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="8:8">
       <c r="B496" s="4" t="s">
         <v>45</v>
       </c>
@@ -7956,7 +5800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="8:8">
       <c r="B497" s="4" t="s">
         <v>45</v>
       </c>
@@ -7964,7 +5808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="8:8">
       <c r="B498" s="4" t="s">
         <v>45</v>
       </c>
@@ -7972,7 +5816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="8:8">
       <c r="B499" s="4" t="s">
         <v>45</v>
       </c>
@@ -7980,7 +5824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="8:8">
       <c r="B500" s="4" t="s">
         <v>45</v>
       </c>
@@ -7988,7 +5832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="8:8">
       <c r="B501" s="4" t="s">
         <v>45</v>
       </c>
@@ -7996,7 +5840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="8:8">
       <c r="B502" s="4" t="s">
         <v>45</v>
       </c>
@@ -8005,283 +5849,272 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D6:D502" type="list">
-      <formula1>Stammdaten!$A$11:$A$17</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B502" type="list">
-      <formula1>Stammdaten!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" display="https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371"/>
-    <hyperlink ref="E20" r:id="rId2" display="https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371"/>
-    <hyperlink ref="E21" r:id="rId3" display="https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371"/>
+    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId4"/>
-  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Stammdaten!$A$11:$A$17</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D6:D502</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Stammdaten!$A$4:$A$7</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B6:B502</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:A17"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView workbookViewId="0" zoomScale="90">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
+    <col min="1" max="1" customWidth="1" width="42.046875" style="0"/>
+    <col min="2" max="2" customWidth="1" width="36.621094" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="8:8" s="16" ht="15.0" customFormat="1">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="4" spans="8:8" s="16" ht="15.0" customFormat="1">
+      <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="8:8">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="8:8">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="8:8">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="11" spans="8:8">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="8:8">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="8:8">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="8:8">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="8:8">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="8:8">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:G9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView workbookViewId="0" zoomScale="90">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.63"/>
+    <col min="1" max="1" customWidth="1" width="36.992188" style="0"/>
+    <col min="2" max="2" customWidth="1" width="22.070312" style="0"/>
+    <col min="3" max="3" customWidth="1" width="12.082031" style="0"/>
+    <col min="4" max="4" customWidth="1" width="14.671875" style="0"/>
+    <col min="5" max="5" customWidth="1" width="9.371094" style="0"/>
+    <col min="6" max="6" customWidth="1" width="23.550781" style="0"/>
+    <col min="7" max="7" customWidth="1" width="26.632812" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="8:8">
+      <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="8:8">
+      <c r="A5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="n">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32">
         <v>0.677083333333332</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="32">
         <v>0.208333333333333</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="32">
         <v>0.260416666666667</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="n">
+      <c r="F6" s="33"/>
+      <c r="G6" s="34">
         <v>1.14583333333333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="8:8">
+      <c r="A7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="n">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32">
         <v>0.770833333333332</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="32">
         <v>0.947916666666668</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="32">
         <v>0.135416666666667</v>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="35">
         <v>0.34375</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="34">
         <v>2.19791666666667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="8:8">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="n">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37">
         <v>0.645833333333332</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="37">
         <v>0.135416666666667</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="37">
         <v>0.135416666666667</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="n">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39">
         <v>0.916666666666665</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="8:8">
+      <c r="A9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="n">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42">
         <v>2.09375</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="42">
         <v>1.29166666666667</v>
       </c>
-      <c r="E9" s="37" t="n">
+      <c r="E9" s="42">
         <v>0.53125</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="43">
         <v>0.34375</v>
       </c>
-      <c r="G9" s="39" t="n">
+      <c r="G9" s="44">
         <v>4.26041666666666</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38C0263-62AB-462B-9C99-413C98682E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96D0AC-EE42-A645-8BDE-DBE33D38C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="3864" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="52">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -203,7 +203,7 @@
     <numFmt numFmtId="165" formatCode="[$-407]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-407]hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3250,7 +3250,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="3864" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -3308,7 +3308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3607,31 +3607,31 @@
   <dimension ref="A3:F502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
-    <col min="6" max="6" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.52734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5078125" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" customWidth="1"/>
+    <col min="5" max="5" width="57.33984375" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C302)</f>
-        <v>4.5104166666666643</v>
+        <v>4.6354166666666643</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44839</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44839</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44839</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44853</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44853</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44862</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44862</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44862</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44867</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44867</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44867</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44873</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44881</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44881</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44881</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44881</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44883</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44885</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44888</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44889</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44890</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44890</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44890</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44890</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44892</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44892</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44893</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>44894</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44895</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44895</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>44895</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>44895</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>44895</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>44896</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44896</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44896</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44899</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44900</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44909</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>44909</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>44909</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>44909</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>44936</v>
       </c>
@@ -4470,16 +4470,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>44971</v>
+      </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.125</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>46</v>
@@ -4488,7 +4496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>46</v>
@@ -4497,7 +4505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>46</v>
@@ -4506,7 +4514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>46</v>
@@ -4515,7 +4523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>46</v>
@@ -4524,7 +4532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>46</v>
@@ -4533,7 +4541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>46</v>
@@ -4542,7 +4550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>46</v>
@@ -4551,7 +4559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>46</v>
@@ -4560,7 +4568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>46</v>
@@ -4569,7 +4577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>46</v>
@@ -4578,7 +4586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>46</v>
@@ -4587,7 +4595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>46</v>
@@ -4596,7 +4604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>46</v>
@@ -4605,7 +4613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>46</v>
@@ -4614,7 +4622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>46</v>
@@ -4623,7 +4631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>46</v>
@@ -4632,7 +4640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>46</v>
@@ -4641,7 +4649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>46</v>
@@ -4650,7 +4658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>46</v>
@@ -4659,7 +4667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>46</v>
@@ -4668,7 +4676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>46</v>
@@ -4677,7 +4685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>46</v>
@@ -4686,7 +4694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>46</v>
@@ -4695,7 +4703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>46</v>
@@ -4704,7 +4712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>46</v>
@@ -4713,7 +4721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>46</v>
@@ -4722,7 +4730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>46</v>
@@ -4731,7 +4739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>46</v>
@@ -4740,7 +4748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>46</v>
@@ -4749,7 +4757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>46</v>
@@ -4758,7 +4766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>46</v>
@@ -4767,7 +4775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>46</v>
@@ -4776,7 +4784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>46</v>
@@ -4785,7 +4793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>46</v>
@@ -4794,7 +4802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>46</v>
@@ -4803,7 +4811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>46</v>
@@ -4812,7 +4820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>46</v>
@@ -4821,7 +4829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>46</v>
@@ -4830,7 +4838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>46</v>
@@ -4839,7 +4847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>46</v>
@@ -4848,7 +4856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>46</v>
@@ -4857,7 +4865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>46</v>
@@ -4866,7 +4874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>46</v>
@@ -4875,7 +4883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>46</v>
@@ -4884,7 +4892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>46</v>
@@ -4893,7 +4901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>46</v>
@@ -4902,7 +4910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>46</v>
@@ -4911,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>46</v>
@@ -4920,7 +4928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>46</v>
@@ -4929,7 +4937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>46</v>
@@ -4938,7 +4946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>46</v>
@@ -4947,7 +4955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>46</v>
@@ -4956,7 +4964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>46</v>
@@ -4965,7 +4973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>46</v>
@@ -4974,7 +4982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>46</v>
@@ -4983,7 +4991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>46</v>
@@ -4992,7 +5000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>46</v>
@@ -5001,7 +5009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>46</v>
@@ -5010,7 +5018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>46</v>
@@ -5019,7 +5027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>46</v>
@@ -5028,7 +5036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -5037,7 +5045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>46</v>
@@ -5046,7 +5054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>46</v>
@@ -5055,7 +5063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>46</v>
@@ -5064,7 +5072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>46</v>
@@ -5073,7 +5081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>46</v>
@@ -5082,7 +5090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>46</v>
@@ -5091,7 +5099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>46</v>
@@ -5100,7 +5108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>46</v>
@@ -5109,7 +5117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>46</v>
@@ -5118,7 +5126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
         <v>46</v>
@@ -5127,7 +5135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>46</v>
@@ -5136,7 +5144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>46</v>
@@ -5145,7 +5153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>46</v>
@@ -5154,7 +5162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>46</v>
@@ -5163,7 +5171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>46</v>
@@ -5172,7 +5180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>46</v>
@@ -5181,7 +5189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>46</v>
@@ -5190,7 +5198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>46</v>
@@ -5199,7 +5207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
         <v>46</v>
@@ -5208,7 +5216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
         <v>46</v>
@@ -5217,7 +5225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
         <v>46</v>
@@ -5226,7 +5234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
         <v>46</v>
@@ -5235,7 +5243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>46</v>
@@ -5244,7 +5252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
         <v>46</v>
@@ -5253,7 +5261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>46</v>
@@ -5262,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>46</v>
@@ -5271,7 +5279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>46</v>
@@ -5280,7 +5288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>46</v>
@@ -5289,7 +5297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>46</v>
@@ -5298,7 +5306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
         <v>46</v>
@@ -5307,7 +5315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>46</v>
@@ -5316,7 +5324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
         <v>46</v>
@@ -5325,7 +5333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
         <v>46</v>
@@ -5334,7 +5342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
         <v>46</v>
@@ -5343,7 +5351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>46</v>
@@ -5352,7 +5360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>46</v>
@@ -5361,7 +5369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
         <v>46</v>
@@ -5370,7 +5378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>46</v>
@@ -5379,7 +5387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>46</v>
@@ -5388,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>46</v>
@@ -5397,7 +5405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>46</v>
@@ -5406,7 +5414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>46</v>
@@ -5415,7 +5423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>46</v>
@@ -5424,7 +5432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>46</v>
@@ -5433,7 +5441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>46</v>
@@ -5442,7 +5450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>46</v>
@@ -5451,7 +5459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>46</v>
@@ -5460,7 +5468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
         <v>46</v>
@@ -5469,7 +5477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>46</v>
@@ -5478,7 +5486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>46</v>
@@ -5487,7 +5495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>46</v>
@@ -5496,7 +5504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>46</v>
@@ -5505,7 +5513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>46</v>
@@ -5514,7 +5522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
         <v>46</v>
@@ -5523,7 +5531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
         <v>46</v>
@@ -5532,7 +5540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>46</v>
@@ -5541,7 +5549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>46</v>
@@ -5550,7 +5558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>46</v>
@@ -5559,7 +5567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
         <v>46</v>
@@ -5568,7 +5576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>46</v>
@@ -5577,7 +5585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
         <v>46</v>
@@ -5586,7 +5594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
         <v>46</v>
@@ -5595,7 +5603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
         <v>46</v>
@@ -5604,7 +5612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>46</v>
@@ -5613,7 +5621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>46</v>
@@ -5622,7 +5630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>46</v>
@@ -5631,7 +5639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
         <v>46</v>
@@ -5640,7 +5648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>46</v>
@@ -5649,7 +5657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>46</v>
@@ -5658,7 +5666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
         <v>46</v>
@@ -5667,7 +5675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
         <v>46</v>
@@ -5676,7 +5684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
         <v>46</v>
@@ -5685,7 +5693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
         <v>46</v>
@@ -5694,7 +5702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
         <v>46</v>
@@ -5703,7 +5711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
         <v>46</v>
@@ -5712,7 +5720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
         <v>46</v>
@@ -5721,7 +5729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
         <v>46</v>
@@ -5730,7 +5738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
         <v>46</v>
@@ -5739,7 +5747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
         <v>46</v>
@@ -5748,7 +5756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
         <v>46</v>
@@ -5757,7 +5765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>46</v>
@@ -5766,7 +5774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
         <v>46</v>
@@ -5775,7 +5783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
         <v>46</v>
@@ -5784,7 +5792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
         <v>46</v>
@@ -5793,7 +5801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
         <v>46</v>
@@ -5802,7 +5810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
         <v>46</v>
@@ -5811,7 +5819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>46</v>
@@ -5820,7 +5828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
         <v>46</v>
@@ -5829,7 +5837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
         <v>46</v>
@@ -5838,7 +5846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
         <v>46</v>
@@ -5847,7 +5855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
         <v>46</v>
@@ -5856,7 +5864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
         <v>46</v>
@@ -5865,7 +5873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>46</v>
@@ -5874,7 +5882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
         <v>46</v>
@@ -5883,7 +5891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
         <v>46</v>
@@ -5892,7 +5900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
         <v>46</v>
@@ -5901,7 +5909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
         <v>46</v>
@@ -5910,7 +5918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
         <v>46</v>
@@ -5919,7 +5927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
         <v>46</v>
@@ -5928,7 +5936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
         <v>46</v>
@@ -5937,7 +5945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
         <v>46</v>
@@ -5946,7 +5954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
         <v>46</v>
@@ -5955,7 +5963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
         <v>46</v>
@@ -5964,7 +5972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
         <v>46</v>
@@ -5973,7 +5981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
         <v>46</v>
@@ -5982,7 +5990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
         <v>46</v>
@@ -5991,7 +5999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
         <v>46</v>
@@ -6000,7 +6008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
         <v>46</v>
@@ -6009,7 +6017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
         <v>46</v>
@@ -6018,7 +6026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
         <v>46</v>
@@ -6027,7 +6035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
         <v>46</v>
@@ -6036,7 +6044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
         <v>46</v>
@@ -6045,7 +6053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
         <v>46</v>
@@ -6054,7 +6062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
         <v>46</v>
@@ -6063,7 +6071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>46</v>
@@ -6072,7 +6080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
         <v>46</v>
@@ -6081,7 +6089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
         <v>46</v>
@@ -6090,7 +6098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>46</v>
@@ -6099,7 +6107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>46</v>
@@ -6108,7 +6116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>46</v>
@@ -6117,7 +6125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>46</v>
@@ -6126,7 +6134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>46</v>
@@ -6135,7 +6143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>46</v>
@@ -6144,7 +6152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>46</v>
@@ -6153,7 +6161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>46</v>
@@ -6162,7 +6170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>46</v>
@@ -6171,7 +6179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>46</v>
@@ -6180,7 +6188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>46</v>
@@ -6189,7 +6197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>46</v>
@@ -6198,7 +6206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
         <v>46</v>
@@ -6207,7 +6215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
         <v>46</v>
@@ -6216,7 +6224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
         <v>46</v>
@@ -6225,7 +6233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
         <v>46</v>
@@ -6234,7 +6242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
         <v>46</v>
@@ -6243,7 +6251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
         <v>46</v>
@@ -6252,7 +6260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
         <v>46</v>
@@ -6261,7 +6269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
         <v>46</v>
@@ -6270,7 +6278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
         <v>46</v>
@@ -6279,7 +6287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>46</v>
@@ -6288,7 +6296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
         <v>46</v>
@@ -6297,7 +6305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
         <v>46</v>
@@ -6306,7 +6314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
         <v>46</v>
@@ -6315,7 +6323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
         <v>46</v>
@@ -6324,7 +6332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
         <v>46</v>
@@ -6333,7 +6341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
         <v>46</v>
@@ -6342,7 +6350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
         <v>46</v>
@@ -6351,7 +6359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>46</v>
@@ -6360,7 +6368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>46</v>
@@ -6369,7 +6377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>46</v>
@@ -6378,7 +6386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>46</v>
@@ -6387,7 +6395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>46</v>
@@ -6396,7 +6404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>46</v>
@@ -6405,7 +6413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>46</v>
@@ -6414,7 +6422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>46</v>
@@ -6423,7 +6431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
         <v>46</v>
@@ -6432,7 +6440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
         <v>46</v>
@@ -6441,7 +6449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
         <v>46</v>
@@ -6450,7 +6458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
         <v>46</v>
@@ -6459,7 +6467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
         <v>46</v>
@@ -6468,7 +6476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
         <v>46</v>
@@ -6477,7 +6485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
         <v>46</v>
@@ -6486,7 +6494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
         <v>46</v>
@@ -6495,7 +6503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
         <v>46</v>
@@ -6504,7 +6512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
         <v>46</v>
@@ -6513,7 +6521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
         <v>46</v>
@@ -6522,7 +6530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
         <v>46</v>
@@ -6531,7 +6539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
         <v>46</v>
@@ -6540,7 +6548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
         <v>46</v>
@@ -6549,7 +6557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
         <v>46</v>
@@ -6558,7 +6566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
         <v>46</v>
@@ -6567,7 +6575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
         <v>46</v>
@@ -6576,7 +6584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
         <v>46</v>
@@ -6585,7 +6593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>46</v>
@@ -6594,7 +6602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>46</v>
@@ -6603,7 +6611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
         <v>46</v>
@@ -6612,7 +6620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
         <v>46</v>
@@ -6621,7 +6629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>46</v>
@@ -6630,7 +6638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>46</v>
@@ -6639,7 +6647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>46</v>
@@ -6648,7 +6656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>46</v>
@@ -6657,7 +6665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
         <v>46</v>
@@ -6666,7 +6674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
         <v>46</v>
@@ -6675,7 +6683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
         <v>46</v>
@@ -6684,7 +6692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
         <v>46</v>
@@ -6693,7 +6701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
         <v>46</v>
@@ -6702,7 +6710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>46</v>
@@ -6711,7 +6719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" t="s">
         <v>46</v>
@@ -6720,7 +6728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>46</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>46</v>
       </c>
@@ -6736,7 +6744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>46</v>
       </c>
@@ -6744,7 +6752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="2:4">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>46</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>46</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>46</v>
       </c>
@@ -6768,7 +6776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>46</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>46</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>46</v>
       </c>
@@ -6792,7 +6800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="2:4">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>46</v>
       </c>
@@ -6808,7 +6816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="2:4">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>46</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="2:4">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>46</v>
       </c>
@@ -6824,7 +6832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>46</v>
       </c>
@@ -6832,7 +6840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>46</v>
       </c>
@@ -6840,7 +6848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>46</v>
       </c>
@@ -6848,7 +6856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="2:4">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>46</v>
       </c>
@@ -6856,7 +6864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="2:4">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>46</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="2:4">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>46</v>
       </c>
@@ -6872,7 +6880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="323" spans="2:4">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>46</v>
       </c>
@@ -6880,7 +6888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="2:4">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>46</v>
       </c>
@@ -6888,7 +6896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="2:4">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>46</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="2:4">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>46</v>
       </c>
@@ -6904,7 +6912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="2:4">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>46</v>
       </c>
@@ -6912,7 +6920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="328" spans="2:4">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>46</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="2:4">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>46</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="2:4">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>46</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="2:4">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>46</v>
       </c>
@@ -6944,7 +6952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="2:4">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>46</v>
       </c>
@@ -6952,7 +6960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="2:4">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>46</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="2:4">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>46</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="2:4">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>46</v>
       </c>
@@ -6976,7 +6984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="2:4">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>46</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>46</v>
       </c>
@@ -6992,7 +7000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>46</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>46</v>
       </c>
@@ -7008,7 +7016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>46</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>46</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="2:4">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>46</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="343" spans="2:4">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>46</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="2:4">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>46</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>46</v>
       </c>
@@ -7056,7 +7064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>46</v>
       </c>
@@ -7064,7 +7072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>46</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="2:4">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>46</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>46</v>
       </c>
@@ -7088,7 +7096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>46</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="2:4">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>46</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="2:4">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>46</v>
       </c>
@@ -7112,7 +7120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="353" spans="2:4">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>46</v>
       </c>
@@ -7120,7 +7128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="354" spans="2:4">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>46</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="2:4">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>46</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="356" spans="2:4">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>46</v>
       </c>
@@ -7144,7 +7152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="2:4">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>46</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="358" spans="2:4">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>46</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="359" spans="2:4">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>46</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="360" spans="2:4">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>46</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="361" spans="2:4">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>46</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="2:4">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>46</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="363" spans="2:4">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>46</v>
       </c>
@@ -7200,7 +7208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="364" spans="2:4">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>46</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="365" spans="2:4">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>46</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="2:4">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>46</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="2:4">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>46</v>
       </c>
@@ -7232,7 +7240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="2:4">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>46</v>
       </c>
@@ -7240,7 +7248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="369" spans="2:4">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>46</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="2:4">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>46</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="371" spans="2:4">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>46</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="372" spans="2:4">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>46</v>
       </c>
@@ -7272,7 +7280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="373" spans="2:4">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>46</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="2:4">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>46</v>
       </c>
@@ -7288,7 +7296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="375" spans="2:4">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>46</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="376" spans="2:4">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>46</v>
       </c>
@@ -7304,7 +7312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="377" spans="2:4">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>46</v>
       </c>
@@ -7312,7 +7320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>46</v>
       </c>
@@ -7320,7 +7328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="379" spans="2:4">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>46</v>
       </c>
@@ -7328,7 +7336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="2:4">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>46</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="381" spans="2:4">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>46</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="382" spans="2:4">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>46</v>
       </c>
@@ -7352,7 +7360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="383" spans="2:4">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>46</v>
       </c>
@@ -7360,7 +7368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="384" spans="2:4">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>46</v>
       </c>
@@ -7368,7 +7376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="385" spans="2:4">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>46</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="386" spans="2:4">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>46</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="387" spans="2:4">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>46</v>
       </c>
@@ -7392,7 +7400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="388" spans="2:4">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>46</v>
       </c>
@@ -7400,7 +7408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" spans="2:4">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>46</v>
       </c>
@@ -7408,7 +7416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="390" spans="2:4">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>46</v>
       </c>
@@ -7416,7 +7424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="2:4">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>46</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="392" spans="2:4">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>46</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="2:4">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>46</v>
       </c>
@@ -7440,7 +7448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="394" spans="2:4">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>46</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="395" spans="2:4">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>46</v>
       </c>
@@ -7456,7 +7464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="2:4">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>46</v>
       </c>
@@ -7464,7 +7472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="2:4">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>46</v>
       </c>
@@ -7472,7 +7480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="398" spans="2:4">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>46</v>
       </c>
@@ -7480,7 +7488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="399" spans="2:4">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>46</v>
       </c>
@@ -7488,7 +7496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="2:4">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>46</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="401" spans="2:4">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>46</v>
       </c>
@@ -7504,7 +7512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="402" spans="2:4">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>46</v>
       </c>
@@ -7512,7 +7520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="403" spans="2:4">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>46</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="404" spans="2:4">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>46</v>
       </c>
@@ -7528,7 +7536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="405" spans="2:4">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>46</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="406" spans="2:4">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>46</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="407" spans="2:4">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>46</v>
       </c>
@@ -7552,7 +7560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="408" spans="2:4">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>46</v>
       </c>
@@ -7560,7 +7568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="409" spans="2:4">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>46</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="410" spans="2:4">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>46</v>
       </c>
@@ -7576,7 +7584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="411" spans="2:4">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>46</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="412" spans="2:4">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>46</v>
       </c>
@@ -7592,7 +7600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="413" spans="2:4">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>46</v>
       </c>
@@ -7600,7 +7608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="414" spans="2:4">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>46</v>
       </c>
@@ -7608,7 +7616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="415" spans="2:4">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>46</v>
       </c>
@@ -7616,7 +7624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="416" spans="2:4">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>46</v>
       </c>
@@ -7624,7 +7632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="417" spans="2:4">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>46</v>
       </c>
@@ -7632,7 +7640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="418" spans="2:4">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>46</v>
       </c>
@@ -7640,7 +7648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="419" spans="2:4">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>46</v>
       </c>
@@ -7648,7 +7656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="420" spans="2:4">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>46</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="421" spans="2:4">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>46</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="422" spans="2:4">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>46</v>
       </c>
@@ -7672,7 +7680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" spans="2:4">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>46</v>
       </c>
@@ -7680,7 +7688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="424" spans="2:4">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>46</v>
       </c>
@@ -7688,7 +7696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="425" spans="2:4">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>46</v>
       </c>
@@ -7696,7 +7704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="2:4">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>46</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" spans="2:4">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>46</v>
       </c>
@@ -7712,7 +7720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="428" spans="2:4">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>46</v>
       </c>
@@ -7720,7 +7728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="429" spans="2:4">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>46</v>
       </c>
@@ -7728,7 +7736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="430" spans="2:4">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>46</v>
       </c>
@@ -7736,7 +7744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="2:4">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>46</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="432" spans="2:4">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>46</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="433" spans="2:4">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>46</v>
       </c>
@@ -7760,7 +7768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="434" spans="2:4">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>46</v>
       </c>
@@ -7768,7 +7776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="435" spans="2:4">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>46</v>
       </c>
@@ -7776,7 +7784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="436" spans="2:4">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>46</v>
       </c>
@@ -7784,7 +7792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="437" spans="2:4">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>46</v>
       </c>
@@ -7792,7 +7800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="438" spans="2:4">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>46</v>
       </c>
@@ -7800,7 +7808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="439" spans="2:4">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>46</v>
       </c>
@@ -7808,7 +7816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="440" spans="2:4">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>46</v>
       </c>
@@ -7816,7 +7824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="441" spans="2:4">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>46</v>
       </c>
@@ -7824,7 +7832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="442" spans="2:4">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>46</v>
       </c>
@@ -7832,7 +7840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" spans="2:4">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>46</v>
       </c>
@@ -7840,7 +7848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="444" spans="2:4">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>46</v>
       </c>
@@ -7848,7 +7856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="2:4">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>46</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" spans="2:4">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>46</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" spans="2:4">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>46</v>
       </c>
@@ -7872,7 +7880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="2:4">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>46</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="2:4">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>46</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>46</v>
       </c>
@@ -7896,7 +7904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>46</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="452" spans="2:4">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>46</v>
       </c>
@@ -7912,7 +7920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>46</v>
       </c>
@@ -7920,7 +7928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="454" spans="2:4">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>46</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="455" spans="2:4">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>46</v>
       </c>
@@ -7936,7 +7944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="456" spans="2:4">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>46</v>
       </c>
@@ -7944,7 +7952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="457" spans="2:4">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>46</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>46</v>
       </c>
@@ -7960,7 +7968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="459" spans="2:4">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>46</v>
       </c>
@@ -7968,7 +7976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>46</v>
       </c>
@@ -7984,7 +7992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>46</v>
       </c>
@@ -7992,7 +8000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>46</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="464" spans="2:4">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>46</v>
       </c>
@@ -8008,7 +8016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="465" spans="2:4">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>46</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="466" spans="2:4">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>46</v>
       </c>
@@ -8024,7 +8032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="467" spans="2:4">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>46</v>
       </c>
@@ -8032,7 +8040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="468" spans="2:4">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>46</v>
       </c>
@@ -8040,7 +8048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="469" spans="2:4">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>46</v>
       </c>
@@ -8048,7 +8056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="470" spans="2:4">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>46</v>
       </c>
@@ -8056,7 +8064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="471" spans="2:4">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>46</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="472" spans="2:4">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>46</v>
       </c>
@@ -8072,7 +8080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" spans="2:4">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>46</v>
       </c>
@@ -8080,7 +8088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="474" spans="2:4">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>46</v>
       </c>
@@ -8088,7 +8096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="475" spans="2:4">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>46</v>
       </c>
@@ -8096,7 +8104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="476" spans="2:4">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>46</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="477" spans="2:4">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>46</v>
       </c>
@@ -8112,7 +8120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="478" spans="2:4">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>46</v>
       </c>
@@ -8120,7 +8128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="479" spans="2:4">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>46</v>
       </c>
@@ -8128,7 +8136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="480" spans="2:4">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>46</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="481" spans="2:4">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>46</v>
       </c>
@@ -8144,7 +8152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="482" spans="2:4">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>46</v>
       </c>
@@ -8152,7 +8160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="483" spans="2:4">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>46</v>
       </c>
@@ -8160,7 +8168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="484" spans="2:4">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>46</v>
       </c>
@@ -8168,7 +8176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="485" spans="2:4">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>46</v>
       </c>
@@ -8176,7 +8184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="486" spans="2:4">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>46</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="487" spans="2:4">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>46</v>
       </c>
@@ -8192,7 +8200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="488" spans="2:4">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>46</v>
       </c>
@@ -8200,7 +8208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="489" spans="2:4">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>46</v>
       </c>
@@ -8208,7 +8216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="490" spans="2:4">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>46</v>
       </c>
@@ -8216,7 +8224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="491" spans="2:4">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>46</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="492" spans="2:4">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>46</v>
       </c>
@@ -8232,7 +8240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="493" spans="2:4">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>46</v>
       </c>
@@ -8240,7 +8248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="494" spans="2:4">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>46</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="495" spans="2:4">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>46</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="496" spans="2:4">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>46</v>
       </c>
@@ -8264,7 +8272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="497" spans="2:4">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>46</v>
       </c>
@@ -8272,7 +8280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="2:4">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>46</v>
       </c>
@@ -8280,7 +8288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="499" spans="2:4">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>46</v>
       </c>
@@ -8288,7 +8296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="500" spans="2:4">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>46</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="501" spans="2:4">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>46</v>
       </c>
@@ -8304,7 +8312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="502" spans="2:4">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>46</v>
       </c>
@@ -8358,73 +8366,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="42.046875" customWidth="1"/>
+    <col min="2" max="2" width="36.62109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="9" customFormat="1">
+    <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1">
+    <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -8443,18 +8451,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="36.9921875" customWidth="1"/>
+    <col min="2" max="2" width="22.0703125" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.671875" customWidth="1"/>
+    <col min="5" max="5" width="9.37109375" customWidth="1"/>
+    <col min="6" max="6" width="23.55078125" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
@@ -8467,7 +8475,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -8490,7 +8498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>46</v>
       </c>
@@ -8501,7 +8509,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8528,7 @@
         <v>1.1458333333333299</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>2.1979166666666701</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
@@ -8560,7 +8568,7 @@
         <v>0.91666666666666496</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>51</v>
       </c>

--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -1,42 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96D0AC-EE42-A645-8BDE-DBE33D38C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
     <sheet name="Analyse" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56" count="56">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -193,54 +172,68 @@
   <si>
     <t>Summe Ergebnis</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ablaufdiagramm </t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Vorlesung</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="14" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="20" formatCode="hh:mm"/>
     <numFmt numFmtId="165" formatCode="[$-407]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-407]hh:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <charset val="1"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <charset val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,29 +254,29 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,49 +284,49 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -342,45 +335,45 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -389,7 +382,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -397,33 +390,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -431,7 +424,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -441,7 +434,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -449,10 +442,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -461,52 +454,52 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,180 +507,263 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="7" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="7" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="7" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="6" applyBorder="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="23" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Pivot-Tabelle Ecke" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Pivot-Tabelle Feld" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Pivot-Tabelle Kategorie" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Pivot-Tabelle Titel" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Pivot-Tabelle Wert" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1"/>
+    <cellStyle name="Pivot-Tabelle Ecke" xfId="2"/>
+    <cellStyle name="Pivot-Tabelle Feld" xfId="3"/>
+    <cellStyle name="Pivot-Tabelle Kategorie" xfId="4"/>
+    <cellStyle name="Pivot-Tabelle Titel" xfId="5"/>
+    <cellStyle name="Pivot-Tabelle Wert" xfId="6"/>
+    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000563C1"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -698,2613 +774,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedDate="0" createdVersion="3" recordCount="497" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B5:D502" sheet="Zeiterfassung"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Person" numFmtId="0">
-      <sharedItems count="4">
-        <s v="(bitte auswählen)"/>
-        <s v="Felicitas"/>
-        <s v="Justin"/>
-        <s v="Niklas"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Dauer" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0416666666666701E-2" maxValue="0.22916666666666699" count="14">
-        <n v="1.0416666666666701E-2"/>
-        <n v="3.125E-2"/>
-        <n v="4.1666666666666699E-2"/>
-        <n v="5.2083333333333301E-2"/>
-        <n v="6.25E-2"/>
-        <n v="7.2916666666666699E-2"/>
-        <n v="8.3333333333333301E-2"/>
-        <n v="9.375E-2"/>
-        <n v="0.104166666666667"/>
-        <n v="0.114583333333333"/>
-        <n v="0.125"/>
-        <n v="0.19791666666666699"/>
-        <n v="0.22916666666666699"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Kategorie" numFmtId="0">
-      <sharedItems count="5">
-        <s v="(bitte auswählen)"/>
-        <s v="Dokumentation"/>
-        <s v="Projektarbeit - Implementierung"/>
-        <s v="Projektarbeit - Konzeption"/>
-        <s v="Vorlesung"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="497">
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
-  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <dataFields count="1">
-    <dataField name="Summe von Dauer" fld="1" baseField="0" baseItem="0" numFmtId="20"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A5:F502" totalsRowShown="0">
-  <autoFilter ref="A5:F502" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Person"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dauer"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kategorie"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tätigkeitsbeschreibung / Bemerkung"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ggfs. Zuordnung zu User Story / Ticket"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3594,44 +1064,40 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F502"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90">
+      <pane ySplit="5" topLeftCell="A31" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.52734375" customWidth="1"/>
-    <col min="3" max="3" width="17.5078125" customWidth="1"/>
-    <col min="4" max="4" width="39.953125" customWidth="1"/>
-    <col min="5" max="5" width="57.33984375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="14.425781" style="0"/>
+    <col min="2" max="2" customWidth="1" width="43.527344" style="0"/>
+    <col min="3" max="3" customWidth="1" width="17.507812" style="0"/>
+    <col min="4" max="4" customWidth="1" width="39.953125" style="0"/>
+    <col min="5" max="5" customWidth="1" width="57.339844" style="0"/>
+    <col min="6" max="6" customWidth="1" width="46.85547" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:8" s="1" ht="21.0" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C302)</f>
-        <v>4.6354166666666643</v>
+        <v>4.73958333333333</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:8" s="1" ht="21.0" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3651,9 +1117,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:8">
       <c r="A6" s="3">
-        <v>44839</v>
+        <v>44839.0</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3671,9 +1137,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:8">
       <c r="A7" s="3">
-        <v>44839</v>
+        <v>44839.0</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3688,9 +1154,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:8">
       <c r="A8" s="3">
-        <v>44839</v>
+        <v>44839.0</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -3705,9 +1171,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:8">
       <c r="A9" s="3">
-        <v>44853</v>
+        <v>44853.0</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -3722,9 +1188,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:8">
       <c r="A10" s="3">
-        <v>44853</v>
+        <v>44853.0</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3739,9 +1205,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:8">
       <c r="A11" s="3">
-        <v>44853</v>
+        <v>44853.0</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -3756,9 +1222,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:8">
       <c r="A12" s="3">
-        <v>44862</v>
+        <v>44862.0</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -3773,9 +1239,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:8">
       <c r="A13" s="3">
-        <v>44862</v>
+        <v>44862.0</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3790,9 +1256,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:8">
       <c r="A14" s="3">
-        <v>44862</v>
+        <v>44862.0</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -3807,9 +1273,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="A15" s="3">
-        <v>44867</v>
+        <v>44867.0</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -3824,9 +1290,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="A16" s="3">
-        <v>44867</v>
+        <v>44867.0</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3841,9 +1307,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8">
       <c r="A17" s="3">
-        <v>44867</v>
+        <v>44867.0</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -3858,15 +1324,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8">
       <c r="A18" s="3">
-        <v>44873</v>
+        <v>44873.0</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -3875,15 +1341,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8">
       <c r="A19" s="3">
-        <v>44881</v>
+        <v>44881.0</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -3892,15 +1358,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8">
       <c r="A20" s="3">
-        <v>44881</v>
+        <v>44881.0</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -3909,15 +1375,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:8">
       <c r="A21" s="3">
-        <v>44881</v>
+        <v>44881.0</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -3926,15 +1392,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:8">
       <c r="A22" s="3">
-        <v>44881</v>
+        <v>44881.0</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
@@ -3943,9 +1409,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:8">
       <c r="A23" s="3">
-        <v>44883</v>
+        <v>44883.0</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3960,15 +1426,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:8">
       <c r="A24" s="3">
-        <v>44885</v>
+        <v>44885.0</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -3977,15 +1443,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:8">
       <c r="A25" s="3">
-        <v>44888</v>
+        <v>44888.0</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
@@ -3994,15 +1460,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:8">
       <c r="A26" s="3">
-        <v>44888</v>
+        <v>44888.0</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>8</v>
@@ -4011,15 +1477,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:8">
       <c r="A27" s="3">
-        <v>44888</v>
+        <v>44888.0</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="4">
-        <v>0.22916666666666699</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -4028,15 +1494,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:8">
       <c r="A28" s="3">
-        <v>44889</v>
+        <v>44889.0</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -4045,15 +1511,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:8">
       <c r="A29" s="3">
-        <v>44890</v>
+        <v>44890.0</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -4062,15 +1528,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:8">
       <c r="A30" s="3">
-        <v>44890</v>
+        <v>44890.0</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4">
-        <v>4.1666666666666699E-2</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -4079,15 +1545,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:8">
       <c r="A31" s="3">
-        <v>44890</v>
+        <v>44890.0</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="4">
-        <v>1.0416666666666701E-2</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -4096,15 +1562,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="8:8">
       <c r="A32" s="3">
-        <v>44890</v>
+        <v>44890.0</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4">
-        <v>0.19791666666666699</v>
+        <v>0.197916666666667</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
@@ -4113,15 +1579,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8">
       <c r="A33" s="3">
-        <v>44892</v>
+        <v>44892.0</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -4130,15 +1596,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8">
       <c r="A34" s="3">
-        <v>44892</v>
+        <v>44892.0</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -4147,15 +1613,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8">
       <c r="A35" s="3">
-        <v>44893</v>
+        <v>44893.0</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="4">
-        <v>7.2916666666666699E-2</v>
+        <v>0.0729166666666667</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -4164,15 +1630,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8">
       <c r="A36" s="3">
-        <v>44894</v>
+        <v>44894.0</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -4181,15 +1647,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8">
       <c r="A37" s="3">
-        <v>44894</v>
+        <v>44894.0</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>29</v>
@@ -4198,15 +1664,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8">
       <c r="A38" s="3">
-        <v>44894</v>
+        <v>44894.0</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="4">
-        <v>4.1666666666666699E-2</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
@@ -4215,15 +1681,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:8">
       <c r="A39" s="3">
-        <v>44895</v>
+        <v>44895.0</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
@@ -4232,15 +1698,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:8">
       <c r="A40" s="3">
-        <v>44895</v>
+        <v>44895.0</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>8</v>
@@ -4249,15 +1715,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:8">
       <c r="A41" s="3">
-        <v>44895</v>
+        <v>44895.0</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="4">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>8</v>
@@ -4266,15 +1732,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:8">
       <c r="A42" s="3">
-        <v>44895</v>
+        <v>44895.0</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
@@ -4283,9 +1749,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:8">
       <c r="A43" s="6">
-        <v>44895</v>
+        <v>44895.0</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -4300,15 +1766,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:8">
       <c r="A44" s="3">
-        <v>44896</v>
+        <v>44896.0</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="4">
-        <v>5.2083333333333301E-2</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>18</v>
@@ -4317,15 +1783,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:8">
       <c r="A45" s="3">
-        <v>44896</v>
+        <v>44896.0</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="4">
-        <v>5.2083333333333301E-2</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -4334,15 +1800,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:8">
       <c r="A46" s="3">
-        <v>44896</v>
+        <v>44896.0</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="4">
-        <v>5.2083333333333301E-2</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>18</v>
@@ -4351,15 +1817,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:8">
       <c r="A47" s="3">
-        <v>44899</v>
+        <v>44899.0</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="4">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -4368,9 +1834,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:8">
       <c r="A48" s="3">
-        <v>44900</v>
+        <v>44900.0</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4385,15 +1851,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8">
       <c r="A49" s="3">
-        <v>44909</v>
+        <v>44909.0</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4">
-        <v>8.3333333333333301E-2</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>16</v>
@@ -4402,9 +1868,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="A50" s="3">
-        <v>44909</v>
+        <v>44909.0</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4419,9 +1885,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8">
       <c r="A51" s="3">
-        <v>44909</v>
+        <v>44909.0</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -4436,9 +1902,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8">
       <c r="A52" s="3">
-        <v>44909</v>
+        <v>44909.0</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -4453,9 +1919,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8">
       <c r="A53" s="3">
-        <v>44936</v>
+        <v>44936.0</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -4470,9 +1936,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8">
       <c r="A54" s="3">
-        <v>44971</v>
+        <v>44971.0</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -4487,25 +1953,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+    <row r="55" spans="8:8">
+      <c r="A55" s="3">
+        <v>44972.0</v>
+      </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.020833333333333332</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="16.2">
+      <c r="A56" s="3">
+        <v>44972.0</v>
+      </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.08333333333333333</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>46</v>
@@ -4514,7 +1996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>46</v>
@@ -4523,7 +2005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>46</v>
@@ -4532,7 +2014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>46</v>
@@ -4541,7 +2023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>46</v>
@@ -4550,7 +2032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>46</v>
@@ -4559,7 +2041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>46</v>
@@ -4568,7 +2050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:8">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>46</v>
@@ -4577,7 +2059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>46</v>
@@ -4586,7 +2068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>46</v>
@@ -4595,7 +2077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:8">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>46</v>
@@ -4604,7 +2086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>46</v>
@@ -4613,7 +2095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:8">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>46</v>
@@ -4622,7 +2104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>46</v>
@@ -4631,7 +2113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>46</v>
@@ -4640,7 +2122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>46</v>
@@ -4649,7 +2131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>46</v>
@@ -4658,7 +2140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:8">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>46</v>
@@ -4667,7 +2149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>46</v>
@@ -4676,7 +2158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:8">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>46</v>
@@ -4685,7 +2167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:8">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>46</v>
@@ -4694,7 +2176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:8">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>46</v>
@@ -4703,7 +2185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>46</v>
@@ -4712,7 +2194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>46</v>
@@ -4721,7 +2203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>46</v>
@@ -4730,7 +2212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>46</v>
@@ -4739,7 +2221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>46</v>
@@ -4748,7 +2230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>46</v>
@@ -4757,7 +2239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>46</v>
@@ -4766,7 +2248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>46</v>
@@ -4775,7 +2257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>46</v>
@@ -4784,7 +2266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>46</v>
@@ -4793,7 +2275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>46</v>
@@ -4802,7 +2284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>46</v>
@@ -4811,7 +2293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>46</v>
@@ -4820,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>46</v>
@@ -4829,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>46</v>
@@ -4838,7 +2320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>46</v>
@@ -4847,7 +2329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>46</v>
@@ -4856,7 +2338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>46</v>
@@ -4865,7 +2347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>46</v>
@@ -4874,7 +2356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>46</v>
@@ -4883,7 +2365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>46</v>
@@ -4892,7 +2374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>46</v>
@@ -4901,7 +2383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>46</v>
@@ -4910,7 +2392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>46</v>
@@ -4919,7 +2401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>46</v>
@@ -4928,7 +2410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>46</v>
@@ -4937,7 +2419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>46</v>
@@ -4946,7 +2428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>46</v>
@@ -4955,7 +2437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>46</v>
@@ -4964,7 +2446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>46</v>
@@ -4973,7 +2455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>46</v>
@@ -4982,7 +2464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
         <v>46</v>
@@ -4991,7 +2473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
         <v>46</v>
@@ -5000,7 +2482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
         <v>46</v>
@@ -5009,7 +2491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
         <v>46</v>
@@ -5018,7 +2500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
         <v>46</v>
@@ -5027,7 +2509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
         <v>46</v>
@@ -5036,7 +2518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
         <v>46</v>
@@ -5045,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
         <v>46</v>
@@ -5054,7 +2536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
         <v>46</v>
@@ -5063,7 +2545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
         <v>46</v>
@@ -5072,7 +2554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
         <v>46</v>
@@ -5081,7 +2563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
         <v>46</v>
@@ -5090,7 +2572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
         <v>46</v>
@@ -5099,7 +2581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
         <v>46</v>
@@ -5108,7 +2590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
         <v>46</v>
@@ -5117,7 +2599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
         <v>46</v>
@@ -5126,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
         <v>46</v>
@@ -5135,7 +2617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:8">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
         <v>46</v>
@@ -5144,7 +2626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="8:8">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
         <v>46</v>
@@ -5153,7 +2635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="8:8">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
         <v>46</v>
@@ -5162,7 +2644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="8:8">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
         <v>46</v>
@@ -5171,7 +2653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="8:8">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
         <v>46</v>
@@ -5180,7 +2662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="8:8">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
         <v>46</v>
@@ -5189,7 +2671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="8:8">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
         <v>46</v>
@@ -5198,7 +2680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="8:8">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
         <v>46</v>
@@ -5207,7 +2689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="8:8">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
         <v>46</v>
@@ -5216,7 +2698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="8:8">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
         <v>46</v>
@@ -5225,7 +2707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="8:8">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
         <v>46</v>
@@ -5234,7 +2716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="8:8">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
         <v>46</v>
@@ -5243,7 +2725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="8:8">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
         <v>46</v>
@@ -5252,7 +2734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="8:8">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
         <v>46</v>
@@ -5261,7 +2743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="8:8">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
         <v>46</v>
@@ -5270,7 +2752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="8:8">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
         <v>46</v>
@@ -5279,7 +2761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="8:8">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
         <v>46</v>
@@ -5288,7 +2770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="8:8">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
         <v>46</v>
@@ -5297,7 +2779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="8:8">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
         <v>46</v>
@@ -5306,7 +2788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="8:8">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
         <v>46</v>
@@ -5315,7 +2797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="8:8">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
         <v>46</v>
@@ -5324,7 +2806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="8:8">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
         <v>46</v>
@@ -5333,7 +2815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="8:8">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
         <v>46</v>
@@ -5342,7 +2824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="8:8">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
         <v>46</v>
@@ -5351,7 +2833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="8:8">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
         <v>46</v>
@@ -5360,7 +2842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="8:8">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
         <v>46</v>
@@ -5369,7 +2851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="8:8">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
         <v>46</v>
@@ -5378,7 +2860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="8:8">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
         <v>46</v>
@@ -5387,7 +2869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="8:8">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
         <v>46</v>
@@ -5396,7 +2878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="8:8">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
         <v>46</v>
@@ -5405,7 +2887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="8:8">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
         <v>46</v>
@@ -5414,7 +2896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="8:8">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
         <v>46</v>
@@ -5423,7 +2905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="8:8">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
         <v>46</v>
@@ -5432,7 +2914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="8:8">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
         <v>46</v>
@@ -5441,7 +2923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="8:8">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
         <v>46</v>
@@ -5450,7 +2932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="8:8">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
         <v>46</v>
@@ -5459,7 +2941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="8:8">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
         <v>46</v>
@@ -5468,7 +2950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="8:8">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
         <v>46</v>
@@ -5477,7 +2959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="8:8">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
         <v>46</v>
@@ -5486,7 +2968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="8:8">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
         <v>46</v>
@@ -5495,7 +2977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="8:8">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
         <v>46</v>
@@ -5504,7 +2986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="8:8">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
         <v>46</v>
@@ -5513,7 +2995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="8:8">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
         <v>46</v>
@@ -5522,7 +3004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="8:8">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
         <v>46</v>
@@ -5531,7 +3013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="8:8">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
         <v>46</v>
@@ -5540,7 +3022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="8:8">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
         <v>46</v>
@@ -5549,7 +3031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="8:8">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
         <v>46</v>
@@ -5558,7 +3040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="8:8">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
         <v>46</v>
@@ -5567,7 +3049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="8:8">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
         <v>46</v>
@@ -5576,7 +3058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="8:8">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
         <v>46</v>
@@ -5585,7 +3067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:8">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
         <v>46</v>
@@ -5594,7 +3076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:8">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
         <v>46</v>
@@ -5603,7 +3085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:8">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
         <v>46</v>
@@ -5612,7 +3094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:8">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
         <v>46</v>
@@ -5621,7 +3103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:8">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
         <v>46</v>
@@ -5630,7 +3112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:8">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
         <v>46</v>
@@ -5639,7 +3121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:8">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
         <v>46</v>
@@ -5648,7 +3130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
         <v>46</v>
@@ -5657,7 +3139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:8">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
         <v>46</v>
@@ -5666,7 +3148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:8">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
         <v>46</v>
@@ -5675,7 +3157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:8">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
         <v>46</v>
@@ -5684,7 +3166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:8">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
         <v>46</v>
@@ -5693,7 +3175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:8">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
         <v>46</v>
@@ -5702,7 +3184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:8">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
         <v>46</v>
@@ -5711,7 +3193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:8">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
         <v>46</v>
@@ -5720,7 +3202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:8">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
         <v>46</v>
@@ -5729,7 +3211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:8">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
         <v>46</v>
@@ -5738,7 +3220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="8:8">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
         <v>46</v>
@@ -5747,7 +3229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="8:8">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
         <v>46</v>
@@ -5756,7 +3238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="8:8">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
         <v>46</v>
@@ -5765,7 +3247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="8:8">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
         <v>46</v>
@@ -5774,7 +3256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="8:8">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
         <v>46</v>
@@ -5783,7 +3265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="8:8">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
         <v>46</v>
@@ -5792,7 +3274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="8:8">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
         <v>46</v>
@@ -5801,7 +3283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="8:8">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
         <v>46</v>
@@ -5810,7 +3292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="8:8">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
         <v>46</v>
@@ -5819,7 +3301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="8:8">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
         <v>46</v>
@@ -5828,7 +3310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="8:8">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
         <v>46</v>
@@ -5837,7 +3319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="8:8">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
         <v>46</v>
@@ -5846,7 +3328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="8:8">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
         <v>46</v>
@@ -5855,7 +3337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="8:8">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
         <v>46</v>
@@ -5864,7 +3346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="8:8">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
         <v>46</v>
@@ -5873,7 +3355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="8:8">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
         <v>46</v>
@@ -5882,7 +3364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="8:8">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
         <v>46</v>
@@ -5891,7 +3373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="8:8">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
         <v>46</v>
@@ -5900,7 +3382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="8:8">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
         <v>46</v>
@@ -5909,7 +3391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="8:8">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
         <v>46</v>
@@ -5918,7 +3400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="8:8">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
         <v>46</v>
@@ -5927,7 +3409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="8:8">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
         <v>46</v>
@@ -5936,7 +3418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="8:8">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
         <v>46</v>
@@ -5945,7 +3427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="8:8">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
         <v>46</v>
@@ -5954,7 +3436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="8:8">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
         <v>46</v>
@@ -5963,7 +3445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="8:8">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
         <v>46</v>
@@ -5972,7 +3454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="8:8">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
         <v>46</v>
@@ -5981,7 +3463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="8:8">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
         <v>46</v>
@@ -5990,7 +3472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="8:8">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
         <v>46</v>
@@ -5999,7 +3481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="8:8">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
         <v>46</v>
@@ -6008,7 +3490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="8:8">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
         <v>46</v>
@@ -6017,7 +3499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="8:8">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
         <v>46</v>
@@ -6026,7 +3508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="8:8">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
         <v>46</v>
@@ -6035,7 +3517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="8:8">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
         <v>46</v>
@@ -6044,7 +3526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="8:8">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
         <v>46</v>
@@ -6053,7 +3535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="8:8">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
         <v>46</v>
@@ -6062,7 +3544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="8:8">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
         <v>46</v>
@@ -6071,7 +3553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="8:8">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
         <v>46</v>
@@ -6080,7 +3562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="8:8">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
         <v>46</v>
@@ -6089,7 +3571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="8:8">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
         <v>46</v>
@@ -6098,7 +3580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="8:8">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
         <v>46</v>
@@ -6107,7 +3589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="8:8">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
         <v>46</v>
@@ -6116,7 +3598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="8:8">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
         <v>46</v>
@@ -6125,7 +3607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="8:8">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
         <v>46</v>
@@ -6134,7 +3616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="8:8">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
         <v>46</v>
@@ -6143,7 +3625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="8:8">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
         <v>46</v>
@@ -6152,7 +3634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="8:8">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
         <v>46</v>
@@ -6161,7 +3643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="8:8">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
         <v>46</v>
@@ -6170,7 +3652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="8:8">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
         <v>46</v>
@@ -6179,7 +3661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="8:8">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
         <v>46</v>
@@ -6188,7 +3670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="8:8">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
         <v>46</v>
@@ -6197,7 +3679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="8:8">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
         <v>46</v>
@@ -6206,7 +3688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="8:8">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
         <v>46</v>
@@ -6215,7 +3697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="8:8">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
         <v>46</v>
@@ -6224,7 +3706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="8:8">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
         <v>46</v>
@@ -6233,7 +3715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="8:8">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
         <v>46</v>
@@ -6242,7 +3724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="8:8">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
         <v>46</v>
@@ -6251,7 +3733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="8:8">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
         <v>46</v>
@@ -6260,7 +3742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="8:8">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
         <v>46</v>
@@ -6269,7 +3751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="8:8">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
         <v>46</v>
@@ -6278,7 +3760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="8:8">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
         <v>46</v>
@@ -6287,7 +3769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="8:8">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
         <v>46</v>
@@ -6296,7 +3778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="8:8">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
         <v>46</v>
@@ -6305,7 +3787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="8:8">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
         <v>46</v>
@@ -6314,7 +3796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="8:8">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
         <v>46</v>
@@ -6323,7 +3805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="8:8">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
         <v>46</v>
@@ -6332,7 +3814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="8:8">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
         <v>46</v>
@@ -6341,7 +3823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="8:8">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
         <v>46</v>
@@ -6350,7 +3832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="8:8">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
         <v>46</v>
@@ -6359,7 +3841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="8:8">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
         <v>46</v>
@@ -6368,7 +3850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="8:8">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
         <v>46</v>
@@ -6377,7 +3859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="8:8">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
         <v>46</v>
@@ -6386,7 +3868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="8:8">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
         <v>46</v>
@@ -6395,7 +3877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="8:8">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
         <v>46</v>
@@ -6404,7 +3886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="8:8">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
         <v>46</v>
@@ -6413,7 +3895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="8:8">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
         <v>46</v>
@@ -6422,7 +3904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="8:8">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
         <v>46</v>
@@ -6431,7 +3913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="8:8">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
         <v>46</v>
@@ -6440,7 +3922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="8:8">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
         <v>46</v>
@@ -6449,7 +3931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="8:8">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
         <v>46</v>
@@ -6458,7 +3940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="8:8">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
         <v>46</v>
@@ -6467,7 +3949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="8:8">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
         <v>46</v>
@@ -6476,7 +3958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="8:8">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
         <v>46</v>
@@ -6485,7 +3967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="8:8">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
         <v>46</v>
@@ -6494,7 +3976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="8:8">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
         <v>46</v>
@@ -6503,7 +3985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="8:8">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
         <v>46</v>
@@ -6512,7 +3994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="8:8">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
         <v>46</v>
@@ -6521,7 +4003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="8:8">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
         <v>46</v>
@@ -6530,7 +4012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="8:8">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
         <v>46</v>
@@ -6539,7 +4021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="8:8">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
         <v>46</v>
@@ -6548,7 +4030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="8:8">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
         <v>46</v>
@@ -6557,7 +4039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="8:8">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
         <v>46</v>
@@ -6566,7 +4048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="8:8">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
         <v>46</v>
@@ -6575,7 +4057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="8:8">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
         <v>46</v>
@@ -6584,7 +4066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="8:8">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
         <v>46</v>
@@ -6593,7 +4075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="8:8">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
         <v>46</v>
@@ -6602,7 +4084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="8:8">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
         <v>46</v>
@@ -6611,7 +4093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="8:8">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
         <v>46</v>
@@ -6620,7 +4102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="8:8">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
         <v>46</v>
@@ -6629,7 +4111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="8:8">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
         <v>46</v>
@@ -6638,7 +4120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="8:8">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
         <v>46</v>
@@ -6647,7 +4129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="8:8">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
         <v>46</v>
@@ -6656,7 +4138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="8:8">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
         <v>46</v>
@@ -6665,7 +4147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="8:8">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
         <v>46</v>
@@ -6674,7 +4156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="8:8">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
         <v>46</v>
@@ -6683,7 +4165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="8:8">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
         <v>46</v>
@@ -6692,7 +4174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="8:8">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
         <v>46</v>
@@ -6701,7 +4183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="8:8">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
         <v>46</v>
@@ -6710,7 +4192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="8:8">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
         <v>46</v>
@@ -6719,7 +4201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="8:8">
       <c r="A303" s="3"/>
       <c r="B303" t="s">
         <v>46</v>
@@ -6728,7 +4210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="8:8">
       <c r="B304" t="s">
         <v>46</v>
       </c>
@@ -6736,7 +4218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="8:8">
       <c r="B305" t="s">
         <v>46</v>
       </c>
@@ -6744,7 +4226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="8:8">
       <c r="B306" t="s">
         <v>46</v>
       </c>
@@ -6752,7 +4234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="8:8">
       <c r="B307" t="s">
         <v>46</v>
       </c>
@@ -6760,7 +4242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="8:8">
       <c r="B308" t="s">
         <v>46</v>
       </c>
@@ -6768,7 +4250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="8:8">
       <c r="B309" t="s">
         <v>46</v>
       </c>
@@ -6776,7 +4258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="8:8">
       <c r="B310" t="s">
         <v>46</v>
       </c>
@@ -6784,7 +4266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="8:8">
       <c r="B311" t="s">
         <v>46</v>
       </c>
@@ -6792,7 +4274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="8:8">
       <c r="B312" t="s">
         <v>46</v>
       </c>
@@ -6800,7 +4282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="8:8">
       <c r="B313" t="s">
         <v>46</v>
       </c>
@@ -6808,7 +4290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="8:8">
       <c r="B314" t="s">
         <v>46</v>
       </c>
@@ -6816,7 +4298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="8:8">
       <c r="B315" t="s">
         <v>46</v>
       </c>
@@ -6824,7 +4306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="8:8">
       <c r="B316" t="s">
         <v>46</v>
       </c>
@@ -6832,7 +4314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="8:8">
       <c r="B317" t="s">
         <v>46</v>
       </c>
@@ -6840,7 +4322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="8:8">
       <c r="B318" t="s">
         <v>46</v>
       </c>
@@ -6848,7 +4330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="8:8">
       <c r="B319" t="s">
         <v>46</v>
       </c>
@@ -6856,7 +4338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="8:8">
       <c r="B320" t="s">
         <v>46</v>
       </c>
@@ -6864,7 +4346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="8:8">
       <c r="B321" t="s">
         <v>46</v>
       </c>
@@ -6872,7 +4354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="8:8">
       <c r="B322" t="s">
         <v>46</v>
       </c>
@@ -6880,7 +4362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="8:8">
       <c r="B323" t="s">
         <v>46</v>
       </c>
@@ -6888,7 +4370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="8:8">
       <c r="B324" t="s">
         <v>46</v>
       </c>
@@ -6896,7 +4378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="8:8">
       <c r="B325" t="s">
         <v>46</v>
       </c>
@@ -6904,7 +4386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="8:8">
       <c r="B326" t="s">
         <v>46</v>
       </c>
@@ -6912,7 +4394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="8:8">
       <c r="B327" t="s">
         <v>46</v>
       </c>
@@ -6920,7 +4402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="8:8">
       <c r="B328" t="s">
         <v>46</v>
       </c>
@@ -6928,7 +4410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="8:8">
       <c r="B329" t="s">
         <v>46</v>
       </c>
@@ -6936,7 +4418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="8:8">
       <c r="B330" t="s">
         <v>46</v>
       </c>
@@ -6944,7 +4426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="8:8">
       <c r="B331" t="s">
         <v>46</v>
       </c>
@@ -6952,7 +4434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="8:8">
       <c r="B332" t="s">
         <v>46</v>
       </c>
@@ -6960,7 +4442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="8:8">
       <c r="B333" t="s">
         <v>46</v>
       </c>
@@ -6968,7 +4450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="8:8">
       <c r="B334" t="s">
         <v>46</v>
       </c>
@@ -6976,7 +4458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="8:8">
       <c r="B335" t="s">
         <v>46</v>
       </c>
@@ -6984,7 +4466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="8:8">
       <c r="B336" t="s">
         <v>46</v>
       </c>
@@ -6992,7 +4474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="8:8">
       <c r="B337" t="s">
         <v>46</v>
       </c>
@@ -7000,7 +4482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="8:8">
       <c r="B338" t="s">
         <v>46</v>
       </c>
@@ -7008,7 +4490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="8:8">
       <c r="B339" t="s">
         <v>46</v>
       </c>
@@ -7016,7 +4498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="8:8">
       <c r="B340" t="s">
         <v>46</v>
       </c>
@@ -7024,7 +4506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="8:8">
       <c r="B341" t="s">
         <v>46</v>
       </c>
@@ -7032,7 +4514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="8:8">
       <c r="B342" t="s">
         <v>46</v>
       </c>
@@ -7040,7 +4522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="8:8">
       <c r="B343" t="s">
         <v>46</v>
       </c>
@@ -7048,7 +4530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="8:8">
       <c r="B344" t="s">
         <v>46</v>
       </c>
@@ -7056,7 +4538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="8:8">
       <c r="B345" t="s">
         <v>46</v>
       </c>
@@ -7064,7 +4546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="8:8">
       <c r="B346" t="s">
         <v>46</v>
       </c>
@@ -7072,7 +4554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="8:8">
       <c r="B347" t="s">
         <v>46</v>
       </c>
@@ -7080,7 +4562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="8:8">
       <c r="B348" t="s">
         <v>46</v>
       </c>
@@ -7088,7 +4570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="8:8">
       <c r="B349" t="s">
         <v>46</v>
       </c>
@@ -7096,7 +4578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="8:8">
       <c r="B350" t="s">
         <v>46</v>
       </c>
@@ -7104,7 +4586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="8:8">
       <c r="B351" t="s">
         <v>46</v>
       </c>
@@ -7112,7 +4594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="8:8">
       <c r="B352" t="s">
         <v>46</v>
       </c>
@@ -7120,7 +4602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="8:8">
       <c r="B353" t="s">
         <v>46</v>
       </c>
@@ -7128,7 +4610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="8:8">
       <c r="B354" t="s">
         <v>46</v>
       </c>
@@ -7136,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="8:8">
       <c r="B355" t="s">
         <v>46</v>
       </c>
@@ -7144,7 +4626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="8:8">
       <c r="B356" t="s">
         <v>46</v>
       </c>
@@ -7152,7 +4634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="8:8">
       <c r="B357" t="s">
         <v>46</v>
       </c>
@@ -7160,7 +4642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="8:8">
       <c r="B358" t="s">
         <v>46</v>
       </c>
@@ -7168,7 +4650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="8:8">
       <c r="B359" t="s">
         <v>46</v>
       </c>
@@ -7176,7 +4658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="8:8">
       <c r="B360" t="s">
         <v>46</v>
       </c>
@@ -7184,7 +4666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="8:8">
       <c r="B361" t="s">
         <v>46</v>
       </c>
@@ -7192,7 +4674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="8:8">
       <c r="B362" t="s">
         <v>46</v>
       </c>
@@ -7200,7 +4682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="8:8">
       <c r="B363" t="s">
         <v>46</v>
       </c>
@@ -7208,7 +4690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="8:8">
       <c r="B364" t="s">
         <v>46</v>
       </c>
@@ -7216,7 +4698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="8:8">
       <c r="B365" t="s">
         <v>46</v>
       </c>
@@ -7224,7 +4706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="8:8">
       <c r="B366" t="s">
         <v>46</v>
       </c>
@@ -7232,7 +4714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="8:8">
       <c r="B367" t="s">
         <v>46</v>
       </c>
@@ -7240,7 +4722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="8:8">
       <c r="B368" t="s">
         <v>46</v>
       </c>
@@ -7248,7 +4730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="8:8">
       <c r="B369" t="s">
         <v>46</v>
       </c>
@@ -7256,7 +4738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="8:8">
       <c r="B370" t="s">
         <v>46</v>
       </c>
@@ -7264,7 +4746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="8:8">
       <c r="B371" t="s">
         <v>46</v>
       </c>
@@ -7272,7 +4754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="8:8">
       <c r="B372" t="s">
         <v>46</v>
       </c>
@@ -7280,7 +4762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="8:8">
       <c r="B373" t="s">
         <v>46</v>
       </c>
@@ -7288,7 +4770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="8:8">
       <c r="B374" t="s">
         <v>46</v>
       </c>
@@ -7296,7 +4778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="8:8">
       <c r="B375" t="s">
         <v>46</v>
       </c>
@@ -7304,7 +4786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="8:8">
       <c r="B376" t="s">
         <v>46</v>
       </c>
@@ -7312,7 +4794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="8:8">
       <c r="B377" t="s">
         <v>46</v>
       </c>
@@ -7320,7 +4802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="8:8">
       <c r="B378" t="s">
         <v>46</v>
       </c>
@@ -7328,7 +4810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="8:8">
       <c r="B379" t="s">
         <v>46</v>
       </c>
@@ -7336,7 +4818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="8:8">
       <c r="B380" t="s">
         <v>46</v>
       </c>
@@ -7344,7 +4826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="8:8">
       <c r="B381" t="s">
         <v>46</v>
       </c>
@@ -7352,7 +4834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="8:8">
       <c r="B382" t="s">
         <v>46</v>
       </c>
@@ -7360,7 +4842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="8:8">
       <c r="B383" t="s">
         <v>46</v>
       </c>
@@ -7368,7 +4850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="8:8">
       <c r="B384" t="s">
         <v>46</v>
       </c>
@@ -7376,7 +4858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="8:8">
       <c r="B385" t="s">
         <v>46</v>
       </c>
@@ -7384,7 +4866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="8:8">
       <c r="B386" t="s">
         <v>46</v>
       </c>
@@ -7392,7 +4874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="8:8">
       <c r="B387" t="s">
         <v>46</v>
       </c>
@@ -7400,7 +4882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="8:8">
       <c r="B388" t="s">
         <v>46</v>
       </c>
@@ -7408,7 +4890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="8:8">
       <c r="B389" t="s">
         <v>46</v>
       </c>
@@ -7416,7 +4898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="8:8">
       <c r="B390" t="s">
         <v>46</v>
       </c>
@@ -7424,7 +4906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="8:8">
       <c r="B391" t="s">
         <v>46</v>
       </c>
@@ -7432,7 +4914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="8:8">
       <c r="B392" t="s">
         <v>46</v>
       </c>
@@ -7440,7 +4922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="8:8">
       <c r="B393" t="s">
         <v>46</v>
       </c>
@@ -7448,7 +4930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="8:8">
       <c r="B394" t="s">
         <v>46</v>
       </c>
@@ -7456,7 +4938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="8:8">
       <c r="B395" t="s">
         <v>46</v>
       </c>
@@ -7464,7 +4946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="8:8">
       <c r="B396" t="s">
         <v>46</v>
       </c>
@@ -7472,7 +4954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="8:8">
       <c r="B397" t="s">
         <v>46</v>
       </c>
@@ -7480,7 +4962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="8:8">
       <c r="B398" t="s">
         <v>46</v>
       </c>
@@ -7488,7 +4970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="8:8">
       <c r="B399" t="s">
         <v>46</v>
       </c>
@@ -7496,7 +4978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="8:8">
       <c r="B400" t="s">
         <v>46</v>
       </c>
@@ -7504,7 +4986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="8:8">
       <c r="B401" t="s">
         <v>46</v>
       </c>
@@ -7512,7 +4994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="8:8">
       <c r="B402" t="s">
         <v>46</v>
       </c>
@@ -7520,7 +5002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="8:8">
       <c r="B403" t="s">
         <v>46</v>
       </c>
@@ -7528,7 +5010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="8:8">
       <c r="B404" t="s">
         <v>46</v>
       </c>
@@ -7536,7 +5018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="8:8">
       <c r="B405" t="s">
         <v>46</v>
       </c>
@@ -7544,7 +5026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="8:8">
       <c r="B406" t="s">
         <v>46</v>
       </c>
@@ -7552,7 +5034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="8:8">
       <c r="B407" t="s">
         <v>46</v>
       </c>
@@ -7560,7 +5042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="8:8">
       <c r="B408" t="s">
         <v>46</v>
       </c>
@@ -7568,7 +5050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="8:8">
       <c r="B409" t="s">
         <v>46</v>
       </c>
@@ -7576,7 +5058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="8:8">
       <c r="B410" t="s">
         <v>46</v>
       </c>
@@ -7584,7 +5066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="8:8">
       <c r="B411" t="s">
         <v>46</v>
       </c>
@@ -7592,7 +5074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="8:8">
       <c r="B412" t="s">
         <v>46</v>
       </c>
@@ -7600,7 +5082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="8:8">
       <c r="B413" t="s">
         <v>46</v>
       </c>
@@ -7608,7 +5090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="8:8">
       <c r="B414" t="s">
         <v>46</v>
       </c>
@@ -7616,7 +5098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="8:8">
       <c r="B415" t="s">
         <v>46</v>
       </c>
@@ -7624,7 +5106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="8:8">
       <c r="B416" t="s">
         <v>46</v>
       </c>
@@ -7632,7 +5114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="8:8">
       <c r="B417" t="s">
         <v>46</v>
       </c>
@@ -7640,7 +5122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="8:8">
       <c r="B418" t="s">
         <v>46</v>
       </c>
@@ -7648,7 +5130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="8:8">
       <c r="B419" t="s">
         <v>46</v>
       </c>
@@ -7656,7 +5138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="8:8">
       <c r="B420" t="s">
         <v>46</v>
       </c>
@@ -7664,7 +5146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="8:8">
       <c r="B421" t="s">
         <v>46</v>
       </c>
@@ -7672,7 +5154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="8:8">
       <c r="B422" t="s">
         <v>46</v>
       </c>
@@ -7680,7 +5162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="8:8">
       <c r="B423" t="s">
         <v>46</v>
       </c>
@@ -7688,7 +5170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="8:8">
       <c r="B424" t="s">
         <v>46</v>
       </c>
@@ -7696,7 +5178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="8:8">
       <c r="B425" t="s">
         <v>46</v>
       </c>
@@ -7704,7 +5186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="8:8">
       <c r="B426" t="s">
         <v>46</v>
       </c>
@@ -7712,7 +5194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="8:8">
       <c r="B427" t="s">
         <v>46</v>
       </c>
@@ -7720,7 +5202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="8:8">
       <c r="B428" t="s">
         <v>46</v>
       </c>
@@ -7728,7 +5210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="8:8">
       <c r="B429" t="s">
         <v>46</v>
       </c>
@@ -7736,7 +5218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="8:8">
       <c r="B430" t="s">
         <v>46</v>
       </c>
@@ -7744,7 +5226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="8:8">
       <c r="B431" t="s">
         <v>46</v>
       </c>
@@ -7752,7 +5234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="8:8">
       <c r="B432" t="s">
         <v>46</v>
       </c>
@@ -7760,7 +5242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="8:8">
       <c r="B433" t="s">
         <v>46</v>
       </c>
@@ -7768,7 +5250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="8:8">
       <c r="B434" t="s">
         <v>46</v>
       </c>
@@ -7776,7 +5258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="8:8">
       <c r="B435" t="s">
         <v>46</v>
       </c>
@@ -7784,7 +5266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="8:8">
       <c r="B436" t="s">
         <v>46</v>
       </c>
@@ -7792,7 +5274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="8:8">
       <c r="B437" t="s">
         <v>46</v>
       </c>
@@ -7800,7 +5282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="8:8">
       <c r="B438" t="s">
         <v>46</v>
       </c>
@@ -7808,7 +5290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="8:8">
       <c r="B439" t="s">
         <v>46</v>
       </c>
@@ -7816,7 +5298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="8:8">
       <c r="B440" t="s">
         <v>46</v>
       </c>
@@ -7824,7 +5306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="8:8">
       <c r="B441" t="s">
         <v>46</v>
       </c>
@@ -7832,7 +5314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="8:8">
       <c r="B442" t="s">
         <v>46</v>
       </c>
@@ -7840,7 +5322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="8:8">
       <c r="B443" t="s">
         <v>46</v>
       </c>
@@ -7848,7 +5330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="8:8">
       <c r="B444" t="s">
         <v>46</v>
       </c>
@@ -7856,7 +5338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="8:8">
       <c r="B445" t="s">
         <v>46</v>
       </c>
@@ -7864,7 +5346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="8:8">
       <c r="B446" t="s">
         <v>46</v>
       </c>
@@ -7872,7 +5354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="8:8">
       <c r="B447" t="s">
         <v>46</v>
       </c>
@@ -7880,7 +5362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="8:8">
       <c r="B448" t="s">
         <v>46</v>
       </c>
@@ -7888,7 +5370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="8:8">
       <c r="B449" t="s">
         <v>46</v>
       </c>
@@ -7896,7 +5378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="8:8">
       <c r="B450" t="s">
         <v>46</v>
       </c>
@@ -7904,7 +5386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="8:8">
       <c r="B451" t="s">
         <v>46</v>
       </c>
@@ -7912,7 +5394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="8:8">
       <c r="B452" t="s">
         <v>46</v>
       </c>
@@ -7920,7 +5402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="8:8">
       <c r="B453" t="s">
         <v>46</v>
       </c>
@@ -7928,7 +5410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="8:8">
       <c r="B454" t="s">
         <v>46</v>
       </c>
@@ -7936,7 +5418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="8:8">
       <c r="B455" t="s">
         <v>46</v>
       </c>
@@ -7944,7 +5426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="8:8">
       <c r="B456" t="s">
         <v>46</v>
       </c>
@@ -7952,7 +5434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="8:8">
       <c r="B457" t="s">
         <v>46</v>
       </c>
@@ -7960,7 +5442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="8:8">
       <c r="B458" t="s">
         <v>46</v>
       </c>
@@ -7968,7 +5450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="8:8">
       <c r="B459" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +5458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="8:8">
       <c r="B460" t="s">
         <v>46</v>
       </c>
@@ -7984,7 +5466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="8:8">
       <c r="B461" t="s">
         <v>46</v>
       </c>
@@ -7992,7 +5474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="8:8">
       <c r="B462" t="s">
         <v>46</v>
       </c>
@@ -8000,7 +5482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="8:8">
       <c r="B463" t="s">
         <v>46</v>
       </c>
@@ -8008,7 +5490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="8:8">
       <c r="B464" t="s">
         <v>46</v>
       </c>
@@ -8016,7 +5498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="8:8">
       <c r="B465" t="s">
         <v>46</v>
       </c>
@@ -8024,7 +5506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="8:8">
       <c r="B466" t="s">
         <v>46</v>
       </c>
@@ -8032,7 +5514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="8:8">
       <c r="B467" t="s">
         <v>46</v>
       </c>
@@ -8040,7 +5522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="8:8">
       <c r="B468" t="s">
         <v>46</v>
       </c>
@@ -8048,7 +5530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="8:8">
       <c r="B469" t="s">
         <v>46</v>
       </c>
@@ -8056,7 +5538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="8:8">
       <c r="B470" t="s">
         <v>46</v>
       </c>
@@ -8064,7 +5546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="8:8">
       <c r="B471" t="s">
         <v>46</v>
       </c>
@@ -8072,7 +5554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="8:8">
       <c r="B472" t="s">
         <v>46</v>
       </c>
@@ -8080,7 +5562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="8:8">
       <c r="B473" t="s">
         <v>46</v>
       </c>
@@ -8088,7 +5570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="8:8">
       <c r="B474" t="s">
         <v>46</v>
       </c>
@@ -8096,7 +5578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="8:8">
       <c r="B475" t="s">
         <v>46</v>
       </c>
@@ -8104,7 +5586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="8:8">
       <c r="B476" t="s">
         <v>46</v>
       </c>
@@ -8112,7 +5594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="8:8">
       <c r="B477" t="s">
         <v>46</v>
       </c>
@@ -8120,7 +5602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="8:8">
       <c r="B478" t="s">
         <v>46</v>
       </c>
@@ -8128,7 +5610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="8:8">
       <c r="B479" t="s">
         <v>46</v>
       </c>
@@ -8136,7 +5618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="8:8">
       <c r="B480" t="s">
         <v>46</v>
       </c>
@@ -8144,7 +5626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="8:8">
       <c r="B481" t="s">
         <v>46</v>
       </c>
@@ -8152,7 +5634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="8:8">
       <c r="B482" t="s">
         <v>46</v>
       </c>
@@ -8160,7 +5642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="8:8">
       <c r="B483" t="s">
         <v>46</v>
       </c>
@@ -8168,7 +5650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="8:8">
       <c r="B484" t="s">
         <v>46</v>
       </c>
@@ -8176,7 +5658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="8:8">
       <c r="B485" t="s">
         <v>46</v>
       </c>
@@ -8184,7 +5666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="8:8">
       <c r="B486" t="s">
         <v>46</v>
       </c>
@@ -8192,7 +5674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="8:8">
       <c r="B487" t="s">
         <v>46</v>
       </c>
@@ -8200,7 +5682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="8:8">
       <c r="B488" t="s">
         <v>46</v>
       </c>
@@ -8208,7 +5690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="8:8">
       <c r="B489" t="s">
         <v>46</v>
       </c>
@@ -8216,7 +5698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="8:8">
       <c r="B490" t="s">
         <v>46</v>
       </c>
@@ -8224,7 +5706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="8:8">
       <c r="B491" t="s">
         <v>46</v>
       </c>
@@ -8232,7 +5714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="8:8">
       <c r="B492" t="s">
         <v>46</v>
       </c>
@@ -8240,7 +5722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="8:8">
       <c r="B493" t="s">
         <v>46</v>
       </c>
@@ -8248,7 +5730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="8:8">
       <c r="B494" t="s">
         <v>46</v>
       </c>
@@ -8256,7 +5738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="8:8">
       <c r="B495" t="s">
         <v>46</v>
       </c>
@@ -8264,7 +5746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="8:8">
       <c r="B496" t="s">
         <v>46</v>
       </c>
@@ -8272,7 +5754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="8:8">
       <c r="B497" t="s">
         <v>46</v>
       </c>
@@ -8280,7 +5762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="8:8">
       <c r="B498" t="s">
         <v>46</v>
       </c>
@@ -8288,7 +5770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="8:8">
       <c r="B499" t="s">
         <v>46</v>
       </c>
@@ -8296,7 +5778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="8:8">
       <c r="B500" t="s">
         <v>46</v>
       </c>
@@ -8304,7 +5786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="8:8">
       <c r="B501" t="s">
         <v>46</v>
       </c>
@@ -8312,7 +5794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="8:8">
       <c r="B502" t="s">
         <v>46</v>
       </c>
@@ -8322,19 +5804,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Stammdaten!$A$11:$A$17</xm:f>
           </x14:formula1>
@@ -8343,7 +5821,7 @@
           </x14:formula2>
           <xm:sqref>D6:D502</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" type="list" errorStyle="stop" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Stammdaten!$A$4:$A$7</xm:f>
           </x14:formula1>
@@ -8359,238 +5837,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:A17"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="42.046875" customWidth="1"/>
-    <col min="2" max="2" width="36.62109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="42.046875" style="0"/>
+    <col min="2" max="2" customWidth="1" width="36.621094" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="8:8" s="10" ht="15.0" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:8" s="10" ht="15.0" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="8:8">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:8">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:8">
       <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:G9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="36.9921875" customWidth="1"/>
-    <col min="2" max="2" width="22.0703125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.671875" customWidth="1"/>
-    <col min="5" max="5" width="9.37109375" customWidth="1"/>
-    <col min="6" max="6" width="23.55078125" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="36.992188" style="0"/>
+    <col min="2" max="2" customWidth="1" width="22.070312" style="0"/>
+    <col min="3" max="3" customWidth="1" width="12.082031" style="0"/>
+    <col min="4" max="4" customWidth="1" width="14.671875" style="0"/>
+    <col min="5" max="5" customWidth="1" width="9.371094" style="0"/>
+    <col min="6" max="6" customWidth="1" width="23.550781" style="0"/>
+    <col min="7" max="7" customWidth="1" width="26.632812" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="8:8">
+      <c r="A3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="8:8">
+      <c r="A5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25">
-        <v>0.67708333333333204</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.26041666666666702</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27">
-        <v>1.1458333333333299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26">
+        <v>0.677083333333332</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.260416666666667</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
+        <v>1.14583333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25">
-        <v>0.77083333333333204</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.94791666666666796</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.13541666666666699</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26">
+        <v>0.770833333333332</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.947916666666668</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.135416666666667</v>
+      </c>
+      <c r="F7" s="29">
         <v>0.34375</v>
       </c>
-      <c r="G7" s="27">
-        <v>2.1979166666666701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="28">
+        <v>2.19791666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0.13541666666666699</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0.13541666666666699</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32">
-        <v>0.91666666666666496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31">
+        <v>0.645833333333332</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.135416666666667</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.135416666666667</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33">
+        <v>0.916666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="A9" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36">
         <v>2.09375</v>
       </c>
-      <c r="D9" s="35">
-        <v>1.2916666666666701</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="D9" s="36">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="E9" s="36">
         <v>0.53125</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <v>0.34375</v>
       </c>
-      <c r="G9" s="37">
-        <v>4.2604166666666599</v>
+      <c r="G9" s="38">
+        <v>4.26041666666666</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
 </worksheet>
 </file>
--- a/doc/Zeiterfassung.xlsx
+++ b/doc/Zeiterfassung.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96D0AC-EE42-A645-8BDE-DBE33D38C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA2A0C1-10E4-463E-91A7-13707EB8AF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2778" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="63">
   <si>
     <t>Summe (h)</t>
   </si>
@@ -176,6 +176,39 @@
     <t>Arbeit an Fehlern</t>
   </si>
   <si>
+    <t>categoyIntent Handler</t>
+  </si>
+  <si>
+    <t>SelectCategoryIntent</t>
+  </si>
+  <si>
+    <t>Bugfixes for game_api und generelle Fixes</t>
+  </si>
+  <si>
+    <t>Answer Intent und Ready Intent + Handler</t>
+  </si>
+  <si>
+    <t>UX und funkt.Test für Vorstellung</t>
+  </si>
+  <si>
+    <t>UI Überarbeitung</t>
+  </si>
+  <si>
+    <t>Pixelart für Kategories und einbinden, categoryIntent fixes</t>
+  </si>
+  <si>
+    <t>UI fertig und categoryIntent fertig</t>
+  </si>
+  <si>
+    <t>APL-Dokumente und neuer intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neues Hosting </t>
+  </si>
+  <si>
+    <t>APL , UX und funkt.Test für Vorstellung</t>
+  </si>
+  <si>
     <t>(bitte auswählen)</t>
   </si>
   <si>
@@ -203,7 +236,7 @@
     <numFmt numFmtId="165" formatCode="[$-407]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-407]hh:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3250,7 +3283,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="2778" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -3308,7 +3341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3604,34 +3637,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F502"/>
+  <dimension ref="A3:F503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.52734375" customWidth="1"/>
-    <col min="3" max="3" width="17.5078125" customWidth="1"/>
-    <col min="4" max="4" width="39.953125" customWidth="1"/>
-    <col min="5" max="5" width="57.33984375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="57.375" customWidth="1"/>
+    <col min="6" max="6" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(C6:C302)</f>
-        <v>4.6354166666666643</v>
+        <v>7.2187499999999964</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3651,7 +3684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>44839</v>
       </c>
@@ -3671,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>44839</v>
       </c>
@@ -3688,7 +3721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>44839</v>
       </c>
@@ -3705,7 +3738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
@@ -3722,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>44853</v>
       </c>
@@ -3739,7 +3772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>44853</v>
       </c>
@@ -3756,7 +3789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>44862</v>
       </c>
@@ -3773,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>44862</v>
       </c>
@@ -3790,7 +3823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>44862</v>
       </c>
@@ -3807,7 +3840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>44867</v>
       </c>
@@ -3824,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>44867</v>
       </c>
@@ -3841,7 +3874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>44867</v>
       </c>
@@ -3858,7 +3891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>44873</v>
       </c>
@@ -3875,7 +3908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>44881</v>
       </c>
@@ -3892,7 +3925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>44881</v>
       </c>
@@ -3909,7 +3942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>44881</v>
       </c>
@@ -3926,7 +3959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>44881</v>
       </c>
@@ -3943,7 +3976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>44883</v>
       </c>
@@ -3960,7 +3993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>44885</v>
       </c>
@@ -3977,7 +4010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>44888</v>
       </c>
@@ -3994,7 +4027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -4011,7 +4044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -4028,7 +4061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>44889</v>
       </c>
@@ -4045,7 +4078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>44890</v>
       </c>
@@ -4062,7 +4095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>44890</v>
       </c>
@@ -4079,7 +4112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>44890</v>
       </c>
@@ -4096,7 +4129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>44890</v>
       </c>
@@ -4113,7 +4146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>44892</v>
       </c>
@@ -4130,7 +4163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>44892</v>
       </c>
@@ -4147,7 +4180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>44893</v>
       </c>
@@ -4164,7 +4197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -4181,7 +4214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -4198,7 +4231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="3">
         <v>44894</v>
       </c>
@@ -4215,7 +4248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>44895</v>
       </c>
@@ -4232,7 +4265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>44895</v>
       </c>
@@ -4249,7 +4282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>44895</v>
       </c>
@@ -4266,7 +4299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>44895</v>
       </c>
@@ -4283,7 +4316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="6">
         <v>44895</v>
       </c>
@@ -4300,7 +4333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>44896</v>
       </c>
@@ -4317,7 +4350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>44896</v>
       </c>
@@ -4334,7 +4367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="3">
         <v>44896</v>
       </c>
@@ -4351,7 +4384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="3">
         <v>44899</v>
       </c>
@@ -4368,7 +4401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="3">
         <v>44900</v>
       </c>
@@ -4385,7 +4418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3">
         <v>44909</v>
       </c>
@@ -4402,7 +4435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="3">
         <v>44909</v>
       </c>
@@ -4419,7 +4452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="3">
         <v>44909</v>
       </c>
@@ -4436,7 +4469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>44909</v>
       </c>
@@ -4453,7 +4486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3">
         <v>44936</v>
       </c>
@@ -4470,7 +4503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>44971</v>
       </c>
@@ -4487,3839 +4520,3936 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3">
+        <v>44968</v>
+      </c>
       <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="3">
+        <v>44969</v>
+      </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="3">
+        <v>44970</v>
+      </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.16666666666666666</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="3">
+        <v>44971</v>
+      </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="3">
+        <v>44972</v>
+      </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="3">
+        <v>44965</v>
+      </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75">
+      <c r="A61" s="3">
+        <v>44967</v>
+      </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.125</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="A62" s="3">
+        <v>44968</v>
+      </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.25</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="A63" s="3">
+        <v>44969</v>
+      </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="3">
+        <v>44970</v>
+      </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="3">
+        <v>44971</v>
+      </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="3">
+        <v>44972</v>
+      </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="3"/>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="3"/>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="3"/>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="3"/>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="3"/>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="3"/>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="3"/>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="3"/>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="3"/>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="3"/>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="3"/>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="3"/>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="3"/>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="3"/>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="3"/>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="3"/>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="3"/>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="3"/>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="3"/>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="3"/>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="3"/>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="3"/>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="3"/>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="3"/>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="3"/>
       <c r="B130" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="3"/>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="3"/>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="3"/>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="3"/>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="3"/>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="3"/>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="3"/>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="3"/>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="3"/>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="3"/>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="3"/>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="3"/>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="3"/>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="3"/>
       <c r="B144" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75">
       <c r="A145" s="3"/>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75">
       <c r="A146" s="3"/>
       <c r="B146" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="3"/>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="3"/>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="3"/>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="3"/>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="3"/>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="3"/>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="3"/>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="3"/>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="3"/>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="3"/>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="3"/>
       <c r="B157" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="3"/>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="3"/>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="3"/>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="3"/>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="3"/>
       <c r="B163" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="3"/>
       <c r="B164" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="3"/>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="3"/>
       <c r="B166" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="3"/>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="3"/>
       <c r="B168" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="3"/>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="3"/>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="3"/>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="3"/>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="3"/>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="3"/>
       <c r="B174" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="3"/>
       <c r="B175" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="3"/>
       <c r="B176" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="3"/>
       <c r="B177" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="3"/>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="3"/>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75">
       <c r="A180" s="3"/>
       <c r="B180" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="3"/>
       <c r="B181" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="3"/>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="3"/>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="3"/>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="3"/>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="3"/>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="3"/>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="3"/>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="3"/>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="3"/>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="3"/>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="3"/>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="3"/>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="3"/>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="3"/>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="3"/>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="3"/>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="3"/>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75">
       <c r="A199" s="3"/>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="3"/>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="3"/>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="3"/>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="3"/>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="3"/>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="3"/>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="3"/>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="3"/>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="3"/>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="3"/>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="3"/>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="3"/>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="3"/>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75">
       <c r="A213" s="3"/>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="3"/>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="3"/>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="3"/>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="3"/>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="3"/>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="3"/>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="3"/>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="3"/>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="3"/>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75">
       <c r="A223" s="3"/>
       <c r="B223" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="3"/>
       <c r="B224" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="3"/>
       <c r="B225" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="3"/>
       <c r="B226" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="3"/>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="3"/>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="3"/>
       <c r="B229" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="3"/>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="3"/>
       <c r="B231" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="3"/>
       <c r="B232" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="3"/>
       <c r="B233" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="3"/>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="3"/>
       <c r="B235" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="3"/>
       <c r="B236" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="3"/>
       <c r="B237" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="3"/>
       <c r="B238" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="3"/>
       <c r="B239" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="3"/>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="3"/>
       <c r="B241" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="3"/>
       <c r="B242" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="3"/>
       <c r="B243" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="3"/>
       <c r="B244" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="3"/>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="3"/>
       <c r="B246" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="3"/>
       <c r="B247" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="3"/>
       <c r="B248" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="3"/>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="3"/>
       <c r="B250" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="3"/>
       <c r="B251" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="3"/>
       <c r="B252" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="3"/>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.75">
       <c r="A254" s="3"/>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="3"/>
       <c r="B255" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="3"/>
       <c r="B256" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="3"/>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="3"/>
       <c r="B258" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="3"/>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="3"/>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="3"/>
       <c r="B261" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="3"/>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="3"/>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="3"/>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="3"/>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="3"/>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="3"/>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="3"/>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="3"/>
       <c r="B269" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="3"/>
       <c r="B270" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="3"/>
       <c r="B271" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.75">
       <c r="A272" s="3"/>
       <c r="B272" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.75">
       <c r="A273" s="3"/>
       <c r="B273" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="3"/>
       <c r="B274" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75">
       <c r="A275" s="3"/>
       <c r="B275" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="3"/>
       <c r="B276" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75">
       <c r="A277" s="3"/>
       <c r="B277" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="3"/>
       <c r="B278" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="3"/>
       <c r="B279" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15.75">
       <c r="A280" s="3"/>
       <c r="B280" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="3"/>
       <c r="B281" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75">
       <c r="A282" s="3"/>
       <c r="B282" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="3"/>
       <c r="B283" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="3"/>
       <c r="B284" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.75">
       <c r="A285" s="3"/>
       <c r="B285" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.75">
       <c r="A286" s="3"/>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.75">
       <c r="A287" s="3"/>
       <c r="B287" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.75">
       <c r="A288" s="3"/>
       <c r="B288" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="3"/>
       <c r="B289" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="3"/>
       <c r="B290" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="3"/>
       <c r="B291" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="3"/>
       <c r="B292" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="3"/>
       <c r="B293" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="3"/>
       <c r="B294" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="3"/>
       <c r="B295" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="3"/>
       <c r="B296" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="3"/>
       <c r="B297" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.75">
       <c r="A298" s="3"/>
       <c r="B298" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="3"/>
       <c r="B299" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="3"/>
       <c r="B300" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="3"/>
       <c r="B301" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="3"/>
       <c r="B302" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="3"/>
       <c r="B303" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.75">
       <c r="B304" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" ht="15.75">
       <c r="B305" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" ht="15.75">
       <c r="B306" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" ht="15.75">
       <c r="B307" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" ht="15.75">
       <c r="B308" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" ht="15.75">
       <c r="B309" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" ht="15.75">
       <c r="B310" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" ht="15.75">
       <c r="B311" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" ht="15.75">
       <c r="B312" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" ht="15.75">
       <c r="B313" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" ht="15.75">
       <c r="B314" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" ht="15.75">
       <c r="B315" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" ht="15.75">
       <c r="B316" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" ht="15.75">
       <c r="B317" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" ht="15.75">
       <c r="B318" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" ht="15.75">
       <c r="B319" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="15.75">
       <c r="B320" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" ht="15.75">
       <c r="B321" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" ht="15.75">
       <c r="B322" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" ht="15.75">
       <c r="B323" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" ht="15.75">
       <c r="B324" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" ht="15.75">
       <c r="B325" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" ht="15.75">
       <c r="B326" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" ht="15.75">
       <c r="B327" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" ht="15.75">
       <c r="B328" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" ht="15.75">
       <c r="B329" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" ht="15.75">
       <c r="B330" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" ht="15.75">
       <c r="B331" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" ht="15.75">
       <c r="B332" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" ht="15.75">
       <c r="B333" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" ht="15.75">
       <c r="B334" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" ht="15.75">
       <c r="B335" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" ht="15.75">
       <c r="B336" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" ht="15.75">
       <c r="B337" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" ht="15.75">
       <c r="B338" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" ht="15.75">
       <c r="B339" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" ht="15.75">
       <c r="B340" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" ht="15.75">
       <c r="B341" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" ht="15.75">
       <c r="B342" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" ht="15.75">
       <c r="B343" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" ht="15.75">
       <c r="B344" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" ht="15.75">
       <c r="B345" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" ht="15.75">
       <c r="B346" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" ht="15.75">
       <c r="B347" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" ht="15.75">
       <c r="B348" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" ht="15.75">
       <c r="B349" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" ht="15.75">
       <c r="B350" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" ht="15.75">
       <c r="B351" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" ht="15.75">
       <c r="B352" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" ht="15.75">
       <c r="B353" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="15.75">
       <c r="B354" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" ht="15.75">
       <c r="B355" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" ht="15.75">
       <c r="B356" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" ht="15.75">
       <c r="B357" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" ht="15.75">
       <c r="B358" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" ht="15.75">
       <c r="B359" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" ht="15.75">
       <c r="B360" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" ht="15.75">
       <c r="B361" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" ht="15.75">
       <c r="B362" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" ht="15.75">
       <c r="B363" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" ht="15.75">
       <c r="B364" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" ht="15.75">
       <c r="B365" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" ht="15.75">
       <c r="B366" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" ht="15.75">
       <c r="B367" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" ht="15.75">
       <c r="B368" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" ht="15.75">
       <c r="B369" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" ht="15.75">
       <c r="B370" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" ht="15.75">
       <c r="B371" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" ht="15.75">
       <c r="B372" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" ht="15.75">
       <c r="B373" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" ht="15.75">
       <c r="B374" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" ht="15.75">
       <c r="B375" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" ht="15.75">
       <c r="B376" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" ht="15.75">
       <c r="B377" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" ht="15.75">
       <c r="B378" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" ht="15.75">
       <c r="B379" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" ht="15.75">
       <c r="B380" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" ht="15.75">
       <c r="B381" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" ht="15.75">
       <c r="B382" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" ht="15.75">
       <c r="B383" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="15.75">
       <c r="B384" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" ht="15.75">
       <c r="B385" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" ht="15.75">
       <c r="B386" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" ht="15.75">
       <c r="B387" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" ht="15.75">
       <c r="B388" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" ht="15.75">
       <c r="B389" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" ht="15.75">
       <c r="B390" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" ht="15.75">
       <c r="B391" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" ht="15.75">
       <c r="B392" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" ht="15.75">
       <c r="B393" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" ht="15.75">
       <c r="B394" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" ht="15.75">
       <c r="B395" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" ht="15.75">
       <c r="B396" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" ht="15.75">
       <c r="B397" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" ht="15.75">
       <c r="B398" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" ht="15.75">
       <c r="B399" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" ht="15.75">
       <c r="B400" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" ht="15.75">
       <c r="B401" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" ht="15.75">
       <c r="B402" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" ht="15.75">
       <c r="B403" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" ht="15.75">
       <c r="B404" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" ht="15.75">
       <c r="B405" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" ht="15.75">
       <c r="B406" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" ht="15.75">
       <c r="B407" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" ht="15.75">
       <c r="B408" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" ht="15.75">
       <c r="B409" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" ht="15.75">
       <c r="B410" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" ht="15.75">
       <c r="B411" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" ht="15.75">
       <c r="B412" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" ht="15.75">
       <c r="B413" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" ht="15.75">
       <c r="B414" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" ht="15.75">
       <c r="B415" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" ht="15.75">
       <c r="B416" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" ht="15.75">
       <c r="B417" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" ht="15.75">
       <c r="B418" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" ht="15.75">
       <c r="B419" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" ht="15.75">
       <c r="B420" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" ht="15.75">
       <c r="B421" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" ht="15.75">
       <c r="B422" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" ht="15.75">
       <c r="B423" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" ht="15.75">
       <c r="B424" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" ht="15.75">
       <c r="B425" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" ht="15.75">
       <c r="B426" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" ht="15.75">
       <c r="B427" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" ht="15.75">
       <c r="B428" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" ht="15.75">
       <c r="B429" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" ht="15.75">
       <c r="B430" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" ht="15.75">
       <c r="B431" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" ht="15.75">
       <c r="B432" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" ht="15.75">
       <c r="B433" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" ht="15.75">
       <c r="B434" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" ht="15.75">
       <c r="B435" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" ht="15.75">
       <c r="B436" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" ht="15.75">
       <c r="B437" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" ht="15.75">
       <c r="B438" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" ht="15.75">
       <c r="B439" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" ht="15.75">
       <c r="B440" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" ht="15.75">
       <c r="B441" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" ht="15.75">
       <c r="B442" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" ht="15.75">
       <c r="B443" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" ht="15.75">
       <c r="B444" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" ht="15.75">
       <c r="B445" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" ht="15.75">
       <c r="B446" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" ht="15.75">
       <c r="B447" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" ht="15.75">
       <c r="B448" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" ht="15.75">
       <c r="B449" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" ht="15.75">
       <c r="B450" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" ht="15.75">
       <c r="B451" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" ht="15.75">
       <c r="B452" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" ht="15.75">
       <c r="B453" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" ht="15.75">
       <c r="B454" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" ht="15.75">
       <c r="B455" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" ht="15.75">
       <c r="B456" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" ht="15.75">
       <c r="B457" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" ht="15.75">
       <c r="B458" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" ht="15.75">
       <c r="B459" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" ht="15.75">
       <c r="B460" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" ht="15.75">
       <c r="B461" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" ht="15.75">
       <c r="B462" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" ht="15.75">
       <c r="B463" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" ht="15.75">
       <c r="B464" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" ht="15.75">
       <c r="B465" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" ht="15.75">
       <c r="B466" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" ht="15.75">
       <c r="B467" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" ht="15.75">
       <c r="B468" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" ht="15.75">
       <c r="B469" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" ht="15.75">
       <c r="B470" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" ht="15.75">
       <c r="B471" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" ht="15.75">
       <c r="B472" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" ht="15.75">
       <c r="B473" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" ht="15.75">
       <c r="B474" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" ht="15.75">
       <c r="B475" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" ht="15.75">
       <c r="B476" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" ht="15.75">
       <c r="B477" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" ht="15.75">
       <c r="B478" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" ht="15.75">
       <c r="B479" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" ht="15.75">
       <c r="B480" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" ht="15.75">
       <c r="B481" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" ht="15.75">
       <c r="B482" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" ht="15.75">
       <c r="B483" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" ht="15.75">
       <c r="B484" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" ht="15.75">
       <c r="B485" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" ht="15.75">
       <c r="B486" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" ht="15.75">
       <c r="B487" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" ht="15.75">
       <c r="B488" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" ht="15.75">
       <c r="B489" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" ht="15.75">
       <c r="B490" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" ht="15.75">
       <c r="B491" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" ht="15.75">
       <c r="B492" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" ht="15.75">
       <c r="B493" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" ht="15.75">
       <c r="B494" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" ht="15.75">
       <c r="B495" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" ht="15.75">
       <c r="B496" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" ht="15.75">
       <c r="B497" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" ht="15.75">
       <c r="B498" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" ht="15.75">
       <c r="B499" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" ht="15.75">
       <c r="B500" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" ht="15.75">
       <c r="B501" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" ht="15.75">
       <c r="B502" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" ht="15.75"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8341,7 +8471,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D6:D502</xm:sqref>
+          <xm:sqref>D6:D66 D67:D502</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -8350,7 +8480,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B6:B502</xm:sqref>
+          <xm:sqref>B6:B66 B67:B502</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8366,73 +8496,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.046875" customWidth="1"/>
-    <col min="2" max="2" width="36.62109375" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="9" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -8451,20 +8581,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.9921875" customWidth="1"/>
-    <col min="2" max="2" width="22.0703125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="14.671875" customWidth="1"/>
-    <col min="5" max="5" width="9.37109375" customWidth="1"/>
-    <col min="6" max="6" width="23.55078125" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -8475,12 +8605,12 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>8</v>
@@ -8495,12 +8625,12 @@
         <v>29</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -8509,7 +8639,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
@@ -8528,7 +8658,7 @@
         <v>1.1458333333333299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -8549,7 +8679,7 @@
         <v>2.1979166666666701</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
@@ -8568,9 +8698,9 @@
         <v>0.91666666666666496</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="35">
